--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>CRZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9519700</v>
+        <v>9720300</v>
       </c>
       <c r="E8" s="3">
-        <v>9155100</v>
+        <v>9602900</v>
       </c>
       <c r="F8" s="3">
-        <v>9632800</v>
+        <v>9235200</v>
       </c>
       <c r="G8" s="3">
-        <v>12579800</v>
+        <v>9717000</v>
       </c>
       <c r="H8" s="3">
-        <v>13411000</v>
+        <v>12689800</v>
       </c>
       <c r="I8" s="3">
-        <v>15230400</v>
+        <v>13528200</v>
       </c>
       <c r="J8" s="3">
+        <v>15363500</v>
+      </c>
+      <c r="K8" s="3">
         <v>17985200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20357400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-728000</v>
+        <v>-1103200</v>
       </c>
       <c r="E15" s="3">
-        <v>-1345100</v>
+        <v>-734300</v>
       </c>
       <c r="F15" s="3">
-        <v>-600600</v>
+        <v>-1356800</v>
       </c>
       <c r="G15" s="3">
-        <v>-532500</v>
+        <v>-605900</v>
       </c>
       <c r="H15" s="3">
-        <v>-460100</v>
+        <v>-537200</v>
       </c>
       <c r="I15" s="3">
-        <v>-419400</v>
+        <v>-464100</v>
       </c>
       <c r="J15" s="3">
+        <v>-423100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-869600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-556400</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4306400</v>
+        <v>4787000</v>
       </c>
       <c r="E17" s="3">
-        <v>5296800</v>
+        <v>4344000</v>
       </c>
       <c r="F17" s="3">
-        <v>6047800</v>
+        <v>5343100</v>
       </c>
       <c r="G17" s="3">
-        <v>7055700</v>
+        <v>6100700</v>
       </c>
       <c r="H17" s="3">
-        <v>8785100</v>
+        <v>7117400</v>
       </c>
       <c r="I17" s="3">
-        <v>10383800</v>
+        <v>8861900</v>
       </c>
       <c r="J17" s="3">
+        <v>10474600</v>
+      </c>
+      <c r="K17" s="3">
         <v>12685200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14096300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5213300</v>
+        <v>4933300</v>
       </c>
       <c r="E18" s="3">
-        <v>3858400</v>
+        <v>5258900</v>
       </c>
       <c r="F18" s="3">
-        <v>3585000</v>
+        <v>3892100</v>
       </c>
       <c r="G18" s="3">
-        <v>5524000</v>
+        <v>3616300</v>
       </c>
       <c r="H18" s="3">
-        <v>4625900</v>
+        <v>5572300</v>
       </c>
       <c r="I18" s="3">
-        <v>4846600</v>
+        <v>4666300</v>
       </c>
       <c r="J18" s="3">
+        <v>4888900</v>
+      </c>
+      <c r="K18" s="3">
         <v>5300000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6261100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3846300</v>
+        <v>-3682800</v>
       </c>
       <c r="E20" s="3">
-        <v>-3484000</v>
+        <v>-3879900</v>
       </c>
       <c r="F20" s="3">
-        <v>-2879000</v>
+        <v>-3514400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3516900</v>
+        <v>-2904100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3936300</v>
+        <v>-3547600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4585200</v>
+        <v>-3970700</v>
       </c>
       <c r="J20" s="3">
+        <v>-4625300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4356900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5666000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3012200</v>
+        <v>5165300</v>
       </c>
       <c r="E21" s="3">
-        <v>2499000</v>
+        <v>3025000</v>
       </c>
       <c r="F21" s="3">
-        <v>2308300</v>
+        <v>2503500</v>
       </c>
       <c r="G21" s="3">
-        <v>2730700</v>
+        <v>2315300</v>
       </c>
       <c r="H21" s="3">
-        <v>4882700</v>
+        <v>2748700</v>
       </c>
       <c r="I21" s="3">
-        <v>6357000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>4891000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6362600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>5300600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1367000</v>
+        <v>1250500</v>
       </c>
       <c r="E23" s="3">
-        <v>374400</v>
+        <v>1379000</v>
       </c>
       <c r="F23" s="3">
-        <v>706000</v>
+        <v>377700</v>
       </c>
       <c r="G23" s="3">
-        <v>2007100</v>
+        <v>712200</v>
       </c>
       <c r="H23" s="3">
-        <v>689500</v>
+        <v>2024700</v>
       </c>
       <c r="I23" s="3">
-        <v>261300</v>
+        <v>695600</v>
       </c>
       <c r="J23" s="3">
+        <v>263600</v>
+      </c>
+      <c r="K23" s="3">
         <v>943200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>595100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>294300</v>
+        <v>406500</v>
       </c>
       <c r="E24" s="3">
-        <v>236100</v>
+        <v>296800</v>
       </c>
       <c r="F24" s="3">
-        <v>286600</v>
+        <v>238100</v>
       </c>
       <c r="G24" s="3">
-        <v>690600</v>
+        <v>289100</v>
       </c>
       <c r="H24" s="3">
-        <v>281100</v>
+        <v>696700</v>
       </c>
       <c r="I24" s="3">
-        <v>72500</v>
+        <v>283500</v>
       </c>
       <c r="J24" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K24" s="3">
         <v>881700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-281700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1072700</v>
+        <v>844000</v>
       </c>
       <c r="E26" s="3">
-        <v>138300</v>
+        <v>1082100</v>
       </c>
       <c r="F26" s="3">
-        <v>419400</v>
+        <v>139600</v>
       </c>
       <c r="G26" s="3">
-        <v>1316500</v>
+        <v>423100</v>
       </c>
       <c r="H26" s="3">
-        <v>408500</v>
+        <v>1328000</v>
       </c>
       <c r="I26" s="3">
-        <v>188900</v>
+        <v>412000</v>
       </c>
       <c r="J26" s="3">
+        <v>190500</v>
+      </c>
+      <c r="K26" s="3">
         <v>61500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>876800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>960800</v>
+        <v>733200</v>
       </c>
       <c r="E27" s="3">
-        <v>35100</v>
+        <v>969200</v>
       </c>
       <c r="F27" s="3">
-        <v>306300</v>
+        <v>35400</v>
       </c>
       <c r="G27" s="3">
-        <v>1190200</v>
+        <v>309000</v>
       </c>
       <c r="H27" s="3">
-        <v>292100</v>
+        <v>1200600</v>
       </c>
       <c r="I27" s="3">
-        <v>88900</v>
+        <v>294600</v>
       </c>
       <c r="J27" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-51600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>748900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-11000</v>
+        <v>-19900</v>
       </c>
       <c r="E29" s="3">
-        <v>105400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+        <v>-11100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>106300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1313,12 +1373,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3846300</v>
+        <v>3682800</v>
       </c>
       <c r="E32" s="3">
-        <v>3484000</v>
+        <v>3879900</v>
       </c>
       <c r="F32" s="3">
-        <v>2879000</v>
+        <v>3514400</v>
       </c>
       <c r="G32" s="3">
-        <v>3516900</v>
+        <v>2904100</v>
       </c>
       <c r="H32" s="3">
-        <v>3936300</v>
+        <v>3547600</v>
       </c>
       <c r="I32" s="3">
-        <v>4585200</v>
+        <v>3970700</v>
       </c>
       <c r="J32" s="3">
+        <v>4625300</v>
+      </c>
+      <c r="K32" s="3">
         <v>4356900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5666000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>949800</v>
+        <v>713300</v>
       </c>
       <c r="E33" s="3">
-        <v>140500</v>
+        <v>958100</v>
       </c>
       <c r="F33" s="3">
-        <v>306300</v>
+        <v>141800</v>
       </c>
       <c r="G33" s="3">
-        <v>1190200</v>
+        <v>309000</v>
       </c>
       <c r="H33" s="3">
-        <v>292100</v>
+        <v>1200600</v>
       </c>
       <c r="I33" s="3">
-        <v>88900</v>
+        <v>294600</v>
       </c>
       <c r="J33" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-51600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>748900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>949800</v>
+        <v>713300</v>
       </c>
       <c r="E35" s="3">
-        <v>140500</v>
+        <v>958100</v>
       </c>
       <c r="F35" s="3">
-        <v>306300</v>
+        <v>141800</v>
       </c>
       <c r="G35" s="3">
-        <v>1190200</v>
+        <v>309000</v>
       </c>
       <c r="H35" s="3">
-        <v>292100</v>
+        <v>1200600</v>
       </c>
       <c r="I35" s="3">
-        <v>88900</v>
+        <v>294600</v>
       </c>
       <c r="J35" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-51600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>748900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97028100</v>
+        <v>73755100</v>
       </c>
       <c r="E41" s="3">
-        <v>61194800</v>
+        <v>95226400</v>
       </c>
       <c r="F41" s="3">
-        <v>105564000</v>
+        <v>61852500</v>
       </c>
       <c r="G41" s="3">
-        <v>93383800</v>
+        <v>106698000</v>
       </c>
       <c r="H41" s="3">
-        <v>40672100</v>
+        <v>94387400</v>
       </c>
       <c r="I41" s="3">
-        <v>158307000</v>
+        <v>41109200</v>
       </c>
       <c r="J41" s="3">
+        <v>160009000</v>
+      </c>
+      <c r="K41" s="3">
         <v>183871000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117311000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>115168000</v>
+        <v>120889000</v>
       </c>
       <c r="E42" s="3">
-        <v>97752700</v>
+        <v>116406000</v>
       </c>
       <c r="F42" s="3">
-        <v>164328000</v>
+        <v>98803300</v>
       </c>
       <c r="G42" s="3">
-        <v>178035000</v>
+        <v>166094000</v>
       </c>
       <c r="H42" s="3">
-        <v>201549000</v>
+        <v>179949000</v>
       </c>
       <c r="I42" s="3">
-        <v>179654000</v>
+        <v>203715000</v>
       </c>
       <c r="J42" s="3">
+        <v>181584000</v>
+      </c>
+      <c r="K42" s="3">
         <v>226629000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>188959000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>190000</v>
+        <v>196400</v>
       </c>
       <c r="E47" s="3">
-        <v>198700</v>
+        <v>192000</v>
       </c>
       <c r="F47" s="3">
-        <v>364500</v>
+        <v>200900</v>
       </c>
       <c r="G47" s="3">
-        <v>986000</v>
+        <v>368500</v>
       </c>
       <c r="H47" s="3">
-        <v>866300</v>
+        <v>996600</v>
       </c>
       <c r="I47" s="3">
-        <v>924500</v>
+        <v>875600</v>
       </c>
       <c r="J47" s="3">
+        <v>934500</v>
+      </c>
+      <c r="K47" s="3">
         <v>989300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>814600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1712900</v>
+        <v>3884300</v>
       </c>
       <c r="E48" s="3">
-        <v>1774400</v>
+        <v>1731300</v>
       </c>
       <c r="F48" s="3">
-        <v>3801300</v>
+        <v>1793400</v>
       </c>
       <c r="G48" s="3">
-        <v>5154000</v>
+        <v>3842100</v>
       </c>
       <c r="H48" s="3">
-        <v>2784500</v>
+        <v>5209400</v>
       </c>
       <c r="I48" s="3">
-        <v>7224800</v>
+        <v>2814500</v>
       </c>
       <c r="J48" s="3">
+        <v>7302500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6852600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4478100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7128200</v>
+        <v>3388200</v>
       </c>
       <c r="E49" s="3">
-        <v>7253400</v>
+        <v>7204800</v>
       </c>
       <c r="F49" s="3">
-        <v>6691200</v>
+        <v>7331300</v>
       </c>
       <c r="G49" s="3">
-        <v>7740900</v>
+        <v>6763100</v>
       </c>
       <c r="H49" s="3">
-        <v>3656300</v>
+        <v>7824100</v>
       </c>
       <c r="I49" s="3">
-        <v>10563900</v>
+        <v>3695600</v>
       </c>
       <c r="J49" s="3">
+        <v>10677400</v>
+      </c>
+      <c r="K49" s="3">
         <v>10050000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7132100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18165300</v>
+        <v>12276600</v>
       </c>
       <c r="E52" s="3">
-        <v>3346700</v>
+        <v>18778900</v>
       </c>
       <c r="F52" s="3">
-        <v>4636900</v>
+        <v>3382700</v>
       </c>
       <c r="G52" s="3">
-        <v>3960500</v>
+        <v>4686700</v>
       </c>
       <c r="H52" s="3">
-        <v>4224000</v>
+        <v>4003000</v>
       </c>
       <c r="I52" s="3">
-        <v>4812500</v>
+        <v>4269400</v>
       </c>
       <c r="J52" s="3">
+        <v>4864300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4430400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7039300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>507700000</v>
+        <v>514543000</v>
       </c>
       <c r="E54" s="3">
-        <v>496840000</v>
+        <v>513156000</v>
       </c>
       <c r="F54" s="3">
-        <v>527519000</v>
+        <v>502179000</v>
       </c>
       <c r="G54" s="3">
-        <v>584906000</v>
+        <v>533188000</v>
       </c>
       <c r="H54" s="3">
-        <v>613032000</v>
+        <v>591192000</v>
       </c>
       <c r="I54" s="3">
-        <v>604739000</v>
+        <v>619620000</v>
       </c>
       <c r="J54" s="3">
+        <v>611238000</v>
+      </c>
+      <c r="K54" s="3">
         <v>698345000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>776883000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,9 +2167,12 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>860800</v>
+        <v>811300</v>
       </c>
       <c r="E59" s="3">
-        <v>1039800</v>
+        <v>870100</v>
       </c>
       <c r="F59" s="3">
-        <v>1091400</v>
+        <v>1051000</v>
       </c>
       <c r="G59" s="3">
-        <v>841100</v>
+        <v>1103100</v>
       </c>
       <c r="H59" s="3">
-        <v>825700</v>
+        <v>850100</v>
       </c>
       <c r="I59" s="3">
-        <v>789500</v>
+        <v>834600</v>
       </c>
       <c r="J59" s="3">
+        <v>797900</v>
+      </c>
+      <c r="K59" s="3">
         <v>837800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>798200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50936200</v>
+        <v>50247300</v>
       </c>
       <c r="E61" s="3">
-        <v>48357000</v>
+        <v>51483600</v>
       </c>
       <c r="F61" s="3">
-        <v>51342500</v>
+        <v>48876700</v>
       </c>
       <c r="G61" s="3">
-        <v>58377400</v>
+        <v>51894200</v>
       </c>
       <c r="H61" s="3">
-        <v>68258300</v>
+        <v>59004700</v>
       </c>
       <c r="I61" s="3">
-        <v>86034900</v>
+        <v>68991800</v>
       </c>
       <c r="J61" s="3">
+        <v>86959500</v>
+      </c>
+      <c r="K61" s="3">
         <v>102411000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>142204000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3489400</v>
+        <v>3030900</v>
       </c>
       <c r="E62" s="3">
-        <v>3644300</v>
+        <v>3526900</v>
       </c>
       <c r="F62" s="3">
-        <v>3826500</v>
+        <v>3683400</v>
       </c>
       <c r="G62" s="3">
-        <v>3768300</v>
+        <v>3867700</v>
       </c>
       <c r="H62" s="3">
-        <v>5932500</v>
+        <v>3808800</v>
       </c>
       <c r="I62" s="3">
-        <v>8620400</v>
+        <v>5996200</v>
       </c>
       <c r="J62" s="3">
+        <v>8713000</v>
+      </c>
+      <c r="K62" s="3">
         <v>9101300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5042700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>476711000</v>
+        <v>481947000</v>
       </c>
       <c r="E66" s="3">
-        <v>465153000</v>
+        <v>481842000</v>
       </c>
       <c r="F66" s="3">
-        <v>496174000</v>
+        <v>470152000</v>
       </c>
       <c r="G66" s="3">
-        <v>552931000</v>
+        <v>501506000</v>
       </c>
       <c r="H66" s="3">
-        <v>584345000</v>
+        <v>558873000</v>
       </c>
       <c r="I66" s="3">
-        <v>576131000</v>
+        <v>590625000</v>
       </c>
       <c r="J66" s="3">
+        <v>582322000</v>
+      </c>
+      <c r="K66" s="3">
         <v>670497000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>748981000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29930400</v>
+        <v>30411800</v>
       </c>
       <c r="E72" s="3">
-        <v>31207400</v>
+        <v>30244300</v>
       </c>
       <c r="F72" s="3">
-        <v>31084400</v>
+        <v>31542700</v>
       </c>
       <c r="G72" s="3">
-        <v>31457700</v>
+        <v>31418400</v>
       </c>
       <c r="H72" s="3">
-        <v>28976200</v>
+        <v>31795800</v>
       </c>
       <c r="I72" s="3">
-        <v>27357800</v>
+        <v>29287600</v>
       </c>
       <c r="J72" s="3">
+        <v>27651800</v>
+      </c>
+      <c r="K72" s="3">
         <v>21423100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23060700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30988900</v>
+        <v>32595900</v>
       </c>
       <c r="E76" s="3">
-        <v>31686100</v>
+        <v>31314100</v>
       </c>
       <c r="F76" s="3">
-        <v>31344600</v>
+        <v>32026600</v>
       </c>
       <c r="G76" s="3">
-        <v>31974900</v>
+        <v>31681500</v>
       </c>
       <c r="H76" s="3">
-        <v>28687400</v>
+        <v>32318500</v>
       </c>
       <c r="I76" s="3">
-        <v>28608400</v>
+        <v>28995700</v>
       </c>
       <c r="J76" s="3">
+        <v>28915800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27847500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27901500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>949800</v>
+        <v>713300</v>
       </c>
       <c r="E81" s="3">
-        <v>140500</v>
+        <v>958100</v>
       </c>
       <c r="F81" s="3">
-        <v>306300</v>
+        <v>141800</v>
       </c>
       <c r="G81" s="3">
-        <v>1190200</v>
+        <v>309000</v>
       </c>
       <c r="H81" s="3">
-        <v>292100</v>
+        <v>1200600</v>
       </c>
       <c r="I81" s="3">
-        <v>88900</v>
+        <v>294600</v>
       </c>
       <c r="J81" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-51600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>748900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1642600</v>
+        <v>3940800</v>
       </c>
       <c r="E83" s="3">
-        <v>2121300</v>
+        <v>1657000</v>
       </c>
       <c r="F83" s="3">
-        <v>1599800</v>
+        <v>2139900</v>
       </c>
       <c r="G83" s="3">
-        <v>722500</v>
+        <v>1613800</v>
       </c>
       <c r="H83" s="3">
-        <v>4186700</v>
+        <v>728800</v>
       </c>
       <c r="I83" s="3">
-        <v>6086200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>4223300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6139400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>4702300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1864400</v>
+        <v>-11947700</v>
       </c>
       <c r="E89" s="3">
-        <v>22395900</v>
+        <v>-445300</v>
       </c>
       <c r="F89" s="3">
-        <v>7961600</v>
+        <v>22591700</v>
       </c>
       <c r="G89" s="3">
-        <v>16037400</v>
+        <v>8031200</v>
       </c>
       <c r="H89" s="3">
-        <v>3284100</v>
+        <v>16177600</v>
       </c>
       <c r="I89" s="3">
-        <v>-9367000</v>
+        <v>3312800</v>
       </c>
       <c r="J89" s="3">
+        <v>-9448900</v>
+      </c>
+      <c r="K89" s="3">
         <v>5913800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17478000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-646700</v>
+        <v>-774200</v>
       </c>
       <c r="E91" s="3">
-        <v>-997000</v>
+        <v>-652400</v>
       </c>
       <c r="F91" s="3">
-        <v>-397500</v>
+        <v>-1005700</v>
       </c>
       <c r="G91" s="3">
-        <v>-276700</v>
+        <v>-401000</v>
       </c>
       <c r="H91" s="3">
-        <v>-807000</v>
+        <v>-279100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1677700</v>
+        <v>-814100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1692400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-501800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-347400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-610500</v>
+        <v>-934800</v>
       </c>
       <c r="E94" s="3">
-        <v>-498500</v>
+        <v>-618000</v>
       </c>
       <c r="F94" s="3">
-        <v>-23100</v>
+        <v>-502900</v>
       </c>
       <c r="G94" s="3">
-        <v>9127700</v>
+        <v>-23300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9779900</v>
+        <v>9207500</v>
       </c>
       <c r="I94" s="3">
-        <v>6192700</v>
+        <v>-9865400</v>
       </c>
       <c r="J94" s="3">
+        <v>6246900</v>
+      </c>
+      <c r="K94" s="3">
         <v>5446100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>20317500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,22 +3291,23 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-276900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-274500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-276900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>360100</v>
+        <v>-1303600</v>
       </c>
       <c r="E100" s="3">
-        <v>-299800</v>
+        <v>-1071000</v>
       </c>
       <c r="F100" s="3">
-        <v>75800</v>
+        <v>-302400</v>
       </c>
       <c r="G100" s="3">
-        <v>546800</v>
+        <v>76400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1970900</v>
+        <v>551600</v>
       </c>
       <c r="I100" s="3">
-        <v>-170200</v>
+        <v>-1988100</v>
       </c>
       <c r="J100" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-687300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5239900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>117500</v>
+        <v>64200</v>
       </c>
       <c r="E101" s="3">
-        <v>-158100</v>
+        <v>118500</v>
       </c>
       <c r="F101" s="3">
-        <v>22000</v>
+        <v>-159500</v>
       </c>
       <c r="G101" s="3">
-        <v>214100</v>
+        <v>22200</v>
       </c>
       <c r="H101" s="3">
-        <v>231700</v>
+        <v>216000</v>
       </c>
       <c r="I101" s="3">
-        <v>-342600</v>
+        <v>233700</v>
       </c>
       <c r="J101" s="3">
+        <v>-345600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-43900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>78600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1997300</v>
+        <v>-14121900</v>
       </c>
       <c r="E102" s="3">
-        <v>21439500</v>
+        <v>-2015800</v>
       </c>
       <c r="F102" s="3">
-        <v>8036300</v>
+        <v>21627000</v>
       </c>
       <c r="G102" s="3">
-        <v>25926000</v>
+        <v>8106500</v>
       </c>
       <c r="H102" s="3">
-        <v>-8235000</v>
+        <v>26152700</v>
       </c>
       <c r="I102" s="3">
-        <v>-3687100</v>
+        <v>-8307000</v>
       </c>
       <c r="J102" s="3">
+        <v>-3719300</v>
+      </c>
+      <c r="K102" s="3">
         <v>10628600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2321800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9720300</v>
+        <v>10381100</v>
       </c>
       <c r="E8" s="3">
-        <v>9602900</v>
+        <v>10255700</v>
       </c>
       <c r="F8" s="3">
-        <v>9235200</v>
+        <v>9863000</v>
       </c>
       <c r="G8" s="3">
-        <v>9717000</v>
+        <v>10377600</v>
       </c>
       <c r="H8" s="3">
-        <v>12689800</v>
+        <v>13552500</v>
       </c>
       <c r="I8" s="3">
-        <v>13528200</v>
+        <v>14447900</v>
       </c>
       <c r="J8" s="3">
-        <v>15363500</v>
+        <v>16408000</v>
       </c>
       <c r="K8" s="3">
         <v>17985200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1103200</v>
+        <v>-1178200</v>
       </c>
       <c r="E15" s="3">
-        <v>-734300</v>
+        <v>-784300</v>
       </c>
       <c r="F15" s="3">
-        <v>-1356800</v>
+        <v>-1449100</v>
       </c>
       <c r="G15" s="3">
-        <v>-605900</v>
+        <v>-647000</v>
       </c>
       <c r="H15" s="3">
-        <v>-537200</v>
+        <v>-573700</v>
       </c>
       <c r="I15" s="3">
-        <v>-464100</v>
+        <v>-495600</v>
       </c>
       <c r="J15" s="3">
-        <v>-423100</v>
+        <v>-451900</v>
       </c>
       <c r="K15" s="3">
         <v>-869600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4787000</v>
+        <v>5112500</v>
       </c>
       <c r="E17" s="3">
-        <v>4344000</v>
+        <v>4639300</v>
       </c>
       <c r="F17" s="3">
-        <v>5343100</v>
+        <v>5706300</v>
       </c>
       <c r="G17" s="3">
-        <v>6100700</v>
+        <v>6515400</v>
       </c>
       <c r="H17" s="3">
-        <v>7117400</v>
+        <v>7601300</v>
       </c>
       <c r="I17" s="3">
-        <v>8861900</v>
+        <v>9464400</v>
       </c>
       <c r="J17" s="3">
-        <v>10474600</v>
+        <v>11186700</v>
       </c>
       <c r="K17" s="3">
         <v>12685200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4933300</v>
+        <v>5268600</v>
       </c>
       <c r="E18" s="3">
-        <v>5258900</v>
+        <v>5616400</v>
       </c>
       <c r="F18" s="3">
-        <v>3892100</v>
+        <v>4156700</v>
       </c>
       <c r="G18" s="3">
-        <v>3616300</v>
+        <v>3862200</v>
       </c>
       <c r="H18" s="3">
-        <v>5572300</v>
+        <v>5951200</v>
       </c>
       <c r="I18" s="3">
-        <v>4666300</v>
+        <v>4983600</v>
       </c>
       <c r="J18" s="3">
-        <v>4888900</v>
+        <v>5221300</v>
       </c>
       <c r="K18" s="3">
         <v>5300000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3682800</v>
+        <v>-3933100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3879900</v>
+        <v>-4143700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3514400</v>
+        <v>-3753300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2904100</v>
+        <v>-3101600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3547600</v>
+        <v>-3788800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3970700</v>
+        <v>-4240700</v>
       </c>
       <c r="J20" s="3">
-        <v>-4625300</v>
+        <v>-4939800</v>
       </c>
       <c r="K20" s="3">
         <v>-4356900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5165300</v>
+        <v>5545700</v>
       </c>
       <c r="E21" s="3">
-        <v>3025000</v>
+        <v>3242900</v>
       </c>
       <c r="F21" s="3">
-        <v>2503500</v>
+        <v>2689500</v>
       </c>
       <c r="G21" s="3">
-        <v>2315300</v>
+        <v>2484700</v>
       </c>
       <c r="H21" s="3">
-        <v>2748700</v>
+        <v>2941000</v>
       </c>
       <c r="I21" s="3">
-        <v>4891000</v>
+        <v>5254800</v>
       </c>
       <c r="J21" s="3">
-        <v>6362600</v>
+        <v>6840600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1250500</v>
+        <v>1335500</v>
       </c>
       <c r="E23" s="3">
-        <v>1379000</v>
+        <v>1472700</v>
       </c>
       <c r="F23" s="3">
-        <v>377700</v>
+        <v>403400</v>
       </c>
       <c r="G23" s="3">
-        <v>712200</v>
+        <v>760600</v>
       </c>
       <c r="H23" s="3">
-        <v>2024700</v>
+        <v>2162300</v>
       </c>
       <c r="I23" s="3">
-        <v>695600</v>
+        <v>742900</v>
       </c>
       <c r="J23" s="3">
-        <v>263600</v>
+        <v>281500</v>
       </c>
       <c r="K23" s="3">
         <v>943200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>406500</v>
+        <v>434100</v>
       </c>
       <c r="E24" s="3">
-        <v>296800</v>
+        <v>317000</v>
       </c>
       <c r="F24" s="3">
-        <v>238100</v>
+        <v>254300</v>
       </c>
       <c r="G24" s="3">
-        <v>289100</v>
+        <v>308700</v>
       </c>
       <c r="H24" s="3">
-        <v>696700</v>
+        <v>744000</v>
       </c>
       <c r="I24" s="3">
-        <v>283500</v>
+        <v>302800</v>
       </c>
       <c r="J24" s="3">
-        <v>73100</v>
+        <v>78100</v>
       </c>
       <c r="K24" s="3">
         <v>881700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>844000</v>
+        <v>901400</v>
       </c>
       <c r="E26" s="3">
-        <v>1082100</v>
+        <v>1155700</v>
       </c>
       <c r="F26" s="3">
-        <v>139600</v>
+        <v>149000</v>
       </c>
       <c r="G26" s="3">
-        <v>423100</v>
+        <v>451900</v>
       </c>
       <c r="H26" s="3">
-        <v>1328000</v>
+        <v>1418300</v>
       </c>
       <c r="I26" s="3">
-        <v>412000</v>
+        <v>440000</v>
       </c>
       <c r="J26" s="3">
-        <v>190500</v>
+        <v>203500</v>
       </c>
       <c r="K26" s="3">
         <v>61500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>733200</v>
+        <v>783100</v>
       </c>
       <c r="E27" s="3">
-        <v>969200</v>
+        <v>1035000</v>
       </c>
       <c r="F27" s="3">
-        <v>35400</v>
+        <v>37900</v>
       </c>
       <c r="G27" s="3">
-        <v>309000</v>
+        <v>330000</v>
       </c>
       <c r="H27" s="3">
-        <v>1200600</v>
+        <v>1282300</v>
       </c>
       <c r="I27" s="3">
-        <v>294600</v>
+        <v>314700</v>
       </c>
       <c r="J27" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="K27" s="3">
         <v>-51600</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-19900</v>
+        <v>-21300</v>
       </c>
       <c r="E29" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="F29" s="3">
-        <v>106300</v>
+        <v>113600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3682800</v>
+        <v>3933100</v>
       </c>
       <c r="E32" s="3">
-        <v>3879900</v>
+        <v>4143700</v>
       </c>
       <c r="F32" s="3">
-        <v>3514400</v>
+        <v>3753300</v>
       </c>
       <c r="G32" s="3">
-        <v>2904100</v>
+        <v>3101600</v>
       </c>
       <c r="H32" s="3">
-        <v>3547600</v>
+        <v>3788800</v>
       </c>
       <c r="I32" s="3">
-        <v>3970700</v>
+        <v>4240700</v>
       </c>
       <c r="J32" s="3">
-        <v>4625300</v>
+        <v>4939800</v>
       </c>
       <c r="K32" s="3">
         <v>4356900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>713300</v>
+        <v>761800</v>
       </c>
       <c r="E33" s="3">
-        <v>958100</v>
+        <v>1023200</v>
       </c>
       <c r="F33" s="3">
-        <v>141800</v>
+        <v>151400</v>
       </c>
       <c r="G33" s="3">
-        <v>309000</v>
+        <v>330000</v>
       </c>
       <c r="H33" s="3">
-        <v>1200600</v>
+        <v>1282300</v>
       </c>
       <c r="I33" s="3">
-        <v>294600</v>
+        <v>314700</v>
       </c>
       <c r="J33" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="K33" s="3">
         <v>-51600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>713300</v>
+        <v>761800</v>
       </c>
       <c r="E35" s="3">
-        <v>958100</v>
+        <v>1023200</v>
       </c>
       <c r="F35" s="3">
-        <v>141800</v>
+        <v>151400</v>
       </c>
       <c r="G35" s="3">
-        <v>309000</v>
+        <v>330000</v>
       </c>
       <c r="H35" s="3">
-        <v>1200600</v>
+        <v>1282300</v>
       </c>
       <c r="I35" s="3">
-        <v>294600</v>
+        <v>314700</v>
       </c>
       <c r="J35" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="K35" s="3">
         <v>-51600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>73755100</v>
+        <v>78613200</v>
       </c>
       <c r="E41" s="3">
-        <v>95226400</v>
+        <v>101499000</v>
       </c>
       <c r="F41" s="3">
-        <v>61852500</v>
+        <v>65926600</v>
       </c>
       <c r="G41" s="3">
-        <v>106698000</v>
+        <v>113726000</v>
       </c>
       <c r="H41" s="3">
-        <v>94387400</v>
+        <v>100605000</v>
       </c>
       <c r="I41" s="3">
-        <v>41109200</v>
+        <v>43817000</v>
       </c>
       <c r="J41" s="3">
-        <v>160009000</v>
+        <v>170548000</v>
       </c>
       <c r="K41" s="3">
         <v>183871000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>120889000</v>
+        <v>128852000</v>
       </c>
       <c r="E42" s="3">
-        <v>116406000</v>
+        <v>124073000</v>
       </c>
       <c r="F42" s="3">
-        <v>98803300</v>
+        <v>105311000</v>
       </c>
       <c r="G42" s="3">
-        <v>166094000</v>
+        <v>177034000</v>
       </c>
       <c r="H42" s="3">
-        <v>179949000</v>
+        <v>191801000</v>
       </c>
       <c r="I42" s="3">
-        <v>203715000</v>
+        <v>217133000</v>
       </c>
       <c r="J42" s="3">
-        <v>181584000</v>
+        <v>193545000</v>
       </c>
       <c r="K42" s="3">
         <v>226629000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>196400</v>
+        <v>209400</v>
       </c>
       <c r="E47" s="3">
-        <v>192000</v>
+        <v>204600</v>
       </c>
       <c r="F47" s="3">
-        <v>200900</v>
+        <v>214100</v>
       </c>
       <c r="G47" s="3">
-        <v>368500</v>
+        <v>392700</v>
       </c>
       <c r="H47" s="3">
-        <v>996600</v>
+        <v>1062200</v>
       </c>
       <c r="I47" s="3">
-        <v>875600</v>
+        <v>933300</v>
       </c>
       <c r="J47" s="3">
-        <v>934500</v>
+        <v>996000</v>
       </c>
       <c r="K47" s="3">
         <v>989300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3884300</v>
+        <v>4140200</v>
       </c>
       <c r="E48" s="3">
-        <v>1731300</v>
+        <v>1845300</v>
       </c>
       <c r="F48" s="3">
-        <v>1793400</v>
+        <v>1911600</v>
       </c>
       <c r="G48" s="3">
-        <v>3842100</v>
+        <v>4095200</v>
       </c>
       <c r="H48" s="3">
-        <v>5209400</v>
+        <v>5552500</v>
       </c>
       <c r="I48" s="3">
-        <v>2814500</v>
+        <v>2999800</v>
       </c>
       <c r="J48" s="3">
-        <v>7302500</v>
+        <v>7783500</v>
       </c>
       <c r="K48" s="3">
         <v>6852600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3388200</v>
+        <v>7222800</v>
       </c>
       <c r="E49" s="3">
-        <v>7204800</v>
+        <v>7679400</v>
       </c>
       <c r="F49" s="3">
-        <v>7331300</v>
+        <v>7814200</v>
       </c>
       <c r="G49" s="3">
-        <v>6763100</v>
+        <v>7208600</v>
       </c>
       <c r="H49" s="3">
-        <v>7824100</v>
+        <v>8339400</v>
       </c>
       <c r="I49" s="3">
-        <v>3695600</v>
+        <v>3939100</v>
       </c>
       <c r="J49" s="3">
-        <v>10677400</v>
+        <v>11380700</v>
       </c>
       <c r="K49" s="3">
         <v>10050000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12276600</v>
+        <v>13008400</v>
       </c>
       <c r="E52" s="3">
-        <v>18778900</v>
+        <v>20015900</v>
       </c>
       <c r="F52" s="3">
-        <v>3382700</v>
+        <v>3605500</v>
       </c>
       <c r="G52" s="3">
-        <v>4686700</v>
+        <v>4995400</v>
       </c>
       <c r="H52" s="3">
-        <v>4003000</v>
+        <v>4266700</v>
       </c>
       <c r="I52" s="3">
-        <v>4269400</v>
+        <v>4550600</v>
       </c>
       <c r="J52" s="3">
-        <v>4864300</v>
+        <v>5184700</v>
       </c>
       <c r="K52" s="3">
         <v>4430400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>514543000</v>
+        <v>548342000</v>
       </c>
       <c r="E54" s="3">
-        <v>513156000</v>
+        <v>546956000</v>
       </c>
       <c r="F54" s="3">
-        <v>502179000</v>
+        <v>535256000</v>
       </c>
       <c r="G54" s="3">
-        <v>533188000</v>
+        <v>568308000</v>
       </c>
       <c r="H54" s="3">
-        <v>591192000</v>
+        <v>630132000</v>
       </c>
       <c r="I54" s="3">
-        <v>619620000</v>
+        <v>660433000</v>
       </c>
       <c r="J54" s="3">
-        <v>611238000</v>
+        <v>651499000</v>
       </c>
       <c r="K54" s="3">
         <v>698345000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>811300</v>
+        <v>863500</v>
       </c>
       <c r="E59" s="3">
-        <v>870100</v>
+        <v>927400</v>
       </c>
       <c r="F59" s="3">
-        <v>1051000</v>
+        <v>1120200</v>
       </c>
       <c r="G59" s="3">
-        <v>1103100</v>
+        <v>1175800</v>
       </c>
       <c r="H59" s="3">
-        <v>850100</v>
+        <v>906100</v>
       </c>
       <c r="I59" s="3">
-        <v>834600</v>
+        <v>889500</v>
       </c>
       <c r="J59" s="3">
-        <v>797900</v>
+        <v>850500</v>
       </c>
       <c r="K59" s="3">
         <v>837800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50247300</v>
+        <v>53557000</v>
       </c>
       <c r="E61" s="3">
-        <v>51483600</v>
+        <v>54874700</v>
       </c>
       <c r="F61" s="3">
-        <v>48876700</v>
+        <v>52096100</v>
       </c>
       <c r="G61" s="3">
-        <v>51894200</v>
+        <v>55312400</v>
       </c>
       <c r="H61" s="3">
-        <v>59004700</v>
+        <v>62891200</v>
       </c>
       <c r="I61" s="3">
-        <v>68991800</v>
+        <v>73536200</v>
       </c>
       <c r="J61" s="3">
-        <v>86959500</v>
+        <v>92687300</v>
       </c>
       <c r="K61" s="3">
         <v>102411000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3030900</v>
+        <v>3230500</v>
       </c>
       <c r="E62" s="3">
-        <v>3526900</v>
+        <v>3759300</v>
       </c>
       <c r="F62" s="3">
-        <v>3683400</v>
+        <v>3926000</v>
       </c>
       <c r="G62" s="3">
-        <v>3867700</v>
+        <v>4122400</v>
       </c>
       <c r="H62" s="3">
-        <v>3808800</v>
+        <v>4059700</v>
       </c>
       <c r="I62" s="3">
-        <v>5996200</v>
+        <v>6391200</v>
       </c>
       <c r="J62" s="3">
-        <v>8713000</v>
+        <v>9286900</v>
       </c>
       <c r="K62" s="3">
         <v>9101300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>481947000</v>
+        <v>513691000</v>
       </c>
       <c r="E66" s="3">
-        <v>481842000</v>
+        <v>513580000</v>
       </c>
       <c r="F66" s="3">
-        <v>470152000</v>
+        <v>501120000</v>
       </c>
       <c r="G66" s="3">
-        <v>501506000</v>
+        <v>534540000</v>
       </c>
       <c r="H66" s="3">
-        <v>558873000</v>
+        <v>595685000</v>
       </c>
       <c r="I66" s="3">
-        <v>590625000</v>
+        <v>629528000</v>
       </c>
       <c r="J66" s="3">
-        <v>582322000</v>
+        <v>620678000</v>
       </c>
       <c r="K66" s="3">
         <v>670497000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>30411800</v>
+        <v>32322700</v>
       </c>
       <c r="E72" s="3">
-        <v>30244300</v>
+        <v>32236400</v>
       </c>
       <c r="F72" s="3">
-        <v>31542700</v>
+        <v>33620400</v>
       </c>
       <c r="G72" s="3">
-        <v>31418400</v>
+        <v>33487900</v>
       </c>
       <c r="H72" s="3">
-        <v>31795800</v>
+        <v>33890100</v>
       </c>
       <c r="I72" s="3">
-        <v>29287600</v>
+        <v>31216700</v>
       </c>
       <c r="J72" s="3">
-        <v>27651800</v>
+        <v>29473100</v>
       </c>
       <c r="K72" s="3">
         <v>21423100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32595900</v>
+        <v>34650700</v>
       </c>
       <c r="E76" s="3">
-        <v>31314100</v>
+        <v>33376700</v>
       </c>
       <c r="F76" s="3">
-        <v>32026600</v>
+        <v>34136100</v>
       </c>
       <c r="G76" s="3">
-        <v>31681500</v>
+        <v>33768200</v>
       </c>
       <c r="H76" s="3">
-        <v>32318500</v>
+        <v>34447200</v>
       </c>
       <c r="I76" s="3">
-        <v>28995700</v>
+        <v>30905600</v>
       </c>
       <c r="J76" s="3">
-        <v>28915800</v>
+        <v>30820500</v>
       </c>
       <c r="K76" s="3">
         <v>27847500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>713300</v>
+        <v>761800</v>
       </c>
       <c r="E81" s="3">
-        <v>958100</v>
+        <v>1023200</v>
       </c>
       <c r="F81" s="3">
-        <v>141800</v>
+        <v>151400</v>
       </c>
       <c r="G81" s="3">
-        <v>309000</v>
+        <v>330000</v>
       </c>
       <c r="H81" s="3">
-        <v>1200600</v>
+        <v>1282300</v>
       </c>
       <c r="I81" s="3">
-        <v>294600</v>
+        <v>314700</v>
       </c>
       <c r="J81" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="K81" s="3">
         <v>-51600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3940800</v>
+        <v>4208800</v>
       </c>
       <c r="E83" s="3">
-        <v>1657000</v>
+        <v>1769600</v>
       </c>
       <c r="F83" s="3">
-        <v>2139900</v>
+        <v>2285400</v>
       </c>
       <c r="G83" s="3">
-        <v>1613800</v>
+        <v>1723500</v>
       </c>
       <c r="H83" s="3">
-        <v>728800</v>
+        <v>778300</v>
       </c>
       <c r="I83" s="3">
-        <v>4223300</v>
+        <v>4510400</v>
       </c>
       <c r="J83" s="3">
-        <v>6139400</v>
+        <v>6556800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11947700</v>
+        <v>-12759900</v>
       </c>
       <c r="E89" s="3">
-        <v>-445300</v>
+        <v>-475500</v>
       </c>
       <c r="F89" s="3">
-        <v>22591700</v>
+        <v>24127600</v>
       </c>
       <c r="G89" s="3">
-        <v>8031200</v>
+        <v>8577200</v>
       </c>
       <c r="H89" s="3">
-        <v>16177600</v>
+        <v>17277400</v>
       </c>
       <c r="I89" s="3">
-        <v>3312800</v>
+        <v>3538100</v>
       </c>
       <c r="J89" s="3">
-        <v>-9448900</v>
+        <v>-10091300</v>
       </c>
       <c r="K89" s="3">
         <v>5913800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-774200</v>
+        <v>-826800</v>
       </c>
       <c r="E91" s="3">
-        <v>-652400</v>
+        <v>-696700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1005700</v>
+        <v>-1074100</v>
       </c>
       <c r="G91" s="3">
-        <v>-401000</v>
+        <v>-428200</v>
       </c>
       <c r="H91" s="3">
-        <v>-279100</v>
+        <v>-298100</v>
       </c>
       <c r="I91" s="3">
-        <v>-814100</v>
+        <v>-869400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1692400</v>
+        <v>-1807500</v>
       </c>
       <c r="K91" s="3">
         <v>-501800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-934800</v>
+        <v>-998400</v>
       </c>
       <c r="E94" s="3">
-        <v>-618000</v>
+        <v>-660100</v>
       </c>
       <c r="F94" s="3">
-        <v>-502900</v>
+        <v>-537000</v>
       </c>
       <c r="G94" s="3">
-        <v>-23300</v>
+        <v>-24800</v>
       </c>
       <c r="H94" s="3">
-        <v>9207500</v>
+        <v>9833400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9865400</v>
+        <v>-10536100</v>
       </c>
       <c r="J94" s="3">
-        <v>6246900</v>
+        <v>6671600</v>
       </c>
       <c r="K94" s="3">
         <v>5446100</v>
@@ -3298,7 +3298,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-276900</v>
+        <v>-295700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-276900</v>
+        <v>-295700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1303600</v>
+        <v>-1392300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1071000</v>
+        <v>-1143900</v>
       </c>
       <c r="F100" s="3">
-        <v>-302400</v>
+        <v>-322900</v>
       </c>
       <c r="G100" s="3">
-        <v>76400</v>
+        <v>81600</v>
       </c>
       <c r="H100" s="3">
-        <v>551600</v>
+        <v>589100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1988100</v>
+        <v>-2123300</v>
       </c>
       <c r="J100" s="3">
-        <v>-171700</v>
+        <v>-183300</v>
       </c>
       <c r="K100" s="3">
         <v>-687300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64200</v>
+        <v>68600</v>
       </c>
       <c r="E101" s="3">
-        <v>118500</v>
+        <v>126600</v>
       </c>
       <c r="F101" s="3">
-        <v>-159500</v>
+        <v>-170300</v>
       </c>
       <c r="G101" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="H101" s="3">
-        <v>216000</v>
+        <v>230700</v>
       </c>
       <c r="I101" s="3">
-        <v>233700</v>
+        <v>249600</v>
       </c>
       <c r="J101" s="3">
-        <v>-345600</v>
+        <v>-369100</v>
       </c>
       <c r="K101" s="3">
         <v>-43900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14121900</v>
+        <v>-15082000</v>
       </c>
       <c r="E102" s="3">
-        <v>-2015800</v>
+        <v>-2152900</v>
       </c>
       <c r="F102" s="3">
-        <v>21627000</v>
+        <v>23097300</v>
       </c>
       <c r="G102" s="3">
-        <v>8106500</v>
+        <v>8657600</v>
       </c>
       <c r="H102" s="3">
-        <v>26152700</v>
+        <v>27930600</v>
       </c>
       <c r="I102" s="3">
-        <v>-8307000</v>
+        <v>-8871800</v>
       </c>
       <c r="J102" s="3">
-        <v>-3719300</v>
+        <v>-3972200</v>
       </c>
       <c r="K102" s="3">
         <v>10628600</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10381100</v>
+        <v>10497900</v>
       </c>
       <c r="E8" s="3">
-        <v>10255700</v>
+        <v>10371100</v>
       </c>
       <c r="F8" s="3">
-        <v>9863000</v>
+        <v>9973900</v>
       </c>
       <c r="G8" s="3">
-        <v>10377600</v>
+        <v>10494300</v>
       </c>
       <c r="H8" s="3">
-        <v>13552500</v>
+        <v>13704900</v>
       </c>
       <c r="I8" s="3">
-        <v>14447900</v>
+        <v>14610400</v>
       </c>
       <c r="J8" s="3">
-        <v>16408000</v>
+        <v>16592500</v>
       </c>
       <c r="K8" s="3">
         <v>17985200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1178200</v>
+        <v>-1191400</v>
       </c>
       <c r="E15" s="3">
-        <v>-784300</v>
+        <v>-793100</v>
       </c>
       <c r="F15" s="3">
-        <v>-1449100</v>
+        <v>-1465300</v>
       </c>
       <c r="G15" s="3">
-        <v>-647000</v>
+        <v>-654300</v>
       </c>
       <c r="H15" s="3">
-        <v>-573700</v>
+        <v>-580200</v>
       </c>
       <c r="I15" s="3">
-        <v>-495600</v>
+        <v>-501200</v>
       </c>
       <c r="J15" s="3">
-        <v>-451900</v>
+        <v>-456900</v>
       </c>
       <c r="K15" s="3">
         <v>-869600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5112500</v>
+        <v>5170000</v>
       </c>
       <c r="E17" s="3">
-        <v>4639300</v>
+        <v>4691500</v>
       </c>
       <c r="F17" s="3">
-        <v>5706300</v>
+        <v>5770500</v>
       </c>
       <c r="G17" s="3">
-        <v>6515400</v>
+        <v>6588700</v>
       </c>
       <c r="H17" s="3">
-        <v>7601300</v>
+        <v>7686800</v>
       </c>
       <c r="I17" s="3">
-        <v>9464400</v>
+        <v>9570800</v>
       </c>
       <c r="J17" s="3">
-        <v>11186700</v>
+        <v>11312500</v>
       </c>
       <c r="K17" s="3">
         <v>12685200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5268600</v>
+        <v>5327900</v>
       </c>
       <c r="E18" s="3">
-        <v>5616400</v>
+        <v>5679600</v>
       </c>
       <c r="F18" s="3">
-        <v>4156700</v>
+        <v>4203400</v>
       </c>
       <c r="G18" s="3">
-        <v>3862200</v>
+        <v>3905600</v>
       </c>
       <c r="H18" s="3">
-        <v>5951200</v>
+        <v>6018100</v>
       </c>
       <c r="I18" s="3">
-        <v>4983600</v>
+        <v>5039600</v>
       </c>
       <c r="J18" s="3">
-        <v>5221300</v>
+        <v>5280000</v>
       </c>
       <c r="K18" s="3">
         <v>5300000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3933100</v>
+        <v>-3977400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4143700</v>
+        <v>-4190300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3753300</v>
+        <v>-3795500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3101600</v>
+        <v>-3136400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3788800</v>
+        <v>-3831400</v>
       </c>
       <c r="I20" s="3">
-        <v>-4240700</v>
+        <v>-4288400</v>
       </c>
       <c r="J20" s="3">
-        <v>-4939800</v>
+        <v>-4995300</v>
       </c>
       <c r="K20" s="3">
         <v>-4356900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5545700</v>
+        <v>5589200</v>
       </c>
       <c r="E21" s="3">
-        <v>3242900</v>
+        <v>3271500</v>
       </c>
       <c r="F21" s="3">
-        <v>2689500</v>
+        <v>2709500</v>
       </c>
       <c r="G21" s="3">
-        <v>2484700</v>
+        <v>2504900</v>
       </c>
       <c r="H21" s="3">
-        <v>2941000</v>
+        <v>2970500</v>
       </c>
       <c r="I21" s="3">
-        <v>5254800</v>
+        <v>5293600</v>
       </c>
       <c r="J21" s="3">
-        <v>6840600</v>
+        <v>6888100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1335500</v>
+        <v>1350500</v>
       </c>
       <c r="E23" s="3">
-        <v>1472700</v>
+        <v>1489300</v>
       </c>
       <c r="F23" s="3">
-        <v>403400</v>
+        <v>407900</v>
       </c>
       <c r="G23" s="3">
-        <v>760600</v>
+        <v>769200</v>
       </c>
       <c r="H23" s="3">
-        <v>2162300</v>
+        <v>2186700</v>
       </c>
       <c r="I23" s="3">
-        <v>742900</v>
+        <v>751200</v>
       </c>
       <c r="J23" s="3">
-        <v>281500</v>
+        <v>284700</v>
       </c>
       <c r="K23" s="3">
         <v>943200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>434100</v>
+        <v>439000</v>
       </c>
       <c r="E24" s="3">
-        <v>317000</v>
+        <v>320600</v>
       </c>
       <c r="F24" s="3">
-        <v>254300</v>
+        <v>257200</v>
       </c>
       <c r="G24" s="3">
-        <v>308700</v>
+        <v>312200</v>
       </c>
       <c r="H24" s="3">
-        <v>744000</v>
+        <v>752400</v>
       </c>
       <c r="I24" s="3">
-        <v>302800</v>
+        <v>306200</v>
       </c>
       <c r="J24" s="3">
-        <v>78100</v>
+        <v>78900</v>
       </c>
       <c r="K24" s="3">
         <v>881700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>901400</v>
+        <v>911500</v>
       </c>
       <c r="E26" s="3">
-        <v>1155700</v>
+        <v>1168700</v>
       </c>
       <c r="F26" s="3">
-        <v>149000</v>
+        <v>150700</v>
       </c>
       <c r="G26" s="3">
-        <v>451900</v>
+        <v>456900</v>
       </c>
       <c r="H26" s="3">
-        <v>1418300</v>
+        <v>1434200</v>
       </c>
       <c r="I26" s="3">
-        <v>440000</v>
+        <v>445000</v>
       </c>
       <c r="J26" s="3">
-        <v>203500</v>
+        <v>205700</v>
       </c>
       <c r="K26" s="3">
         <v>61500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>783100</v>
+        <v>791900</v>
       </c>
       <c r="E27" s="3">
-        <v>1035000</v>
+        <v>1046700</v>
       </c>
       <c r="F27" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="G27" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="H27" s="3">
-        <v>1282300</v>
+        <v>1296700</v>
       </c>
       <c r="I27" s="3">
-        <v>314700</v>
+        <v>318200</v>
       </c>
       <c r="J27" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="K27" s="3">
         <v>-51600</v>
@@ -1353,13 +1353,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-21300</v>
+        <v>-21500</v>
       </c>
       <c r="E29" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="F29" s="3">
-        <v>113600</v>
+        <v>114800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3933100</v>
+        <v>3977400</v>
       </c>
       <c r="E32" s="3">
-        <v>4143700</v>
+        <v>4190300</v>
       </c>
       <c r="F32" s="3">
-        <v>3753300</v>
+        <v>3795500</v>
       </c>
       <c r="G32" s="3">
-        <v>3101600</v>
+        <v>3136400</v>
       </c>
       <c r="H32" s="3">
-        <v>3788800</v>
+        <v>3831400</v>
       </c>
       <c r="I32" s="3">
-        <v>4240700</v>
+        <v>4288400</v>
       </c>
       <c r="J32" s="3">
-        <v>4939800</v>
+        <v>4995300</v>
       </c>
       <c r="K32" s="3">
         <v>4356900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>761800</v>
+        <v>770400</v>
       </c>
       <c r="E33" s="3">
-        <v>1023200</v>
+        <v>1034700</v>
       </c>
       <c r="F33" s="3">
-        <v>151400</v>
+        <v>153100</v>
       </c>
       <c r="G33" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="H33" s="3">
-        <v>1282300</v>
+        <v>1296700</v>
       </c>
       <c r="I33" s="3">
-        <v>314700</v>
+        <v>318200</v>
       </c>
       <c r="J33" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="K33" s="3">
         <v>-51600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>761800</v>
+        <v>770400</v>
       </c>
       <c r="E35" s="3">
-        <v>1023200</v>
+        <v>1034700</v>
       </c>
       <c r="F35" s="3">
-        <v>151400</v>
+        <v>153100</v>
       </c>
       <c r="G35" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="H35" s="3">
-        <v>1282300</v>
+        <v>1296700</v>
       </c>
       <c r="I35" s="3">
-        <v>314700</v>
+        <v>318200</v>
       </c>
       <c r="J35" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="K35" s="3">
         <v>-51600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78613200</v>
+        <v>79497100</v>
       </c>
       <c r="E41" s="3">
-        <v>101499000</v>
+        <v>102640000</v>
       </c>
       <c r="F41" s="3">
-        <v>65926600</v>
+        <v>66667800</v>
       </c>
       <c r="G41" s="3">
-        <v>113726000</v>
+        <v>115005000</v>
       </c>
       <c r="H41" s="3">
-        <v>100605000</v>
+        <v>101736000</v>
       </c>
       <c r="I41" s="3">
-        <v>43817000</v>
+        <v>44309600</v>
       </c>
       <c r="J41" s="3">
-        <v>170548000</v>
+        <v>172466000</v>
       </c>
       <c r="K41" s="3">
         <v>183871000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>128852000</v>
+        <v>130301000</v>
       </c>
       <c r="E42" s="3">
-        <v>124073000</v>
+        <v>125468000</v>
       </c>
       <c r="F42" s="3">
-        <v>105311000</v>
+        <v>106495000</v>
       </c>
       <c r="G42" s="3">
-        <v>177034000</v>
+        <v>179025000</v>
       </c>
       <c r="H42" s="3">
-        <v>191801000</v>
+        <v>193958000</v>
       </c>
       <c r="I42" s="3">
-        <v>217133000</v>
+        <v>219575000</v>
       </c>
       <c r="J42" s="3">
-        <v>193545000</v>
+        <v>195721000</v>
       </c>
       <c r="K42" s="3">
         <v>226629000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>209400</v>
+        <v>211700</v>
       </c>
       <c r="E47" s="3">
-        <v>204600</v>
+        <v>206900</v>
       </c>
       <c r="F47" s="3">
-        <v>214100</v>
+        <v>216500</v>
       </c>
       <c r="G47" s="3">
-        <v>392700</v>
+        <v>397100</v>
       </c>
       <c r="H47" s="3">
-        <v>1062200</v>
+        <v>1074200</v>
       </c>
       <c r="I47" s="3">
-        <v>933300</v>
+        <v>943800</v>
       </c>
       <c r="J47" s="3">
-        <v>996000</v>
+        <v>1007200</v>
       </c>
       <c r="K47" s="3">
         <v>989300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4140200</v>
+        <v>4186700</v>
       </c>
       <c r="E48" s="3">
-        <v>1845300</v>
+        <v>1866100</v>
       </c>
       <c r="F48" s="3">
-        <v>1911600</v>
+        <v>1933100</v>
       </c>
       <c r="G48" s="3">
-        <v>4095200</v>
+        <v>4141200</v>
       </c>
       <c r="H48" s="3">
-        <v>5552500</v>
+        <v>5615000</v>
       </c>
       <c r="I48" s="3">
-        <v>2999800</v>
+        <v>3033600</v>
       </c>
       <c r="J48" s="3">
-        <v>7783500</v>
+        <v>7871000</v>
       </c>
       <c r="K48" s="3">
         <v>6852600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7222800</v>
+        <v>7304000</v>
       </c>
       <c r="E49" s="3">
-        <v>7679400</v>
+        <v>7765700</v>
       </c>
       <c r="F49" s="3">
-        <v>7814200</v>
+        <v>7902100</v>
       </c>
       <c r="G49" s="3">
-        <v>7208600</v>
+        <v>7289600</v>
       </c>
       <c r="H49" s="3">
-        <v>8339400</v>
+        <v>8433200</v>
       </c>
       <c r="I49" s="3">
-        <v>3939100</v>
+        <v>3983300</v>
       </c>
       <c r="J49" s="3">
-        <v>11380700</v>
+        <v>11508600</v>
       </c>
       <c r="K49" s="3">
         <v>10050000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13008400</v>
+        <v>13123500</v>
       </c>
       <c r="E52" s="3">
-        <v>20015900</v>
+        <v>20240900</v>
       </c>
       <c r="F52" s="3">
-        <v>3605500</v>
+        <v>3646000</v>
       </c>
       <c r="G52" s="3">
-        <v>4995400</v>
+        <v>5051600</v>
       </c>
       <c r="H52" s="3">
-        <v>4266700</v>
+        <v>4314700</v>
       </c>
       <c r="I52" s="3">
-        <v>4550600</v>
+        <v>4601800</v>
       </c>
       <c r="J52" s="3">
-        <v>5184700</v>
+        <v>5242900</v>
       </c>
       <c r="K52" s="3">
         <v>4430400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>548342000</v>
+        <v>554477000</v>
       </c>
       <c r="E54" s="3">
-        <v>546956000</v>
+        <v>553106000</v>
       </c>
       <c r="F54" s="3">
-        <v>535256000</v>
+        <v>541275000</v>
       </c>
       <c r="G54" s="3">
-        <v>568308000</v>
+        <v>574698000</v>
       </c>
       <c r="H54" s="3">
-        <v>630132000</v>
+        <v>637217000</v>
       </c>
       <c r="I54" s="3">
-        <v>660433000</v>
+        <v>667859000</v>
       </c>
       <c r="J54" s="3">
-        <v>651499000</v>
+        <v>658824000</v>
       </c>
       <c r="K54" s="3">
         <v>698345000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>863500</v>
+        <v>873200</v>
       </c>
       <c r="E59" s="3">
-        <v>927400</v>
+        <v>937800</v>
       </c>
       <c r="F59" s="3">
-        <v>1120200</v>
+        <v>1132800</v>
       </c>
       <c r="G59" s="3">
-        <v>1175800</v>
+        <v>1189000</v>
       </c>
       <c r="H59" s="3">
-        <v>906100</v>
+        <v>916300</v>
       </c>
       <c r="I59" s="3">
-        <v>889500</v>
+        <v>899500</v>
       </c>
       <c r="J59" s="3">
-        <v>850500</v>
+        <v>860100</v>
       </c>
       <c r="K59" s="3">
         <v>837800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53557000</v>
+        <v>54159200</v>
       </c>
       <c r="E61" s="3">
-        <v>54874700</v>
+        <v>55491700</v>
       </c>
       <c r="F61" s="3">
-        <v>52096100</v>
+        <v>52681800</v>
       </c>
       <c r="G61" s="3">
-        <v>55312400</v>
+        <v>55934300</v>
       </c>
       <c r="H61" s="3">
-        <v>62891200</v>
+        <v>63598400</v>
       </c>
       <c r="I61" s="3">
-        <v>73536200</v>
+        <v>74363000</v>
       </c>
       <c r="J61" s="3">
-        <v>92687300</v>
+        <v>93729400</v>
       </c>
       <c r="K61" s="3">
         <v>102411000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3230500</v>
+        <v>3266800</v>
       </c>
       <c r="E62" s="3">
-        <v>3759300</v>
+        <v>3801500</v>
       </c>
       <c r="F62" s="3">
-        <v>3926000</v>
+        <v>3970200</v>
       </c>
       <c r="G62" s="3">
-        <v>4122400</v>
+        <v>4168800</v>
       </c>
       <c r="H62" s="3">
-        <v>4059700</v>
+        <v>4105400</v>
       </c>
       <c r="I62" s="3">
-        <v>6391200</v>
+        <v>6463100</v>
       </c>
       <c r="J62" s="3">
-        <v>9286900</v>
+        <v>9391400</v>
       </c>
       <c r="K62" s="3">
         <v>9101300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>513691000</v>
+        <v>519467000</v>
       </c>
       <c r="E66" s="3">
-        <v>513580000</v>
+        <v>519354000</v>
       </c>
       <c r="F66" s="3">
-        <v>501120000</v>
+        <v>506755000</v>
       </c>
       <c r="G66" s="3">
-        <v>534540000</v>
+        <v>540550000</v>
       </c>
       <c r="H66" s="3">
-        <v>595685000</v>
+        <v>602382000</v>
       </c>
       <c r="I66" s="3">
-        <v>629528000</v>
+        <v>636606000</v>
       </c>
       <c r="J66" s="3">
-        <v>620678000</v>
+        <v>627657000</v>
       </c>
       <c r="K66" s="3">
         <v>670497000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32322700</v>
+        <v>32656300</v>
       </c>
       <c r="E72" s="3">
-        <v>32236400</v>
+        <v>32598800</v>
       </c>
       <c r="F72" s="3">
-        <v>33620400</v>
+        <v>33998400</v>
       </c>
       <c r="G72" s="3">
-        <v>33487900</v>
+        <v>33864400</v>
       </c>
       <c r="H72" s="3">
-        <v>33890100</v>
+        <v>34271100</v>
       </c>
       <c r="I72" s="3">
-        <v>31216700</v>
+        <v>31567700</v>
       </c>
       <c r="J72" s="3">
-        <v>29473100</v>
+        <v>29804500</v>
       </c>
       <c r="K72" s="3">
         <v>21423100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34650700</v>
+        <v>35010400</v>
       </c>
       <c r="E76" s="3">
-        <v>33376700</v>
+        <v>33752000</v>
       </c>
       <c r="F76" s="3">
-        <v>34136100</v>
+        <v>34519900</v>
       </c>
       <c r="G76" s="3">
-        <v>33768200</v>
+        <v>34147900</v>
       </c>
       <c r="H76" s="3">
-        <v>34447200</v>
+        <v>34834500</v>
       </c>
       <c r="I76" s="3">
-        <v>30905600</v>
+        <v>31253100</v>
       </c>
       <c r="J76" s="3">
-        <v>30820500</v>
+        <v>31167000</v>
       </c>
       <c r="K76" s="3">
         <v>27847500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>761800</v>
+        <v>770400</v>
       </c>
       <c r="E81" s="3">
-        <v>1023200</v>
+        <v>1034700</v>
       </c>
       <c r="F81" s="3">
-        <v>151400</v>
+        <v>153100</v>
       </c>
       <c r="G81" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="H81" s="3">
-        <v>1282300</v>
+        <v>1296700</v>
       </c>
       <c r="I81" s="3">
-        <v>314700</v>
+        <v>318200</v>
       </c>
       <c r="J81" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="K81" s="3">
         <v>-51600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4208800</v>
+        <v>4256100</v>
       </c>
       <c r="E83" s="3">
-        <v>1769600</v>
+        <v>1789500</v>
       </c>
       <c r="F83" s="3">
-        <v>2285400</v>
+        <v>2311100</v>
       </c>
       <c r="G83" s="3">
-        <v>1723500</v>
+        <v>1742900</v>
       </c>
       <c r="H83" s="3">
-        <v>778300</v>
+        <v>787100</v>
       </c>
       <c r="I83" s="3">
-        <v>4510400</v>
+        <v>4561100</v>
       </c>
       <c r="J83" s="3">
-        <v>6556800</v>
+        <v>6630500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12759900</v>
+        <v>-12903400</v>
       </c>
       <c r="E89" s="3">
-        <v>-475500</v>
+        <v>-480900</v>
       </c>
       <c r="F89" s="3">
-        <v>24127600</v>
+        <v>24398900</v>
       </c>
       <c r="G89" s="3">
-        <v>8577200</v>
+        <v>8673600</v>
       </c>
       <c r="H89" s="3">
-        <v>17277400</v>
+        <v>17471700</v>
       </c>
       <c r="I89" s="3">
-        <v>3538100</v>
+        <v>3577800</v>
       </c>
       <c r="J89" s="3">
-        <v>-10091300</v>
+        <v>-10204800</v>
       </c>
       <c r="K89" s="3">
         <v>5913800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-826800</v>
+        <v>-836100</v>
       </c>
       <c r="E91" s="3">
-        <v>-696700</v>
+        <v>-704600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1074100</v>
+        <v>-1086100</v>
       </c>
       <c r="G91" s="3">
-        <v>-428200</v>
+        <v>-433000</v>
       </c>
       <c r="H91" s="3">
-        <v>-298100</v>
+        <v>-301400</v>
       </c>
       <c r="I91" s="3">
-        <v>-869400</v>
+        <v>-879200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1807500</v>
+        <v>-1827800</v>
       </c>
       <c r="K91" s="3">
         <v>-501800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-998400</v>
+        <v>-1009600</v>
       </c>
       <c r="E94" s="3">
-        <v>-660100</v>
+        <v>-667500</v>
       </c>
       <c r="F94" s="3">
-        <v>-537000</v>
+        <v>-543100</v>
       </c>
       <c r="G94" s="3">
-        <v>-24800</v>
+        <v>-25100</v>
       </c>
       <c r="H94" s="3">
-        <v>9833400</v>
+        <v>9944000</v>
       </c>
       <c r="I94" s="3">
-        <v>-10536100</v>
+        <v>-10654600</v>
       </c>
       <c r="J94" s="3">
-        <v>6671600</v>
+        <v>6746600</v>
       </c>
       <c r="K94" s="3">
         <v>5446100</v>
@@ -3298,7 +3298,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-295700</v>
+        <v>-299100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-295700</v>
+        <v>-299100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1392300</v>
+        <v>-1407900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1143900</v>
+        <v>-1156700</v>
       </c>
       <c r="F100" s="3">
-        <v>-322900</v>
+        <v>-326600</v>
       </c>
       <c r="G100" s="3">
-        <v>81600</v>
+        <v>82500</v>
       </c>
       <c r="H100" s="3">
-        <v>589100</v>
+        <v>595700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2123300</v>
+        <v>-2147200</v>
       </c>
       <c r="J100" s="3">
-        <v>-183300</v>
+        <v>-185400</v>
       </c>
       <c r="K100" s="3">
         <v>-687300</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68600</v>
+        <v>69400</v>
       </c>
       <c r="E101" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="F101" s="3">
-        <v>-170300</v>
+        <v>-172300</v>
       </c>
       <c r="G101" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="H101" s="3">
-        <v>230700</v>
+        <v>233300</v>
       </c>
       <c r="I101" s="3">
-        <v>249600</v>
+        <v>252400</v>
       </c>
       <c r="J101" s="3">
-        <v>-369100</v>
+        <v>-373200</v>
       </c>
       <c r="K101" s="3">
         <v>-43900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15082000</v>
+        <v>-15251600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2152900</v>
+        <v>-2177100</v>
       </c>
       <c r="F102" s="3">
-        <v>23097300</v>
+        <v>23357000</v>
       </c>
       <c r="G102" s="3">
-        <v>8657600</v>
+        <v>8755000</v>
       </c>
       <c r="H102" s="3">
-        <v>27930600</v>
+        <v>28244700</v>
       </c>
       <c r="I102" s="3">
-        <v>-8871800</v>
+        <v>-8971500</v>
       </c>
       <c r="J102" s="3">
-        <v>-3972200</v>
+        <v>-4016800</v>
       </c>
       <c r="K102" s="3">
         <v>10628600</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CRZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10497900</v>
+        <v>8923000</v>
       </c>
       <c r="E8" s="3">
-        <v>10371100</v>
+        <v>10319400</v>
       </c>
       <c r="F8" s="3">
-        <v>9973900</v>
+        <v>10199400</v>
       </c>
       <c r="G8" s="3">
-        <v>10494300</v>
+        <v>9808800</v>
       </c>
       <c r="H8" s="3">
-        <v>13704900</v>
+        <v>10320600</v>
       </c>
       <c r="I8" s="3">
-        <v>14610400</v>
+        <v>13478000</v>
       </c>
       <c r="J8" s="3">
+        <v>14368500</v>
+      </c>
+      <c r="K8" s="3">
         <v>16592500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17985200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20357400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1191400</v>
+        <v>-1104600</v>
       </c>
       <c r="E15" s="3">
-        <v>-793100</v>
+        <v>-1171700</v>
       </c>
       <c r="F15" s="3">
-        <v>-1465300</v>
+        <v>-780000</v>
       </c>
       <c r="G15" s="3">
-        <v>-654300</v>
+        <v>-1441100</v>
       </c>
       <c r="H15" s="3">
-        <v>-580200</v>
+        <v>-643500</v>
       </c>
       <c r="I15" s="3">
-        <v>-501200</v>
+        <v>-570600</v>
       </c>
       <c r="J15" s="3">
+        <v>-492900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-456900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-869600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-556400</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5170000</v>
+        <v>5126800</v>
       </c>
       <c r="E17" s="3">
-        <v>4691500</v>
+        <v>5084400</v>
       </c>
       <c r="F17" s="3">
-        <v>5770500</v>
+        <v>4613800</v>
       </c>
       <c r="G17" s="3">
-        <v>6588700</v>
+        <v>5675000</v>
       </c>
       <c r="H17" s="3">
-        <v>7686800</v>
+        <v>6479600</v>
       </c>
       <c r="I17" s="3">
-        <v>9570800</v>
+        <v>7559500</v>
       </c>
       <c r="J17" s="3">
+        <v>9412400</v>
+      </c>
+      <c r="K17" s="3">
         <v>11312500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12685200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14096300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5327900</v>
+        <v>3796200</v>
       </c>
       <c r="E18" s="3">
-        <v>5679600</v>
+        <v>5235000</v>
       </c>
       <c r="F18" s="3">
-        <v>4203400</v>
+        <v>5585500</v>
       </c>
       <c r="G18" s="3">
-        <v>3905600</v>
+        <v>4133900</v>
       </c>
       <c r="H18" s="3">
-        <v>6018100</v>
+        <v>3840900</v>
       </c>
       <c r="I18" s="3">
-        <v>5039600</v>
+        <v>5918500</v>
       </c>
       <c r="J18" s="3">
+        <v>4956200</v>
+      </c>
+      <c r="K18" s="3">
         <v>5280000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5300000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6261100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3977400</v>
+        <v>-6886600</v>
       </c>
       <c r="E20" s="3">
-        <v>-4190300</v>
+        <v>-3911500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3795500</v>
+        <v>-4120900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3136400</v>
+        <v>-3732700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3831400</v>
+        <v>-3084500</v>
       </c>
       <c r="I20" s="3">
-        <v>-4288400</v>
+        <v>-3768000</v>
       </c>
       <c r="J20" s="3">
+        <v>-4217400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4995300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4356900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5666000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5589200</v>
+        <v>2992800</v>
       </c>
       <c r="E21" s="3">
-        <v>3271500</v>
+        <v>5526200</v>
       </c>
       <c r="F21" s="3">
-        <v>2709500</v>
+        <v>3231700</v>
       </c>
       <c r="G21" s="3">
-        <v>2504900</v>
+        <v>2683200</v>
       </c>
       <c r="H21" s="3">
-        <v>2970500</v>
+        <v>2477400</v>
       </c>
       <c r="I21" s="3">
-        <v>5293600</v>
+        <v>2927700</v>
       </c>
       <c r="J21" s="3">
+        <v>5242700</v>
+      </c>
+      <c r="K21" s="3">
         <v>6888100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>5300600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1350500</v>
+        <v>-3090400</v>
       </c>
       <c r="E23" s="3">
-        <v>1489300</v>
+        <v>1323500</v>
       </c>
       <c r="F23" s="3">
-        <v>407900</v>
+        <v>1464600</v>
       </c>
       <c r="G23" s="3">
-        <v>769200</v>
+        <v>401200</v>
       </c>
       <c r="H23" s="3">
-        <v>2186700</v>
+        <v>756400</v>
       </c>
       <c r="I23" s="3">
-        <v>751200</v>
+        <v>2150500</v>
       </c>
       <c r="J23" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K23" s="3">
         <v>284700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>943200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>595100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>439000</v>
+        <v>310600</v>
       </c>
       <c r="E24" s="3">
-        <v>320600</v>
+        <v>495300</v>
       </c>
       <c r="F24" s="3">
-        <v>257200</v>
+        <v>315300</v>
       </c>
       <c r="G24" s="3">
-        <v>312200</v>
+        <v>252900</v>
       </c>
       <c r="H24" s="3">
-        <v>752400</v>
+        <v>307000</v>
       </c>
       <c r="I24" s="3">
-        <v>306200</v>
+        <v>740000</v>
       </c>
       <c r="J24" s="3">
+        <v>301200</v>
+      </c>
+      <c r="K24" s="3">
         <v>78900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>881700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-281700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>911500</v>
+        <v>-3401000</v>
       </c>
       <c r="E26" s="3">
-        <v>1168700</v>
+        <v>828200</v>
       </c>
       <c r="F26" s="3">
-        <v>150700</v>
+        <v>1149300</v>
       </c>
       <c r="G26" s="3">
-        <v>456900</v>
+        <v>148200</v>
       </c>
       <c r="H26" s="3">
-        <v>1434200</v>
+        <v>449400</v>
       </c>
       <c r="I26" s="3">
-        <v>445000</v>
+        <v>1410500</v>
       </c>
       <c r="J26" s="3">
+        <v>437600</v>
+      </c>
+      <c r="K26" s="3">
         <v>205700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>876800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>791900</v>
+        <v>-3411600</v>
       </c>
       <c r="E27" s="3">
-        <v>1046700</v>
+        <v>709400</v>
       </c>
       <c r="F27" s="3">
-        <v>38300</v>
+        <v>1029400</v>
       </c>
       <c r="G27" s="3">
-        <v>333700</v>
+        <v>37600</v>
       </c>
       <c r="H27" s="3">
-        <v>1296700</v>
+        <v>328200</v>
       </c>
       <c r="I27" s="3">
-        <v>318200</v>
+        <v>1275200</v>
       </c>
       <c r="J27" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K27" s="3">
         <v>96900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-51600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>748900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1403,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-21500</v>
+        <v>35300</v>
       </c>
       <c r="E29" s="3">
-        <v>-12000</v>
+        <v>-21200</v>
       </c>
       <c r="F29" s="3">
-        <v>114800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>-11800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>112900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1376,12 +1436,15 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3977400</v>
+        <v>6886600</v>
       </c>
       <c r="E32" s="3">
-        <v>4190300</v>
+        <v>3911500</v>
       </c>
       <c r="F32" s="3">
-        <v>3795500</v>
+        <v>4120900</v>
       </c>
       <c r="G32" s="3">
-        <v>3136400</v>
+        <v>3732700</v>
       </c>
       <c r="H32" s="3">
-        <v>3831400</v>
+        <v>3084500</v>
       </c>
       <c r="I32" s="3">
-        <v>4288400</v>
+        <v>3768000</v>
       </c>
       <c r="J32" s="3">
+        <v>4217400</v>
+      </c>
+      <c r="K32" s="3">
         <v>4995300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4356900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5666000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>770400</v>
+        <v>-3376300</v>
       </c>
       <c r="E33" s="3">
-        <v>1034700</v>
+        <v>688200</v>
       </c>
       <c r="F33" s="3">
-        <v>153100</v>
+        <v>1017600</v>
       </c>
       <c r="G33" s="3">
-        <v>333700</v>
+        <v>150600</v>
       </c>
       <c r="H33" s="3">
-        <v>1296700</v>
+        <v>328200</v>
       </c>
       <c r="I33" s="3">
-        <v>318200</v>
+        <v>1275200</v>
       </c>
       <c r="J33" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K33" s="3">
         <v>96900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-51600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>748900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>770400</v>
+        <v>-3376300</v>
       </c>
       <c r="E35" s="3">
-        <v>1034700</v>
+        <v>688200</v>
       </c>
       <c r="F35" s="3">
-        <v>153100</v>
+        <v>1017600</v>
       </c>
       <c r="G35" s="3">
-        <v>333700</v>
+        <v>150600</v>
       </c>
       <c r="H35" s="3">
-        <v>1296700</v>
+        <v>328200</v>
       </c>
       <c r="I35" s="3">
-        <v>318200</v>
+        <v>1275200</v>
       </c>
       <c r="J35" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K35" s="3">
         <v>96900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-51600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>748900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79497100</v>
+        <v>115766000</v>
       </c>
       <c r="E41" s="3">
-        <v>102640000</v>
+        <v>78181200</v>
       </c>
       <c r="F41" s="3">
-        <v>66667800</v>
+        <v>100941000</v>
       </c>
       <c r="G41" s="3">
-        <v>115005000</v>
+        <v>65564300</v>
       </c>
       <c r="H41" s="3">
-        <v>101736000</v>
+        <v>113101000</v>
       </c>
       <c r="I41" s="3">
-        <v>44309600</v>
+        <v>100052000</v>
       </c>
       <c r="J41" s="3">
+        <v>43576200</v>
+      </c>
+      <c r="K41" s="3">
         <v>172466000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183871000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117311000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>130301000</v>
+        <v>149809000</v>
       </c>
       <c r="E42" s="3">
-        <v>125468000</v>
+        <v>128144000</v>
       </c>
       <c r="F42" s="3">
-        <v>106495000</v>
+        <v>123391000</v>
       </c>
       <c r="G42" s="3">
-        <v>179025000</v>
+        <v>104733000</v>
       </c>
       <c r="H42" s="3">
-        <v>193958000</v>
+        <v>176061000</v>
       </c>
       <c r="I42" s="3">
-        <v>219575000</v>
+        <v>190747000</v>
       </c>
       <c r="J42" s="3">
+        <v>215940000</v>
+      </c>
+      <c r="K42" s="3">
         <v>195721000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>226629000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>188959000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>211700</v>
+        <v>198800</v>
       </c>
       <c r="E47" s="3">
-        <v>206900</v>
+        <v>208200</v>
       </c>
       <c r="F47" s="3">
-        <v>216500</v>
+        <v>203500</v>
       </c>
       <c r="G47" s="3">
-        <v>397100</v>
+        <v>212900</v>
       </c>
       <c r="H47" s="3">
-        <v>1074200</v>
+        <v>390600</v>
       </c>
       <c r="I47" s="3">
-        <v>943800</v>
+        <v>1056400</v>
       </c>
       <c r="J47" s="3">
+        <v>928200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1007200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>989300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>814600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4186700</v>
+        <v>3789200</v>
       </c>
       <c r="E48" s="3">
-        <v>1866100</v>
+        <v>4117400</v>
       </c>
       <c r="F48" s="3">
-        <v>1933100</v>
+        <v>1835200</v>
       </c>
       <c r="G48" s="3">
-        <v>4141200</v>
+        <v>1901100</v>
       </c>
       <c r="H48" s="3">
-        <v>5615000</v>
+        <v>4072700</v>
       </c>
       <c r="I48" s="3">
-        <v>3033600</v>
+        <v>5522000</v>
       </c>
       <c r="J48" s="3">
+        <v>2983400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7871000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6852600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4478100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7304000</v>
+        <v>1670500</v>
       </c>
       <c r="E49" s="3">
-        <v>7765700</v>
+        <v>10774600</v>
       </c>
       <c r="F49" s="3">
-        <v>7902100</v>
+        <v>7637200</v>
       </c>
       <c r="G49" s="3">
-        <v>7289600</v>
+        <v>7771300</v>
       </c>
       <c r="H49" s="3">
-        <v>8433200</v>
+        <v>7169000</v>
       </c>
       <c r="I49" s="3">
-        <v>3983300</v>
+        <v>8293600</v>
       </c>
       <c r="J49" s="3">
+        <v>3917400</v>
+      </c>
+      <c r="K49" s="3">
         <v>11508600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10050000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7132100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13123500</v>
+        <v>5679700</v>
       </c>
       <c r="E52" s="3">
-        <v>20240900</v>
+        <v>12788600</v>
       </c>
       <c r="F52" s="3">
-        <v>3646000</v>
+        <v>19905900</v>
       </c>
       <c r="G52" s="3">
-        <v>5051600</v>
+        <v>3585700</v>
       </c>
       <c r="H52" s="3">
-        <v>4314700</v>
+        <v>4967900</v>
       </c>
       <c r="I52" s="3">
-        <v>4601800</v>
+        <v>4243300</v>
       </c>
       <c r="J52" s="3">
+        <v>4525600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5242900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4430400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7039300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>554477000</v>
+        <v>596336000</v>
       </c>
       <c r="E54" s="3">
-        <v>553106000</v>
+        <v>545203000</v>
       </c>
       <c r="F54" s="3">
-        <v>541275000</v>
+        <v>543951000</v>
       </c>
       <c r="G54" s="3">
-        <v>574698000</v>
+        <v>532315000</v>
       </c>
       <c r="H54" s="3">
-        <v>637217000</v>
+        <v>565185000</v>
       </c>
       <c r="I54" s="3">
-        <v>667859000</v>
+        <v>626670000</v>
       </c>
       <c r="J54" s="3">
+        <v>656804000</v>
+      </c>
+      <c r="K54" s="3">
         <v>658824000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>698345000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>776883000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,9 +2300,12 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>873200</v>
+        <v>848200</v>
       </c>
       <c r="E59" s="3">
-        <v>937800</v>
+        <v>875200</v>
       </c>
       <c r="F59" s="3">
-        <v>1132800</v>
+        <v>922300</v>
       </c>
       <c r="G59" s="3">
-        <v>1189000</v>
+        <v>1114100</v>
       </c>
       <c r="H59" s="3">
-        <v>916300</v>
+        <v>1169300</v>
       </c>
       <c r="I59" s="3">
-        <v>899500</v>
+        <v>901100</v>
       </c>
       <c r="J59" s="3">
+        <v>884700</v>
+      </c>
+      <c r="K59" s="3">
         <v>860100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>837800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>798200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54159200</v>
+        <v>54259100</v>
       </c>
       <c r="E61" s="3">
-        <v>55491700</v>
+        <v>53262700</v>
       </c>
       <c r="F61" s="3">
-        <v>52681800</v>
+        <v>54573200</v>
       </c>
       <c r="G61" s="3">
-        <v>55934300</v>
+        <v>51809800</v>
       </c>
       <c r="H61" s="3">
-        <v>63598400</v>
+        <v>55008500</v>
       </c>
       <c r="I61" s="3">
-        <v>74363000</v>
+        <v>62545700</v>
       </c>
       <c r="J61" s="3">
+        <v>73132100</v>
+      </c>
+      <c r="K61" s="3">
         <v>93729400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>102411000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>142204000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3266800</v>
+        <v>4006800</v>
       </c>
       <c r="E62" s="3">
-        <v>3801500</v>
+        <v>6356100</v>
       </c>
       <c r="F62" s="3">
-        <v>3970200</v>
+        <v>3738600</v>
       </c>
       <c r="G62" s="3">
-        <v>4168800</v>
+        <v>3904500</v>
       </c>
       <c r="H62" s="3">
-        <v>4105400</v>
+        <v>4099800</v>
       </c>
       <c r="I62" s="3">
-        <v>6463100</v>
+        <v>4037400</v>
       </c>
       <c r="J62" s="3">
+        <v>6356100</v>
+      </c>
+      <c r="K62" s="3">
         <v>9391400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9101300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5042700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>519467000</v>
+        <v>564007000</v>
       </c>
       <c r="E66" s="3">
-        <v>519354000</v>
+        <v>510847000</v>
       </c>
       <c r="F66" s="3">
-        <v>506755000</v>
+        <v>510758000</v>
       </c>
       <c r="G66" s="3">
-        <v>540550000</v>
+        <v>498367000</v>
       </c>
       <c r="H66" s="3">
-        <v>602382000</v>
+        <v>531602000</v>
       </c>
       <c r="I66" s="3">
-        <v>636606000</v>
+        <v>592412000</v>
       </c>
       <c r="J66" s="3">
+        <v>626068000</v>
+      </c>
+      <c r="K66" s="3">
         <v>627657000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>670497000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>748981000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32656300</v>
+        <v>14825000</v>
       </c>
       <c r="E72" s="3">
-        <v>32598800</v>
+        <v>11618100</v>
       </c>
       <c r="F72" s="3">
-        <v>33998400</v>
+        <v>11834600</v>
       </c>
       <c r="G72" s="3">
-        <v>33864400</v>
+        <v>13211000</v>
       </c>
       <c r="H72" s="3">
-        <v>34271100</v>
+        <v>13079200</v>
       </c>
       <c r="I72" s="3">
-        <v>31567700</v>
+        <v>13479200</v>
       </c>
       <c r="J72" s="3">
+        <v>12307500</v>
+      </c>
+      <c r="K72" s="3">
         <v>29804500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21423100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23060700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35010400</v>
+        <v>32328600</v>
       </c>
       <c r="E76" s="3">
-        <v>33752000</v>
+        <v>34355600</v>
       </c>
       <c r="F76" s="3">
-        <v>34519900</v>
+        <v>33193300</v>
       </c>
       <c r="G76" s="3">
-        <v>34147900</v>
+        <v>33948600</v>
       </c>
       <c r="H76" s="3">
-        <v>34834500</v>
+        <v>33582700</v>
       </c>
       <c r="I76" s="3">
-        <v>31253100</v>
+        <v>34257900</v>
       </c>
       <c r="J76" s="3">
+        <v>30735800</v>
+      </c>
+      <c r="K76" s="3">
         <v>31167000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27847500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27901500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>770400</v>
+        <v>-3376300</v>
       </c>
       <c r="E81" s="3">
-        <v>1034700</v>
+        <v>688200</v>
       </c>
       <c r="F81" s="3">
-        <v>153100</v>
+        <v>1017600</v>
       </c>
       <c r="G81" s="3">
-        <v>333700</v>
+        <v>150600</v>
       </c>
       <c r="H81" s="3">
-        <v>1296700</v>
+        <v>328200</v>
       </c>
       <c r="I81" s="3">
-        <v>318200</v>
+        <v>1275200</v>
       </c>
       <c r="J81" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K81" s="3">
         <v>96900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-51600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>748900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4256100</v>
+        <v>6058500</v>
       </c>
       <c r="E83" s="3">
-        <v>1789500</v>
+        <v>4185600</v>
       </c>
       <c r="F83" s="3">
-        <v>2311100</v>
+        <v>1759900</v>
       </c>
       <c r="G83" s="3">
-        <v>1742900</v>
+        <v>2272800</v>
       </c>
       <c r="H83" s="3">
-        <v>787100</v>
+        <v>1714000</v>
       </c>
       <c r="I83" s="3">
-        <v>4561100</v>
+        <v>774100</v>
       </c>
       <c r="J83" s="3">
+        <v>4485600</v>
+      </c>
+      <c r="K83" s="3">
         <v>6630500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>4702300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12903400</v>
+        <v>39616400</v>
       </c>
       <c r="E89" s="3">
-        <v>-480900</v>
+        <v>-12689800</v>
       </c>
       <c r="F89" s="3">
-        <v>24398900</v>
+        <v>-472900</v>
       </c>
       <c r="G89" s="3">
-        <v>8673600</v>
+        <v>23995000</v>
       </c>
       <c r="H89" s="3">
-        <v>17471700</v>
+        <v>8530100</v>
       </c>
       <c r="I89" s="3">
-        <v>3577800</v>
+        <v>17182500</v>
       </c>
       <c r="J89" s="3">
+        <v>3518600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10204800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5913800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17478000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-836100</v>
+        <v>-1056400</v>
       </c>
       <c r="E91" s="3">
-        <v>-704600</v>
+        <v>-822300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1086100</v>
+        <v>-692900</v>
       </c>
       <c r="G91" s="3">
-        <v>-433000</v>
+        <v>-1068200</v>
       </c>
       <c r="H91" s="3">
-        <v>-301400</v>
+        <v>-425900</v>
       </c>
       <c r="I91" s="3">
-        <v>-879200</v>
+        <v>-296500</v>
       </c>
       <c r="J91" s="3">
+        <v>-864700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1827800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-501800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-347400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1009600</v>
+        <v>-1436400</v>
       </c>
       <c r="E94" s="3">
-        <v>-667500</v>
+        <v>-992900</v>
       </c>
       <c r="F94" s="3">
-        <v>-543100</v>
+        <v>-656400</v>
       </c>
       <c r="G94" s="3">
-        <v>-25100</v>
+        <v>-534100</v>
       </c>
       <c r="H94" s="3">
-        <v>9944000</v>
+        <v>-24700</v>
       </c>
       <c r="I94" s="3">
-        <v>-10654600</v>
+        <v>9779400</v>
       </c>
       <c r="J94" s="3">
+        <v>-10478200</v>
+      </c>
+      <c r="K94" s="3">
         <v>6746600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5446100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20317500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,25 +3524,26 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-299100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-294100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-299100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-294100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1407900</v>
+        <v>2597500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1156700</v>
+        <v>-1384600</v>
       </c>
       <c r="F100" s="3">
-        <v>-326600</v>
+        <v>-1137600</v>
       </c>
       <c r="G100" s="3">
-        <v>82500</v>
+        <v>-321200</v>
       </c>
       <c r="H100" s="3">
-        <v>595700</v>
+        <v>81200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2147200</v>
+        <v>585800</v>
       </c>
       <c r="J100" s="3">
+        <v>-2111600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-185400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-687300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5239900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69400</v>
+        <v>-262300</v>
       </c>
       <c r="E101" s="3">
-        <v>128000</v>
+        <v>68200</v>
       </c>
       <c r="F101" s="3">
-        <v>-172300</v>
+        <v>125900</v>
       </c>
       <c r="G101" s="3">
-        <v>23900</v>
+        <v>-169400</v>
       </c>
       <c r="H101" s="3">
-        <v>233300</v>
+        <v>23500</v>
       </c>
       <c r="I101" s="3">
-        <v>252400</v>
+        <v>229400</v>
       </c>
       <c r="J101" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-373200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-43900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>78600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15251600</v>
+        <v>40515200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2177100</v>
+        <v>-14999100</v>
       </c>
       <c r="F102" s="3">
-        <v>23357000</v>
+        <v>-2141000</v>
       </c>
       <c r="G102" s="3">
-        <v>8755000</v>
+        <v>22970400</v>
       </c>
       <c r="H102" s="3">
-        <v>28244700</v>
+        <v>8610100</v>
       </c>
       <c r="I102" s="3">
-        <v>-8971500</v>
+        <v>27777200</v>
       </c>
       <c r="J102" s="3">
+        <v>-8823000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4016800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10628600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2321800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8923000</v>
+        <v>9291500</v>
       </c>
       <c r="E8" s="3">
-        <v>10319400</v>
+        <v>10745600</v>
       </c>
       <c r="F8" s="3">
-        <v>10199400</v>
+        <v>10620700</v>
       </c>
       <c r="G8" s="3">
-        <v>9808800</v>
+        <v>10214000</v>
       </c>
       <c r="H8" s="3">
-        <v>10320600</v>
+        <v>10746800</v>
       </c>
       <c r="I8" s="3">
-        <v>13478000</v>
+        <v>14034700</v>
       </c>
       <c r="J8" s="3">
-        <v>14368500</v>
+        <v>14962000</v>
       </c>
       <c r="K8" s="3">
         <v>16592500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1104600</v>
+        <v>-1150300</v>
       </c>
       <c r="E15" s="3">
-        <v>-1171700</v>
+        <v>-1220100</v>
       </c>
       <c r="F15" s="3">
-        <v>-780000</v>
+        <v>-812200</v>
       </c>
       <c r="G15" s="3">
-        <v>-1441100</v>
+        <v>-1500600</v>
       </c>
       <c r="H15" s="3">
-        <v>-643500</v>
+        <v>-670100</v>
       </c>
       <c r="I15" s="3">
-        <v>-570600</v>
+        <v>-594100</v>
       </c>
       <c r="J15" s="3">
-        <v>-492900</v>
+        <v>-513300</v>
       </c>
       <c r="K15" s="3">
         <v>-456900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5126800</v>
+        <v>5338500</v>
       </c>
       <c r="E17" s="3">
-        <v>5084400</v>
+        <v>5294400</v>
       </c>
       <c r="F17" s="3">
-        <v>4613800</v>
+        <v>4804400</v>
       </c>
       <c r="G17" s="3">
-        <v>5675000</v>
+        <v>5909400</v>
       </c>
       <c r="H17" s="3">
-        <v>6479600</v>
+        <v>6747200</v>
       </c>
       <c r="I17" s="3">
-        <v>7559500</v>
+        <v>7871800</v>
       </c>
       <c r="J17" s="3">
-        <v>9412400</v>
+        <v>9801100</v>
       </c>
       <c r="K17" s="3">
         <v>11312500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3796200</v>
+        <v>3953000</v>
       </c>
       <c r="E18" s="3">
-        <v>5235000</v>
+        <v>5451200</v>
       </c>
       <c r="F18" s="3">
-        <v>5585500</v>
+        <v>5816300</v>
       </c>
       <c r="G18" s="3">
-        <v>4133900</v>
+        <v>4304600</v>
       </c>
       <c r="H18" s="3">
-        <v>3840900</v>
+        <v>3999600</v>
       </c>
       <c r="I18" s="3">
-        <v>5918500</v>
+        <v>6162900</v>
       </c>
       <c r="J18" s="3">
-        <v>4956200</v>
+        <v>5160900</v>
       </c>
       <c r="K18" s="3">
         <v>5280000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6886600</v>
+        <v>-7171100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3911500</v>
+        <v>-4073100</v>
       </c>
       <c r="F20" s="3">
-        <v>-4120900</v>
+        <v>-4291100</v>
       </c>
       <c r="G20" s="3">
-        <v>-3732700</v>
+        <v>-3886900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3084500</v>
+        <v>-3211900</v>
       </c>
       <c r="I20" s="3">
-        <v>-3768000</v>
+        <v>-3923600</v>
       </c>
       <c r="J20" s="3">
-        <v>-4217400</v>
+        <v>-4391600</v>
       </c>
       <c r="K20" s="3">
         <v>-4995300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2992800</v>
+        <v>3072600</v>
       </c>
       <c r="E21" s="3">
-        <v>5526200</v>
+        <v>5724200</v>
       </c>
       <c r="F21" s="3">
-        <v>3231700</v>
+        <v>3352500</v>
       </c>
       <c r="G21" s="3">
-        <v>2683200</v>
+        <v>2777600</v>
       </c>
       <c r="H21" s="3">
-        <v>2477400</v>
+        <v>2567400</v>
       </c>
       <c r="I21" s="3">
-        <v>2927700</v>
+        <v>3043000</v>
       </c>
       <c r="J21" s="3">
-        <v>5242700</v>
+        <v>5426800</v>
       </c>
       <c r="K21" s="3">
         <v>6888100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3090400</v>
+        <v>-3218000</v>
       </c>
       <c r="E23" s="3">
-        <v>1323500</v>
+        <v>1378100</v>
       </c>
       <c r="F23" s="3">
-        <v>1464600</v>
+        <v>1525100</v>
       </c>
       <c r="G23" s="3">
-        <v>401200</v>
+        <v>417700</v>
       </c>
       <c r="H23" s="3">
-        <v>756400</v>
+        <v>787700</v>
       </c>
       <c r="I23" s="3">
-        <v>2150500</v>
+        <v>2239300</v>
       </c>
       <c r="J23" s="3">
-        <v>738800</v>
+        <v>769300</v>
       </c>
       <c r="K23" s="3">
         <v>284700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>310600</v>
+        <v>323400</v>
       </c>
       <c r="E24" s="3">
-        <v>495300</v>
+        <v>515700</v>
       </c>
       <c r="F24" s="3">
-        <v>315300</v>
+        <v>328300</v>
       </c>
       <c r="G24" s="3">
-        <v>252900</v>
+        <v>263400</v>
       </c>
       <c r="H24" s="3">
-        <v>307000</v>
+        <v>319700</v>
       </c>
       <c r="I24" s="3">
-        <v>740000</v>
+        <v>770500</v>
       </c>
       <c r="J24" s="3">
-        <v>301200</v>
+        <v>313600</v>
       </c>
       <c r="K24" s="3">
         <v>78900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3401000</v>
+        <v>-3541400</v>
       </c>
       <c r="E26" s="3">
-        <v>828200</v>
+        <v>862400</v>
       </c>
       <c r="F26" s="3">
-        <v>1149300</v>
+        <v>1196800</v>
       </c>
       <c r="G26" s="3">
-        <v>148200</v>
+        <v>154300</v>
       </c>
       <c r="H26" s="3">
-        <v>449400</v>
+        <v>467900</v>
       </c>
       <c r="I26" s="3">
-        <v>1410500</v>
+        <v>1468800</v>
       </c>
       <c r="J26" s="3">
-        <v>437600</v>
+        <v>455700</v>
       </c>
       <c r="K26" s="3">
         <v>205700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3411600</v>
+        <v>-3552500</v>
       </c>
       <c r="E27" s="3">
-        <v>709400</v>
+        <v>738700</v>
       </c>
       <c r="F27" s="3">
-        <v>1029400</v>
+        <v>1071900</v>
       </c>
       <c r="G27" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="H27" s="3">
-        <v>328200</v>
+        <v>341800</v>
       </c>
       <c r="I27" s="3">
-        <v>1275200</v>
+        <v>1327900</v>
       </c>
       <c r="J27" s="3">
-        <v>312900</v>
+        <v>325800</v>
       </c>
       <c r="K27" s="3">
         <v>96900</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>35300</v>
+        <v>36700</v>
       </c>
       <c r="E29" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="F29" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="G29" s="3">
-        <v>112900</v>
+        <v>117600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6886600</v>
+        <v>7171100</v>
       </c>
       <c r="E32" s="3">
-        <v>3911500</v>
+        <v>4073100</v>
       </c>
       <c r="F32" s="3">
-        <v>4120900</v>
+        <v>4291100</v>
       </c>
       <c r="G32" s="3">
-        <v>3732700</v>
+        <v>3886900</v>
       </c>
       <c r="H32" s="3">
-        <v>3084500</v>
+        <v>3211900</v>
       </c>
       <c r="I32" s="3">
-        <v>3768000</v>
+        <v>3923600</v>
       </c>
       <c r="J32" s="3">
-        <v>4217400</v>
+        <v>4391600</v>
       </c>
       <c r="K32" s="3">
         <v>4995300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3376300</v>
+        <v>-3515700</v>
       </c>
       <c r="E33" s="3">
-        <v>688200</v>
+        <v>716600</v>
       </c>
       <c r="F33" s="3">
-        <v>1017600</v>
+        <v>1059600</v>
       </c>
       <c r="G33" s="3">
-        <v>150600</v>
+        <v>156800</v>
       </c>
       <c r="H33" s="3">
-        <v>328200</v>
+        <v>341800</v>
       </c>
       <c r="I33" s="3">
-        <v>1275200</v>
+        <v>1327900</v>
       </c>
       <c r="J33" s="3">
-        <v>312900</v>
+        <v>325800</v>
       </c>
       <c r="K33" s="3">
         <v>96900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3376300</v>
+        <v>-3515700</v>
       </c>
       <c r="E35" s="3">
-        <v>688200</v>
+        <v>716600</v>
       </c>
       <c r="F35" s="3">
-        <v>1017600</v>
+        <v>1059600</v>
       </c>
       <c r="G35" s="3">
-        <v>150600</v>
+        <v>156800</v>
       </c>
       <c r="H35" s="3">
-        <v>328200</v>
+        <v>341800</v>
       </c>
       <c r="I35" s="3">
-        <v>1275200</v>
+        <v>1327900</v>
       </c>
       <c r="J35" s="3">
-        <v>312900</v>
+        <v>325800</v>
       </c>
       <c r="K35" s="3">
         <v>96900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115766000</v>
+        <v>120548000</v>
       </c>
       <c r="E41" s="3">
-        <v>78181200</v>
+        <v>81410400</v>
       </c>
       <c r="F41" s="3">
-        <v>100941000</v>
+        <v>105110000</v>
       </c>
       <c r="G41" s="3">
-        <v>65564300</v>
+        <v>68272400</v>
       </c>
       <c r="H41" s="3">
-        <v>113101000</v>
+        <v>117773000</v>
       </c>
       <c r="I41" s="3">
-        <v>100052000</v>
+        <v>104184000</v>
       </c>
       <c r="J41" s="3">
-        <v>43576200</v>
+        <v>45376100</v>
       </c>
       <c r="K41" s="3">
         <v>172466000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149809000</v>
+        <v>155996000</v>
       </c>
       <c r="E42" s="3">
-        <v>128144000</v>
+        <v>133437000</v>
       </c>
       <c r="F42" s="3">
-        <v>123391000</v>
+        <v>128488000</v>
       </c>
       <c r="G42" s="3">
-        <v>104733000</v>
+        <v>109058000</v>
       </c>
       <c r="H42" s="3">
-        <v>176061000</v>
+        <v>183333000</v>
       </c>
       <c r="I42" s="3">
-        <v>190747000</v>
+        <v>198626000</v>
       </c>
       <c r="J42" s="3">
-        <v>215940000</v>
+        <v>224859000</v>
       </c>
       <c r="K42" s="3">
         <v>195721000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>198800</v>
+        <v>207000</v>
       </c>
       <c r="E47" s="3">
-        <v>208200</v>
+        <v>216800</v>
       </c>
       <c r="F47" s="3">
-        <v>203500</v>
+        <v>211900</v>
       </c>
       <c r="G47" s="3">
-        <v>212900</v>
+        <v>221700</v>
       </c>
       <c r="H47" s="3">
-        <v>390600</v>
+        <v>406700</v>
       </c>
       <c r="I47" s="3">
-        <v>1056400</v>
+        <v>1100000</v>
       </c>
       <c r="J47" s="3">
-        <v>928200</v>
+        <v>966500</v>
       </c>
       <c r="K47" s="3">
         <v>1007200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3789200</v>
+        <v>3945700</v>
       </c>
       <c r="E48" s="3">
-        <v>4117400</v>
+        <v>4287500</v>
       </c>
       <c r="F48" s="3">
-        <v>1835200</v>
+        <v>1911000</v>
       </c>
       <c r="G48" s="3">
-        <v>1901100</v>
+        <v>1979600</v>
       </c>
       <c r="H48" s="3">
-        <v>4072700</v>
+        <v>4240900</v>
       </c>
       <c r="I48" s="3">
-        <v>5522000</v>
+        <v>5750100</v>
       </c>
       <c r="J48" s="3">
-        <v>2983400</v>
+        <v>3106600</v>
       </c>
       <c r="K48" s="3">
         <v>7871000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1670500</v>
+        <v>1739500</v>
       </c>
       <c r="E49" s="3">
-        <v>10774600</v>
+        <v>7479800</v>
       </c>
       <c r="F49" s="3">
-        <v>7637200</v>
+        <v>7952600</v>
       </c>
       <c r="G49" s="3">
-        <v>7771300</v>
+        <v>8092300</v>
       </c>
       <c r="H49" s="3">
-        <v>7169000</v>
+        <v>7465100</v>
       </c>
       <c r="I49" s="3">
-        <v>8293600</v>
+        <v>8636200</v>
       </c>
       <c r="J49" s="3">
-        <v>3917400</v>
+        <v>4079200</v>
       </c>
       <c r="K49" s="3">
         <v>11508600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5679700</v>
+        <v>5914300</v>
       </c>
       <c r="E52" s="3">
-        <v>12788600</v>
+        <v>13316900</v>
       </c>
       <c r="F52" s="3">
-        <v>19905900</v>
+        <v>20728100</v>
       </c>
       <c r="G52" s="3">
-        <v>3585700</v>
+        <v>3733800</v>
       </c>
       <c r="H52" s="3">
-        <v>4967900</v>
+        <v>5173100</v>
       </c>
       <c r="I52" s="3">
-        <v>4243300</v>
+        <v>4418500</v>
       </c>
       <c r="J52" s="3">
-        <v>4525600</v>
+        <v>4712500</v>
       </c>
       <c r="K52" s="3">
         <v>5242900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>596336000</v>
+        <v>620967000</v>
       </c>
       <c r="E54" s="3">
-        <v>545203000</v>
+        <v>567722000</v>
       </c>
       <c r="F54" s="3">
-        <v>543951000</v>
+        <v>566418000</v>
       </c>
       <c r="G54" s="3">
-        <v>532315000</v>
+        <v>554302000</v>
       </c>
       <c r="H54" s="3">
-        <v>565185000</v>
+        <v>588529000</v>
       </c>
       <c r="I54" s="3">
-        <v>626670000</v>
+        <v>652553000</v>
       </c>
       <c r="J54" s="3">
-        <v>656804000</v>
+        <v>683933000</v>
       </c>
       <c r="K54" s="3">
         <v>658824000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>848200</v>
+        <v>883200</v>
       </c>
       <c r="E59" s="3">
-        <v>875200</v>
+        <v>911400</v>
       </c>
       <c r="F59" s="3">
-        <v>922300</v>
+        <v>960400</v>
       </c>
       <c r="G59" s="3">
-        <v>1114100</v>
+        <v>1160100</v>
       </c>
       <c r="H59" s="3">
-        <v>1169300</v>
+        <v>1217600</v>
       </c>
       <c r="I59" s="3">
-        <v>901100</v>
+        <v>938300</v>
       </c>
       <c r="J59" s="3">
-        <v>884700</v>
+        <v>921200</v>
       </c>
       <c r="K59" s="3">
         <v>860100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54259100</v>
+        <v>56500200</v>
       </c>
       <c r="E61" s="3">
-        <v>53262700</v>
+        <v>55462600</v>
       </c>
       <c r="F61" s="3">
-        <v>54573200</v>
+        <v>56827300</v>
       </c>
       <c r="G61" s="3">
-        <v>51809800</v>
+        <v>53949800</v>
       </c>
       <c r="H61" s="3">
-        <v>55008500</v>
+        <v>57280500</v>
       </c>
       <c r="I61" s="3">
-        <v>62545700</v>
+        <v>65129000</v>
       </c>
       <c r="J61" s="3">
-        <v>73132100</v>
+        <v>76152700</v>
       </c>
       <c r="K61" s="3">
         <v>93729400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4006800</v>
+        <v>4172300</v>
       </c>
       <c r="E62" s="3">
-        <v>6356100</v>
+        <v>3307500</v>
       </c>
       <c r="F62" s="3">
-        <v>3738600</v>
+        <v>3893000</v>
       </c>
       <c r="G62" s="3">
-        <v>3904500</v>
+        <v>4065700</v>
       </c>
       <c r="H62" s="3">
-        <v>4099800</v>
+        <v>4269100</v>
       </c>
       <c r="I62" s="3">
-        <v>4037400</v>
+        <v>4204200</v>
       </c>
       <c r="J62" s="3">
-        <v>6356100</v>
+        <v>6618600</v>
       </c>
       <c r="K62" s="3">
         <v>9391400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>564007000</v>
+        <v>587303000</v>
       </c>
       <c r="E66" s="3">
-        <v>510847000</v>
+        <v>531947000</v>
       </c>
       <c r="F66" s="3">
-        <v>510758000</v>
+        <v>531854000</v>
       </c>
       <c r="G66" s="3">
-        <v>498367000</v>
+        <v>518951000</v>
       </c>
       <c r="H66" s="3">
-        <v>531602000</v>
+        <v>553560000</v>
       </c>
       <c r="I66" s="3">
-        <v>592412000</v>
+        <v>616881000</v>
       </c>
       <c r="J66" s="3">
-        <v>626068000</v>
+        <v>651927000</v>
       </c>
       <c r="K66" s="3">
         <v>627657000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14825000</v>
+        <v>15437300</v>
       </c>
       <c r="E72" s="3">
-        <v>11618100</v>
+        <v>12305000</v>
       </c>
       <c r="F72" s="3">
-        <v>11834600</v>
+        <v>12323400</v>
       </c>
       <c r="G72" s="3">
-        <v>13211000</v>
+        <v>13756600</v>
       </c>
       <c r="H72" s="3">
-        <v>13079200</v>
+        <v>13619400</v>
       </c>
       <c r="I72" s="3">
-        <v>13479200</v>
+        <v>14035900</v>
       </c>
       <c r="J72" s="3">
-        <v>12307500</v>
+        <v>12815800</v>
       </c>
       <c r="K72" s="3">
         <v>29804500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32328600</v>
+        <v>33664000</v>
       </c>
       <c r="E76" s="3">
-        <v>34355600</v>
+        <v>35774600</v>
       </c>
       <c r="F76" s="3">
-        <v>33193300</v>
+        <v>34564300</v>
       </c>
       <c r="G76" s="3">
-        <v>33948600</v>
+        <v>35350800</v>
       </c>
       <c r="H76" s="3">
-        <v>33582700</v>
+        <v>34969800</v>
       </c>
       <c r="I76" s="3">
-        <v>34257900</v>
+        <v>35672900</v>
       </c>
       <c r="J76" s="3">
-        <v>30735800</v>
+        <v>32005300</v>
       </c>
       <c r="K76" s="3">
         <v>31167000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3376300</v>
+        <v>-3515700</v>
       </c>
       <c r="E81" s="3">
-        <v>688200</v>
+        <v>716600</v>
       </c>
       <c r="F81" s="3">
-        <v>1017600</v>
+        <v>1059600</v>
       </c>
       <c r="G81" s="3">
-        <v>150600</v>
+        <v>156800</v>
       </c>
       <c r="H81" s="3">
-        <v>328200</v>
+        <v>341800</v>
       </c>
       <c r="I81" s="3">
-        <v>1275200</v>
+        <v>1327900</v>
       </c>
       <c r="J81" s="3">
-        <v>312900</v>
+        <v>325800</v>
       </c>
       <c r="K81" s="3">
         <v>96900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6058500</v>
+        <v>6308700</v>
       </c>
       <c r="E83" s="3">
-        <v>4185600</v>
+        <v>4358500</v>
       </c>
       <c r="F83" s="3">
-        <v>1759900</v>
+        <v>1832600</v>
       </c>
       <c r="G83" s="3">
-        <v>2272800</v>
+        <v>2366700</v>
       </c>
       <c r="H83" s="3">
-        <v>1714000</v>
+        <v>1784800</v>
       </c>
       <c r="I83" s="3">
-        <v>774100</v>
+        <v>806000</v>
       </c>
       <c r="J83" s="3">
-        <v>4485600</v>
+        <v>4670900</v>
       </c>
       <c r="K83" s="3">
         <v>6630500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39616400</v>
+        <v>41252800</v>
       </c>
       <c r="E89" s="3">
-        <v>-12689800</v>
+        <v>-13214000</v>
       </c>
       <c r="F89" s="3">
-        <v>-472900</v>
+        <v>-492400</v>
       </c>
       <c r="G89" s="3">
-        <v>23995000</v>
+        <v>24986100</v>
       </c>
       <c r="H89" s="3">
-        <v>8530100</v>
+        <v>8882400</v>
       </c>
       <c r="I89" s="3">
-        <v>17182500</v>
+        <v>17892200</v>
       </c>
       <c r="J89" s="3">
-        <v>3518600</v>
+        <v>3663900</v>
       </c>
       <c r="K89" s="3">
         <v>-10204800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1056400</v>
+        <v>-1100000</v>
       </c>
       <c r="E91" s="3">
-        <v>-822300</v>
+        <v>-856300</v>
       </c>
       <c r="F91" s="3">
-        <v>-692900</v>
+        <v>-721500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1068200</v>
+        <v>-1112300</v>
       </c>
       <c r="H91" s="3">
-        <v>-425900</v>
+        <v>-443400</v>
       </c>
       <c r="I91" s="3">
-        <v>-296500</v>
+        <v>-308700</v>
       </c>
       <c r="J91" s="3">
-        <v>-864700</v>
+        <v>-900400</v>
       </c>
       <c r="K91" s="3">
         <v>-1827800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1436400</v>
+        <v>-1495700</v>
       </c>
       <c r="E94" s="3">
-        <v>-992900</v>
+        <v>-1033900</v>
       </c>
       <c r="F94" s="3">
-        <v>-656400</v>
+        <v>-683500</v>
       </c>
       <c r="G94" s="3">
-        <v>-534100</v>
+        <v>-556100</v>
       </c>
       <c r="H94" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="I94" s="3">
-        <v>9779400</v>
+        <v>10183300</v>
       </c>
       <c r="J94" s="3">
-        <v>-10478200</v>
+        <v>-10911000</v>
       </c>
       <c r="K94" s="3">
         <v>6746600</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-294100</v>
+        <v>-306200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-294100</v>
+        <v>-306200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2597500</v>
+        <v>2704800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1384600</v>
+        <v>-1441800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1137600</v>
+        <v>-1184600</v>
       </c>
       <c r="G100" s="3">
-        <v>-321200</v>
+        <v>-334400</v>
       </c>
       <c r="H100" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="I100" s="3">
-        <v>585800</v>
+        <v>610000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2111600</v>
+        <v>-2198900</v>
       </c>
       <c r="K100" s="3">
         <v>-185400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-262300</v>
+        <v>-273200</v>
       </c>
       <c r="E101" s="3">
-        <v>68200</v>
+        <v>71000</v>
       </c>
       <c r="F101" s="3">
-        <v>125900</v>
+        <v>131100</v>
       </c>
       <c r="G101" s="3">
-        <v>-169400</v>
+        <v>-176400</v>
       </c>
       <c r="H101" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="I101" s="3">
-        <v>229400</v>
+        <v>238900</v>
       </c>
       <c r="J101" s="3">
-        <v>248200</v>
+        <v>258500</v>
       </c>
       <c r="K101" s="3">
         <v>-373200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40515200</v>
+        <v>42188700</v>
       </c>
       <c r="E102" s="3">
-        <v>-14999100</v>
+        <v>-15618600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2141000</v>
+        <v>-2229500</v>
       </c>
       <c r="G102" s="3">
-        <v>22970400</v>
+        <v>23919200</v>
       </c>
       <c r="H102" s="3">
-        <v>8610100</v>
+        <v>8965700</v>
       </c>
       <c r="I102" s="3">
-        <v>27777200</v>
+        <v>28924500</v>
       </c>
       <c r="J102" s="3">
-        <v>-8823000</v>
+        <v>-9187400</v>
       </c>
       <c r="K102" s="3">
         <v>-4016800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9291500</v>
+        <v>8854800</v>
       </c>
       <c r="E8" s="3">
-        <v>10745600</v>
+        <v>10240500</v>
       </c>
       <c r="F8" s="3">
-        <v>10620700</v>
+        <v>10121400</v>
       </c>
       <c r="G8" s="3">
-        <v>10214000</v>
+        <v>9733900</v>
       </c>
       <c r="H8" s="3">
-        <v>10746800</v>
+        <v>10241700</v>
       </c>
       <c r="I8" s="3">
-        <v>14034700</v>
+        <v>13375000</v>
       </c>
       <c r="J8" s="3">
-        <v>14962000</v>
+        <v>14258700</v>
       </c>
       <c r="K8" s="3">
         <v>16592500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1150300</v>
+        <v>-1096200</v>
       </c>
       <c r="E15" s="3">
-        <v>-1220100</v>
+        <v>-1162700</v>
       </c>
       <c r="F15" s="3">
-        <v>-812200</v>
+        <v>-774000</v>
       </c>
       <c r="G15" s="3">
-        <v>-1500600</v>
+        <v>-1430100</v>
       </c>
       <c r="H15" s="3">
-        <v>-670100</v>
+        <v>-638600</v>
       </c>
       <c r="I15" s="3">
-        <v>-594100</v>
+        <v>-566200</v>
       </c>
       <c r="J15" s="3">
-        <v>-513300</v>
+        <v>-489100</v>
       </c>
       <c r="K15" s="3">
         <v>-456900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5338500</v>
+        <v>5087600</v>
       </c>
       <c r="E17" s="3">
-        <v>5294400</v>
+        <v>5045500</v>
       </c>
       <c r="F17" s="3">
-        <v>4804400</v>
+        <v>4578600</v>
       </c>
       <c r="G17" s="3">
-        <v>5909400</v>
+        <v>5631600</v>
       </c>
       <c r="H17" s="3">
-        <v>6747200</v>
+        <v>6430100</v>
       </c>
       <c r="I17" s="3">
-        <v>7871800</v>
+        <v>7501800</v>
       </c>
       <c r="J17" s="3">
-        <v>9801100</v>
+        <v>9340400</v>
       </c>
       <c r="K17" s="3">
         <v>11312500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3953000</v>
+        <v>3767200</v>
       </c>
       <c r="E18" s="3">
-        <v>5451200</v>
+        <v>5195000</v>
       </c>
       <c r="F18" s="3">
-        <v>5816300</v>
+        <v>5542900</v>
       </c>
       <c r="G18" s="3">
-        <v>4304600</v>
+        <v>4102300</v>
       </c>
       <c r="H18" s="3">
-        <v>3999600</v>
+        <v>3811600</v>
       </c>
       <c r="I18" s="3">
-        <v>6162900</v>
+        <v>5873200</v>
       </c>
       <c r="J18" s="3">
-        <v>5160900</v>
+        <v>4918300</v>
       </c>
       <c r="K18" s="3">
         <v>5280000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7171100</v>
+        <v>-6834000</v>
       </c>
       <c r="E20" s="3">
-        <v>-4073100</v>
+        <v>-3881600</v>
       </c>
       <c r="F20" s="3">
-        <v>-4291100</v>
+        <v>-4089400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3886900</v>
+        <v>-3704200</v>
       </c>
       <c r="H20" s="3">
-        <v>-3211900</v>
+        <v>-3060900</v>
       </c>
       <c r="I20" s="3">
-        <v>-3923600</v>
+        <v>-3739200</v>
       </c>
       <c r="J20" s="3">
-        <v>-4391600</v>
+        <v>-4185200</v>
       </c>
       <c r="K20" s="3">
         <v>-4995300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3072600</v>
+        <v>2963900</v>
       </c>
       <c r="E21" s="3">
-        <v>5724200</v>
+        <v>5479800</v>
       </c>
       <c r="F21" s="3">
-        <v>3352500</v>
+        <v>3205200</v>
       </c>
       <c r="G21" s="3">
-        <v>2777600</v>
+        <v>2660500</v>
       </c>
       <c r="H21" s="3">
-        <v>2567400</v>
+        <v>2456800</v>
       </c>
       <c r="I21" s="3">
-        <v>3043000</v>
+        <v>2904500</v>
       </c>
       <c r="J21" s="3">
-        <v>5426800</v>
+        <v>5198200</v>
       </c>
       <c r="K21" s="3">
         <v>6888100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3218000</v>
+        <v>-3066800</v>
       </c>
       <c r="E23" s="3">
-        <v>1378100</v>
+        <v>1313300</v>
       </c>
       <c r="F23" s="3">
-        <v>1525100</v>
+        <v>1453400</v>
       </c>
       <c r="G23" s="3">
-        <v>417700</v>
+        <v>398100</v>
       </c>
       <c r="H23" s="3">
-        <v>787700</v>
+        <v>750600</v>
       </c>
       <c r="I23" s="3">
-        <v>2239300</v>
+        <v>2134000</v>
       </c>
       <c r="J23" s="3">
-        <v>769300</v>
+        <v>733100</v>
       </c>
       <c r="K23" s="3">
         <v>284700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>323400</v>
+        <v>308200</v>
       </c>
       <c r="E24" s="3">
-        <v>515700</v>
+        <v>491500</v>
       </c>
       <c r="F24" s="3">
-        <v>328300</v>
+        <v>312900</v>
       </c>
       <c r="G24" s="3">
-        <v>263400</v>
+        <v>251000</v>
       </c>
       <c r="H24" s="3">
-        <v>319700</v>
+        <v>304700</v>
       </c>
       <c r="I24" s="3">
-        <v>770500</v>
+        <v>734300</v>
       </c>
       <c r="J24" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="K24" s="3">
         <v>78900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3541400</v>
+        <v>-3375000</v>
       </c>
       <c r="E26" s="3">
-        <v>862400</v>
+        <v>821900</v>
       </c>
       <c r="F26" s="3">
-        <v>1196800</v>
+        <v>1140600</v>
       </c>
       <c r="G26" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="H26" s="3">
-        <v>467900</v>
+        <v>446000</v>
       </c>
       <c r="I26" s="3">
-        <v>1468800</v>
+        <v>1399700</v>
       </c>
       <c r="J26" s="3">
-        <v>455700</v>
+        <v>434300</v>
       </c>
       <c r="K26" s="3">
         <v>205700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3552500</v>
+        <v>-3385500</v>
       </c>
       <c r="E27" s="3">
-        <v>738700</v>
+        <v>703900</v>
       </c>
       <c r="F27" s="3">
-        <v>1071900</v>
+        <v>1021500</v>
       </c>
       <c r="G27" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="H27" s="3">
-        <v>341800</v>
+        <v>325700</v>
       </c>
       <c r="I27" s="3">
-        <v>1327900</v>
+        <v>1265500</v>
       </c>
       <c r="J27" s="3">
-        <v>325800</v>
+        <v>310500</v>
       </c>
       <c r="K27" s="3">
         <v>96900</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>36700</v>
+        <v>35000</v>
       </c>
       <c r="E29" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="F29" s="3">
-        <v>-12200</v>
+        <v>-11700</v>
       </c>
       <c r="G29" s="3">
-        <v>117600</v>
+        <v>112100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7171100</v>
+        <v>6834000</v>
       </c>
       <c r="E32" s="3">
-        <v>4073100</v>
+        <v>3881600</v>
       </c>
       <c r="F32" s="3">
-        <v>4291100</v>
+        <v>4089400</v>
       </c>
       <c r="G32" s="3">
-        <v>3886900</v>
+        <v>3704200</v>
       </c>
       <c r="H32" s="3">
-        <v>3211900</v>
+        <v>3060900</v>
       </c>
       <c r="I32" s="3">
-        <v>3923600</v>
+        <v>3739200</v>
       </c>
       <c r="J32" s="3">
-        <v>4391600</v>
+        <v>4185200</v>
       </c>
       <c r="K32" s="3">
         <v>4995300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3515700</v>
+        <v>-3350500</v>
       </c>
       <c r="E33" s="3">
-        <v>716600</v>
+        <v>682900</v>
       </c>
       <c r="F33" s="3">
-        <v>1059600</v>
+        <v>1009800</v>
       </c>
       <c r="G33" s="3">
-        <v>156800</v>
+        <v>149400</v>
       </c>
       <c r="H33" s="3">
-        <v>341800</v>
+        <v>325700</v>
       </c>
       <c r="I33" s="3">
-        <v>1327900</v>
+        <v>1265500</v>
       </c>
       <c r="J33" s="3">
-        <v>325800</v>
+        <v>310500</v>
       </c>
       <c r="K33" s="3">
         <v>96900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3515700</v>
+        <v>-3350500</v>
       </c>
       <c r="E35" s="3">
-        <v>716600</v>
+        <v>682900</v>
       </c>
       <c r="F35" s="3">
-        <v>1059600</v>
+        <v>1009800</v>
       </c>
       <c r="G35" s="3">
-        <v>156800</v>
+        <v>149400</v>
       </c>
       <c r="H35" s="3">
-        <v>341800</v>
+        <v>325700</v>
       </c>
       <c r="I35" s="3">
-        <v>1327900</v>
+        <v>1265500</v>
       </c>
       <c r="J35" s="3">
-        <v>325800</v>
+        <v>310500</v>
       </c>
       <c r="K35" s="3">
         <v>96900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120548000</v>
+        <v>114881000</v>
       </c>
       <c r="E41" s="3">
-        <v>81410400</v>
+        <v>77583700</v>
       </c>
       <c r="F41" s="3">
-        <v>105110000</v>
+        <v>100170000</v>
       </c>
       <c r="G41" s="3">
-        <v>68272400</v>
+        <v>65063300</v>
       </c>
       <c r="H41" s="3">
-        <v>117773000</v>
+        <v>112237000</v>
       </c>
       <c r="I41" s="3">
-        <v>104184000</v>
+        <v>99287100</v>
       </c>
       <c r="J41" s="3">
-        <v>45376100</v>
+        <v>43243200</v>
       </c>
       <c r="K41" s="3">
         <v>172466000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>155996000</v>
+        <v>148664000</v>
       </c>
       <c r="E42" s="3">
-        <v>133437000</v>
+        <v>127165000</v>
       </c>
       <c r="F42" s="3">
-        <v>128488000</v>
+        <v>122449000</v>
       </c>
       <c r="G42" s="3">
-        <v>109058000</v>
+        <v>103932000</v>
       </c>
       <c r="H42" s="3">
-        <v>183333000</v>
+        <v>174716000</v>
       </c>
       <c r="I42" s="3">
-        <v>198626000</v>
+        <v>189290000</v>
       </c>
       <c r="J42" s="3">
-        <v>224859000</v>
+        <v>214290000</v>
       </c>
       <c r="K42" s="3">
         <v>195721000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>207000</v>
+        <v>197300</v>
       </c>
       <c r="E47" s="3">
-        <v>216800</v>
+        <v>206600</v>
       </c>
       <c r="F47" s="3">
-        <v>211900</v>
+        <v>202000</v>
       </c>
       <c r="G47" s="3">
-        <v>221700</v>
+        <v>211300</v>
       </c>
       <c r="H47" s="3">
-        <v>406700</v>
+        <v>387600</v>
       </c>
       <c r="I47" s="3">
-        <v>1100000</v>
+        <v>1048300</v>
       </c>
       <c r="J47" s="3">
-        <v>966500</v>
+        <v>921100</v>
       </c>
       <c r="K47" s="3">
         <v>1007200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3945700</v>
+        <v>3760200</v>
       </c>
       <c r="E48" s="3">
-        <v>4287500</v>
+        <v>4085900</v>
       </c>
       <c r="F48" s="3">
-        <v>1911000</v>
+        <v>1821200</v>
       </c>
       <c r="G48" s="3">
-        <v>1979600</v>
+        <v>1886500</v>
       </c>
       <c r="H48" s="3">
-        <v>4240900</v>
+        <v>4041600</v>
       </c>
       <c r="I48" s="3">
-        <v>5750100</v>
+        <v>5479800</v>
       </c>
       <c r="J48" s="3">
-        <v>3106600</v>
+        <v>2960600</v>
       </c>
       <c r="K48" s="3">
         <v>7871000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1739500</v>
+        <v>1657700</v>
       </c>
       <c r="E49" s="3">
-        <v>7479800</v>
+        <v>7128200</v>
       </c>
       <c r="F49" s="3">
-        <v>7952600</v>
+        <v>7578800</v>
       </c>
       <c r="G49" s="3">
-        <v>8092300</v>
+        <v>7711900</v>
       </c>
       <c r="H49" s="3">
-        <v>7465100</v>
+        <v>7114200</v>
       </c>
       <c r="I49" s="3">
-        <v>8636200</v>
+        <v>8230200</v>
       </c>
       <c r="J49" s="3">
-        <v>4079200</v>
+        <v>3887500</v>
       </c>
       <c r="K49" s="3">
         <v>11508600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5914300</v>
+        <v>5636300</v>
       </c>
       <c r="E52" s="3">
-        <v>13316900</v>
+        <v>12690900</v>
       </c>
       <c r="F52" s="3">
-        <v>20728100</v>
+        <v>19753700</v>
       </c>
       <c r="G52" s="3">
-        <v>3733800</v>
+        <v>3558300</v>
       </c>
       <c r="H52" s="3">
-        <v>5173100</v>
+        <v>4930000</v>
       </c>
       <c r="I52" s="3">
-        <v>4418500</v>
+        <v>4210800</v>
       </c>
       <c r="J52" s="3">
-        <v>4712500</v>
+        <v>4491000</v>
       </c>
       <c r="K52" s="3">
         <v>5242900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>620967000</v>
+        <v>591779000</v>
       </c>
       <c r="E54" s="3">
-        <v>567722000</v>
+        <v>541036000</v>
       </c>
       <c r="F54" s="3">
-        <v>566418000</v>
+        <v>539794000</v>
       </c>
       <c r="G54" s="3">
-        <v>554302000</v>
+        <v>528247000</v>
       </c>
       <c r="H54" s="3">
-        <v>588529000</v>
+        <v>560866000</v>
       </c>
       <c r="I54" s="3">
-        <v>652553000</v>
+        <v>621881000</v>
       </c>
       <c r="J54" s="3">
-        <v>683933000</v>
+        <v>651785000</v>
       </c>
       <c r="K54" s="3">
         <v>658824000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>883200</v>
+        <v>841700</v>
       </c>
       <c r="E59" s="3">
-        <v>911400</v>
+        <v>868600</v>
       </c>
       <c r="F59" s="3">
-        <v>960400</v>
+        <v>915200</v>
       </c>
       <c r="G59" s="3">
-        <v>1160100</v>
+        <v>1105500</v>
       </c>
       <c r="H59" s="3">
-        <v>1217600</v>
+        <v>1160400</v>
       </c>
       <c r="I59" s="3">
-        <v>938300</v>
+        <v>894200</v>
       </c>
       <c r="J59" s="3">
-        <v>921200</v>
+        <v>877900</v>
       </c>
       <c r="K59" s="3">
         <v>860100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56500200</v>
+        <v>53844500</v>
       </c>
       <c r="E61" s="3">
-        <v>55462600</v>
+        <v>52855700</v>
       </c>
       <c r="F61" s="3">
-        <v>56827300</v>
+        <v>54156100</v>
       </c>
       <c r="G61" s="3">
-        <v>53949800</v>
+        <v>51413900</v>
       </c>
       <c r="H61" s="3">
-        <v>57280500</v>
+        <v>54588100</v>
       </c>
       <c r="I61" s="3">
-        <v>65129000</v>
+        <v>62067700</v>
       </c>
       <c r="J61" s="3">
-        <v>76152700</v>
+        <v>72573200</v>
       </c>
       <c r="K61" s="3">
         <v>93729400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4172300</v>
+        <v>3976200</v>
       </c>
       <c r="E62" s="3">
-        <v>3307500</v>
+        <v>3152000</v>
       </c>
       <c r="F62" s="3">
-        <v>3893000</v>
+        <v>3710000</v>
       </c>
       <c r="G62" s="3">
-        <v>4065700</v>
+        <v>3874600</v>
       </c>
       <c r="H62" s="3">
-        <v>4269100</v>
+        <v>4068400</v>
       </c>
       <c r="I62" s="3">
-        <v>4204200</v>
+        <v>4006600</v>
       </c>
       <c r="J62" s="3">
-        <v>6618600</v>
+        <v>6307500</v>
       </c>
       <c r="K62" s="3">
         <v>9391400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>587303000</v>
+        <v>559697000</v>
       </c>
       <c r="E66" s="3">
-        <v>531947000</v>
+        <v>506943000</v>
       </c>
       <c r="F66" s="3">
-        <v>531854000</v>
+        <v>506854000</v>
       </c>
       <c r="G66" s="3">
-        <v>518951000</v>
+        <v>494558000</v>
       </c>
       <c r="H66" s="3">
-        <v>553560000</v>
+        <v>527540000</v>
       </c>
       <c r="I66" s="3">
-        <v>616881000</v>
+        <v>587884000</v>
       </c>
       <c r="J66" s="3">
-        <v>651927000</v>
+        <v>621284000</v>
       </c>
       <c r="K66" s="3">
         <v>627657000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15437300</v>
+        <v>14711700</v>
       </c>
       <c r="E72" s="3">
-        <v>12305000</v>
+        <v>11726600</v>
       </c>
       <c r="F72" s="3">
-        <v>12323400</v>
+        <v>11744100</v>
       </c>
       <c r="G72" s="3">
-        <v>13756600</v>
+        <v>13110000</v>
       </c>
       <c r="H72" s="3">
-        <v>13619400</v>
+        <v>12979300</v>
       </c>
       <c r="I72" s="3">
-        <v>14035900</v>
+        <v>13376200</v>
       </c>
       <c r="J72" s="3">
-        <v>12815800</v>
+        <v>12213400</v>
       </c>
       <c r="K72" s="3">
         <v>29804500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33664000</v>
+        <v>32081600</v>
       </c>
       <c r="E76" s="3">
-        <v>35774600</v>
+        <v>34093000</v>
       </c>
       <c r="F76" s="3">
-        <v>34564300</v>
+        <v>32939600</v>
       </c>
       <c r="G76" s="3">
-        <v>35350800</v>
+        <v>33689100</v>
       </c>
       <c r="H76" s="3">
-        <v>34969800</v>
+        <v>33326100</v>
       </c>
       <c r="I76" s="3">
-        <v>35672900</v>
+        <v>33996100</v>
       </c>
       <c r="J76" s="3">
-        <v>32005300</v>
+        <v>30500900</v>
       </c>
       <c r="K76" s="3">
         <v>31167000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3515700</v>
+        <v>-3350500</v>
       </c>
       <c r="E81" s="3">
-        <v>716600</v>
+        <v>682900</v>
       </c>
       <c r="F81" s="3">
-        <v>1059600</v>
+        <v>1009800</v>
       </c>
       <c r="G81" s="3">
-        <v>156800</v>
+        <v>149400</v>
       </c>
       <c r="H81" s="3">
-        <v>341800</v>
+        <v>325700</v>
       </c>
       <c r="I81" s="3">
-        <v>1327900</v>
+        <v>1265500</v>
       </c>
       <c r="J81" s="3">
-        <v>325800</v>
+        <v>310500</v>
       </c>
       <c r="K81" s="3">
         <v>96900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6308700</v>
+        <v>6012200</v>
       </c>
       <c r="E83" s="3">
-        <v>4358500</v>
+        <v>4153600</v>
       </c>
       <c r="F83" s="3">
-        <v>1832600</v>
+        <v>1746400</v>
       </c>
       <c r="G83" s="3">
-        <v>2366700</v>
+        <v>2255400</v>
       </c>
       <c r="H83" s="3">
-        <v>1784800</v>
+        <v>1700900</v>
       </c>
       <c r="I83" s="3">
-        <v>806000</v>
+        <v>768200</v>
       </c>
       <c r="J83" s="3">
-        <v>4670900</v>
+        <v>4451300</v>
       </c>
       <c r="K83" s="3">
         <v>6630500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41252800</v>
+        <v>39313700</v>
       </c>
       <c r="E89" s="3">
-        <v>-13214000</v>
+        <v>-12592900</v>
       </c>
       <c r="F89" s="3">
-        <v>-492400</v>
+        <v>-469300</v>
       </c>
       <c r="G89" s="3">
-        <v>24986100</v>
+        <v>23811700</v>
       </c>
       <c r="H89" s="3">
-        <v>8882400</v>
+        <v>8464900</v>
       </c>
       <c r="I89" s="3">
-        <v>17892200</v>
+        <v>17051200</v>
       </c>
       <c r="J89" s="3">
-        <v>3663900</v>
+        <v>3491700</v>
       </c>
       <c r="K89" s="3">
         <v>-10204800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100000</v>
+        <v>-1048300</v>
       </c>
       <c r="E91" s="3">
-        <v>-856300</v>
+        <v>-816000</v>
       </c>
       <c r="F91" s="3">
-        <v>-721500</v>
+        <v>-687600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1112300</v>
+        <v>-1060000</v>
       </c>
       <c r="H91" s="3">
-        <v>-443400</v>
+        <v>-422600</v>
       </c>
       <c r="I91" s="3">
-        <v>-308700</v>
+        <v>-294200</v>
       </c>
       <c r="J91" s="3">
-        <v>-900400</v>
+        <v>-858000</v>
       </c>
       <c r="K91" s="3">
         <v>-1827800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1495700</v>
+        <v>-1425400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1033900</v>
+        <v>-985300</v>
       </c>
       <c r="F94" s="3">
-        <v>-683500</v>
+        <v>-651400</v>
       </c>
       <c r="G94" s="3">
-        <v>-556100</v>
+        <v>-530000</v>
       </c>
       <c r="H94" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="I94" s="3">
-        <v>10183300</v>
+        <v>9704700</v>
       </c>
       <c r="J94" s="3">
-        <v>-10911000</v>
+        <v>-10398100</v>
       </c>
       <c r="K94" s="3">
         <v>6746600</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-306200</v>
+        <v>-291900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-306200</v>
+        <v>-291900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2704800</v>
+        <v>2577600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1441800</v>
+        <v>-1374000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1184600</v>
+        <v>-1128900</v>
       </c>
       <c r="G100" s="3">
-        <v>-334400</v>
+        <v>-318700</v>
       </c>
       <c r="H100" s="3">
-        <v>84500</v>
+        <v>80600</v>
       </c>
       <c r="I100" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="J100" s="3">
-        <v>-2198900</v>
+        <v>-2095500</v>
       </c>
       <c r="K100" s="3">
         <v>-185400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-273200</v>
+        <v>-260300</v>
       </c>
       <c r="E101" s="3">
-        <v>71000</v>
+        <v>67700</v>
       </c>
       <c r="F101" s="3">
-        <v>131100</v>
+        <v>124900</v>
       </c>
       <c r="G101" s="3">
-        <v>-176400</v>
+        <v>-168100</v>
       </c>
       <c r="H101" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="I101" s="3">
-        <v>238900</v>
+        <v>227600</v>
       </c>
       <c r="J101" s="3">
-        <v>258500</v>
+        <v>246300</v>
       </c>
       <c r="K101" s="3">
         <v>-373200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42188700</v>
+        <v>40205600</v>
       </c>
       <c r="E102" s="3">
-        <v>-15618600</v>
+        <v>-14884500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2229500</v>
+        <v>-2124700</v>
       </c>
       <c r="G102" s="3">
-        <v>23919200</v>
+        <v>22794800</v>
       </c>
       <c r="H102" s="3">
-        <v>8965700</v>
+        <v>8544300</v>
       </c>
       <c r="I102" s="3">
-        <v>28924500</v>
+        <v>27564900</v>
       </c>
       <c r="J102" s="3">
-        <v>-9187400</v>
+        <v>-8755600</v>
       </c>
       <c r="K102" s="3">
         <v>-4016800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8854800</v>
+        <v>8564200</v>
       </c>
       <c r="E8" s="3">
-        <v>10240500</v>
+        <v>9904500</v>
       </c>
       <c r="F8" s="3">
-        <v>10121400</v>
+        <v>9789300</v>
       </c>
       <c r="G8" s="3">
-        <v>9733900</v>
+        <v>9414400</v>
       </c>
       <c r="H8" s="3">
-        <v>10241700</v>
+        <v>9905600</v>
       </c>
       <c r="I8" s="3">
-        <v>13375000</v>
+        <v>12936100</v>
       </c>
       <c r="J8" s="3">
-        <v>14258700</v>
+        <v>13790800</v>
       </c>
       <c r="K8" s="3">
         <v>16592500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1096200</v>
+        <v>-1060200</v>
       </c>
       <c r="E15" s="3">
-        <v>-1162700</v>
+        <v>-1124600</v>
       </c>
       <c r="F15" s="3">
-        <v>-774000</v>
+        <v>-748600</v>
       </c>
       <c r="G15" s="3">
-        <v>-1430100</v>
+        <v>-1383100</v>
       </c>
       <c r="H15" s="3">
-        <v>-638600</v>
+        <v>-617600</v>
       </c>
       <c r="I15" s="3">
-        <v>-566200</v>
+        <v>-547600</v>
       </c>
       <c r="J15" s="3">
-        <v>-489100</v>
+        <v>-473100</v>
       </c>
       <c r="K15" s="3">
         <v>-456900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5087600</v>
+        <v>4920600</v>
       </c>
       <c r="E17" s="3">
-        <v>5045500</v>
+        <v>4880000</v>
       </c>
       <c r="F17" s="3">
-        <v>4578600</v>
+        <v>4428300</v>
       </c>
       <c r="G17" s="3">
-        <v>5631600</v>
+        <v>5446800</v>
       </c>
       <c r="H17" s="3">
-        <v>6430100</v>
+        <v>6219100</v>
       </c>
       <c r="I17" s="3">
-        <v>7501800</v>
+        <v>7255600</v>
       </c>
       <c r="J17" s="3">
-        <v>9340400</v>
+        <v>9033900</v>
       </c>
       <c r="K17" s="3">
         <v>11312500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3767200</v>
+        <v>3643600</v>
       </c>
       <c r="E18" s="3">
-        <v>5195000</v>
+        <v>5024500</v>
       </c>
       <c r="F18" s="3">
-        <v>5542900</v>
+        <v>5361000</v>
       </c>
       <c r="G18" s="3">
-        <v>4102300</v>
+        <v>3967700</v>
       </c>
       <c r="H18" s="3">
-        <v>3811600</v>
+        <v>3686500</v>
       </c>
       <c r="I18" s="3">
-        <v>5873200</v>
+        <v>5680500</v>
       </c>
       <c r="J18" s="3">
-        <v>4918300</v>
+        <v>4756900</v>
       </c>
       <c r="K18" s="3">
         <v>5280000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6834000</v>
+        <v>-6609800</v>
       </c>
       <c r="E20" s="3">
-        <v>-3881600</v>
+        <v>-3754300</v>
       </c>
       <c r="F20" s="3">
-        <v>-4089400</v>
+        <v>-3955200</v>
       </c>
       <c r="G20" s="3">
-        <v>-3704200</v>
+        <v>-3582600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3060900</v>
+        <v>-2960500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3739200</v>
+        <v>-3616500</v>
       </c>
       <c r="J20" s="3">
-        <v>-4185200</v>
+        <v>-4047800</v>
       </c>
       <c r="K20" s="3">
         <v>-4995300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2963900</v>
+        <v>2862100</v>
       </c>
       <c r="E21" s="3">
-        <v>5479800</v>
+        <v>5296800</v>
       </c>
       <c r="F21" s="3">
-        <v>3205200</v>
+        <v>3098800</v>
       </c>
       <c r="G21" s="3">
-        <v>2660500</v>
+        <v>2571500</v>
       </c>
       <c r="H21" s="3">
-        <v>2456800</v>
+        <v>2374900</v>
       </c>
       <c r="I21" s="3">
-        <v>2904500</v>
+        <v>2808700</v>
       </c>
       <c r="J21" s="3">
-        <v>5198200</v>
+        <v>5024200</v>
       </c>
       <c r="K21" s="3">
         <v>6888100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3066800</v>
+        <v>-2966100</v>
       </c>
       <c r="E23" s="3">
-        <v>1313300</v>
+        <v>1270200</v>
       </c>
       <c r="F23" s="3">
-        <v>1453400</v>
+        <v>1405700</v>
       </c>
       <c r="G23" s="3">
-        <v>398100</v>
+        <v>385000</v>
       </c>
       <c r="H23" s="3">
-        <v>750600</v>
+        <v>726000</v>
       </c>
       <c r="I23" s="3">
-        <v>2134000</v>
+        <v>2064000</v>
       </c>
       <c r="J23" s="3">
-        <v>733100</v>
+        <v>709100</v>
       </c>
       <c r="K23" s="3">
         <v>284700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>308200</v>
+        <v>298100</v>
       </c>
       <c r="E24" s="3">
-        <v>491500</v>
+        <v>475400</v>
       </c>
       <c r="F24" s="3">
-        <v>312900</v>
+        <v>302600</v>
       </c>
       <c r="G24" s="3">
-        <v>251000</v>
+        <v>242800</v>
       </c>
       <c r="H24" s="3">
-        <v>304700</v>
+        <v>294700</v>
       </c>
       <c r="I24" s="3">
-        <v>734300</v>
+        <v>710200</v>
       </c>
       <c r="J24" s="3">
-        <v>298900</v>
+        <v>289000</v>
       </c>
       <c r="K24" s="3">
         <v>78900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3375000</v>
+        <v>-3264200</v>
       </c>
       <c r="E26" s="3">
-        <v>821900</v>
+        <v>794900</v>
       </c>
       <c r="F26" s="3">
-        <v>1140600</v>
+        <v>1103100</v>
       </c>
       <c r="G26" s="3">
-        <v>147100</v>
+        <v>142300</v>
       </c>
       <c r="H26" s="3">
-        <v>446000</v>
+        <v>431300</v>
       </c>
       <c r="I26" s="3">
-        <v>1399700</v>
+        <v>1353800</v>
       </c>
       <c r="J26" s="3">
-        <v>434300</v>
+        <v>420000</v>
       </c>
       <c r="K26" s="3">
         <v>205700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3385500</v>
+        <v>-3274400</v>
       </c>
       <c r="E27" s="3">
-        <v>703900</v>
+        <v>680800</v>
       </c>
       <c r="F27" s="3">
-        <v>1021500</v>
+        <v>988000</v>
       </c>
       <c r="G27" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="H27" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="I27" s="3">
-        <v>1265500</v>
+        <v>1223900</v>
       </c>
       <c r="J27" s="3">
-        <v>310500</v>
+        <v>300300</v>
       </c>
       <c r="K27" s="3">
         <v>96900</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="E29" s="3">
-        <v>-21000</v>
+        <v>-20300</v>
       </c>
       <c r="F29" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="G29" s="3">
-        <v>112100</v>
+        <v>108400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6834000</v>
+        <v>6609800</v>
       </c>
       <c r="E32" s="3">
-        <v>3881600</v>
+        <v>3754300</v>
       </c>
       <c r="F32" s="3">
-        <v>4089400</v>
+        <v>3955200</v>
       </c>
       <c r="G32" s="3">
-        <v>3704200</v>
+        <v>3582600</v>
       </c>
       <c r="H32" s="3">
-        <v>3060900</v>
+        <v>2960500</v>
       </c>
       <c r="I32" s="3">
-        <v>3739200</v>
+        <v>3616500</v>
       </c>
       <c r="J32" s="3">
-        <v>4185200</v>
+        <v>4047800</v>
       </c>
       <c r="K32" s="3">
         <v>4995300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3350500</v>
+        <v>-3240500</v>
       </c>
       <c r="E33" s="3">
-        <v>682900</v>
+        <v>660500</v>
       </c>
       <c r="F33" s="3">
-        <v>1009800</v>
+        <v>976700</v>
       </c>
       <c r="G33" s="3">
-        <v>149400</v>
+        <v>144500</v>
       </c>
       <c r="H33" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="I33" s="3">
-        <v>1265500</v>
+        <v>1223900</v>
       </c>
       <c r="J33" s="3">
-        <v>310500</v>
+        <v>300300</v>
       </c>
       <c r="K33" s="3">
         <v>96900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3350500</v>
+        <v>-3240500</v>
       </c>
       <c r="E35" s="3">
-        <v>682900</v>
+        <v>660500</v>
       </c>
       <c r="F35" s="3">
-        <v>1009800</v>
+        <v>976700</v>
       </c>
       <c r="G35" s="3">
-        <v>149400</v>
+        <v>144500</v>
       </c>
       <c r="H35" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="I35" s="3">
-        <v>1265500</v>
+        <v>1223900</v>
       </c>
       <c r="J35" s="3">
-        <v>310500</v>
+        <v>300300</v>
       </c>
       <c r="K35" s="3">
         <v>96900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>114881000</v>
+        <v>111111000</v>
       </c>
       <c r="E41" s="3">
-        <v>77583700</v>
+        <v>75037700</v>
       </c>
       <c r="F41" s="3">
-        <v>100170000</v>
+        <v>96882400</v>
       </c>
       <c r="G41" s="3">
-        <v>65063300</v>
+        <v>62928100</v>
       </c>
       <c r="H41" s="3">
-        <v>112237000</v>
+        <v>108554000</v>
       </c>
       <c r="I41" s="3">
-        <v>99287100</v>
+        <v>96028800</v>
       </c>
       <c r="J41" s="3">
-        <v>43243200</v>
+        <v>41824100</v>
       </c>
       <c r="K41" s="3">
         <v>172466000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>148664000</v>
+        <v>143785000</v>
       </c>
       <c r="E42" s="3">
-        <v>127165000</v>
+        <v>122992000</v>
       </c>
       <c r="F42" s="3">
-        <v>122449000</v>
+        <v>118430000</v>
       </c>
       <c r="G42" s="3">
-        <v>103932000</v>
+        <v>100522000</v>
       </c>
       <c r="H42" s="3">
-        <v>174716000</v>
+        <v>168982000</v>
       </c>
       <c r="I42" s="3">
-        <v>189290000</v>
+        <v>183078000</v>
       </c>
       <c r="J42" s="3">
-        <v>214290000</v>
+        <v>207258000</v>
       </c>
       <c r="K42" s="3">
         <v>195721000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>197300</v>
+        <v>190800</v>
       </c>
       <c r="E47" s="3">
-        <v>206600</v>
+        <v>199900</v>
       </c>
       <c r="F47" s="3">
-        <v>202000</v>
+        <v>195300</v>
       </c>
       <c r="G47" s="3">
-        <v>211300</v>
+        <v>204400</v>
       </c>
       <c r="H47" s="3">
-        <v>387600</v>
+        <v>374900</v>
       </c>
       <c r="I47" s="3">
-        <v>1048300</v>
+        <v>1013900</v>
       </c>
       <c r="J47" s="3">
-        <v>921100</v>
+        <v>890900</v>
       </c>
       <c r="K47" s="3">
         <v>1007200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3760200</v>
+        <v>7259000</v>
       </c>
       <c r="E48" s="3">
-        <v>4085900</v>
+        <v>3951800</v>
       </c>
       <c r="F48" s="3">
-        <v>1821200</v>
+        <v>1761400</v>
       </c>
       <c r="G48" s="3">
-        <v>1886500</v>
+        <v>1824600</v>
       </c>
       <c r="H48" s="3">
-        <v>4041600</v>
+        <v>3908900</v>
       </c>
       <c r="I48" s="3">
-        <v>5479800</v>
+        <v>5300000</v>
       </c>
       <c r="J48" s="3">
-        <v>2960600</v>
+        <v>2863400</v>
       </c>
       <c r="K48" s="3">
         <v>7871000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1657700</v>
+        <v>3206600</v>
       </c>
       <c r="E49" s="3">
-        <v>7128200</v>
+        <v>6894300</v>
       </c>
       <c r="F49" s="3">
-        <v>7578800</v>
+        <v>7330100</v>
       </c>
       <c r="G49" s="3">
-        <v>7711900</v>
+        <v>7458800</v>
       </c>
       <c r="H49" s="3">
-        <v>7114200</v>
+        <v>6880700</v>
       </c>
       <c r="I49" s="3">
-        <v>8230200</v>
+        <v>7960200</v>
       </c>
       <c r="J49" s="3">
-        <v>3887500</v>
+        <v>3759900</v>
       </c>
       <c r="K49" s="3">
         <v>11508600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5636300</v>
+        <v>5451300</v>
       </c>
       <c r="E52" s="3">
-        <v>12690900</v>
+        <v>12274400</v>
       </c>
       <c r="F52" s="3">
-        <v>19753700</v>
+        <v>19105500</v>
       </c>
       <c r="G52" s="3">
-        <v>3558300</v>
+        <v>3441500</v>
       </c>
       <c r="H52" s="3">
-        <v>4930000</v>
+        <v>4768200</v>
       </c>
       <c r="I52" s="3">
-        <v>4210800</v>
+        <v>4072700</v>
       </c>
       <c r="J52" s="3">
-        <v>4491000</v>
+        <v>4343600</v>
       </c>
       <c r="K52" s="3">
         <v>5242900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>591779000</v>
+        <v>572017000</v>
       </c>
       <c r="E54" s="3">
-        <v>541036000</v>
+        <v>523281000</v>
       </c>
       <c r="F54" s="3">
-        <v>539794000</v>
+        <v>522080000</v>
       </c>
       <c r="G54" s="3">
-        <v>528247000</v>
+        <v>510912000</v>
       </c>
       <c r="H54" s="3">
-        <v>560866000</v>
+        <v>542460000</v>
       </c>
       <c r="I54" s="3">
-        <v>621881000</v>
+        <v>601473000</v>
       </c>
       <c r="J54" s="3">
-        <v>651785000</v>
+        <v>630396000</v>
       </c>
       <c r="K54" s="3">
         <v>658824000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>841700</v>
+        <v>814100</v>
       </c>
       <c r="E59" s="3">
-        <v>868600</v>
+        <v>840100</v>
       </c>
       <c r="F59" s="3">
-        <v>915200</v>
+        <v>885200</v>
       </c>
       <c r="G59" s="3">
-        <v>1105500</v>
+        <v>1069300</v>
       </c>
       <c r="H59" s="3">
-        <v>1160400</v>
+        <v>1122300</v>
       </c>
       <c r="I59" s="3">
-        <v>894200</v>
+        <v>864900</v>
       </c>
       <c r="J59" s="3">
-        <v>877900</v>
+        <v>849100</v>
       </c>
       <c r="K59" s="3">
         <v>860100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53844500</v>
+        <v>52077500</v>
       </c>
       <c r="E61" s="3">
-        <v>52855700</v>
+        <v>51121100</v>
       </c>
       <c r="F61" s="3">
-        <v>54156100</v>
+        <v>52378900</v>
       </c>
       <c r="G61" s="3">
-        <v>51413900</v>
+        <v>49726700</v>
       </c>
       <c r="H61" s="3">
-        <v>54588100</v>
+        <v>52796700</v>
       </c>
       <c r="I61" s="3">
-        <v>62067700</v>
+        <v>60030900</v>
       </c>
       <c r="J61" s="3">
-        <v>72573200</v>
+        <v>70191600</v>
       </c>
       <c r="K61" s="3">
         <v>93729400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3976200</v>
+        <v>7367400</v>
       </c>
       <c r="E62" s="3">
-        <v>3152000</v>
+        <v>3048600</v>
       </c>
       <c r="F62" s="3">
-        <v>3710000</v>
+        <v>3588300</v>
       </c>
       <c r="G62" s="3">
-        <v>3874600</v>
+        <v>3747500</v>
       </c>
       <c r="H62" s="3">
-        <v>4068400</v>
+        <v>3934900</v>
       </c>
       <c r="I62" s="3">
-        <v>4006600</v>
+        <v>3875100</v>
       </c>
       <c r="J62" s="3">
-        <v>6307500</v>
+        <v>6100500</v>
       </c>
       <c r="K62" s="3">
         <v>9391400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>559697000</v>
+        <v>541017000</v>
       </c>
       <c r="E66" s="3">
-        <v>506943000</v>
+        <v>490307000</v>
       </c>
       <c r="F66" s="3">
-        <v>506854000</v>
+        <v>490221000</v>
       </c>
       <c r="G66" s="3">
-        <v>494558000</v>
+        <v>478329000</v>
       </c>
       <c r="H66" s="3">
-        <v>527540000</v>
+        <v>510228000</v>
       </c>
       <c r="I66" s="3">
-        <v>587884000</v>
+        <v>568592000</v>
       </c>
       <c r="J66" s="3">
-        <v>621284000</v>
+        <v>600896000</v>
       </c>
       <c r="K66" s="3">
         <v>627657000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14711700</v>
+        <v>14199600</v>
       </c>
       <c r="E72" s="3">
-        <v>11726600</v>
+        <v>11341800</v>
       </c>
       <c r="F72" s="3">
-        <v>11744100</v>
+        <v>11358700</v>
       </c>
       <c r="G72" s="3">
-        <v>13110000</v>
+        <v>12679800</v>
       </c>
       <c r="H72" s="3">
-        <v>12979300</v>
+        <v>12553300</v>
       </c>
       <c r="I72" s="3">
-        <v>13376200</v>
+        <v>12937200</v>
       </c>
       <c r="J72" s="3">
-        <v>12213400</v>
+        <v>11812600</v>
       </c>
       <c r="K72" s="3">
         <v>29804500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32081600</v>
+        <v>30999400</v>
       </c>
       <c r="E76" s="3">
-        <v>34093000</v>
+        <v>32974200</v>
       </c>
       <c r="F76" s="3">
-        <v>32939600</v>
+        <v>31858700</v>
       </c>
       <c r="G76" s="3">
-        <v>33689100</v>
+        <v>32583600</v>
       </c>
       <c r="H76" s="3">
-        <v>33326100</v>
+        <v>32232400</v>
       </c>
       <c r="I76" s="3">
-        <v>33996100</v>
+        <v>32880500</v>
       </c>
       <c r="J76" s="3">
-        <v>30500900</v>
+        <v>29500000</v>
       </c>
       <c r="K76" s="3">
         <v>31167000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3350500</v>
+        <v>-3240500</v>
       </c>
       <c r="E81" s="3">
-        <v>682900</v>
+        <v>660500</v>
       </c>
       <c r="F81" s="3">
-        <v>1009800</v>
+        <v>976700</v>
       </c>
       <c r="G81" s="3">
-        <v>149400</v>
+        <v>144500</v>
       </c>
       <c r="H81" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="I81" s="3">
-        <v>1265500</v>
+        <v>1223900</v>
       </c>
       <c r="J81" s="3">
-        <v>310500</v>
+        <v>300300</v>
       </c>
       <c r="K81" s="3">
         <v>96900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6012200</v>
+        <v>5814900</v>
       </c>
       <c r="E83" s="3">
-        <v>4153600</v>
+        <v>4017300</v>
       </c>
       <c r="F83" s="3">
-        <v>1746400</v>
+        <v>1689100</v>
       </c>
       <c r="G83" s="3">
-        <v>2255400</v>
+        <v>2181400</v>
       </c>
       <c r="H83" s="3">
-        <v>1700900</v>
+        <v>1645100</v>
       </c>
       <c r="I83" s="3">
-        <v>768200</v>
+        <v>742900</v>
       </c>
       <c r="J83" s="3">
-        <v>4451300</v>
+        <v>4305300</v>
       </c>
       <c r="K83" s="3">
         <v>6630500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39313700</v>
+        <v>38023600</v>
       </c>
       <c r="E89" s="3">
-        <v>-12592900</v>
+        <v>-12179600</v>
       </c>
       <c r="F89" s="3">
-        <v>-469300</v>
+        <v>-453900</v>
       </c>
       <c r="G89" s="3">
-        <v>23811700</v>
+        <v>23030300</v>
       </c>
       <c r="H89" s="3">
-        <v>8464900</v>
+        <v>8187100</v>
       </c>
       <c r="I89" s="3">
-        <v>17051200</v>
+        <v>16491600</v>
       </c>
       <c r="J89" s="3">
-        <v>3491700</v>
+        <v>3377100</v>
       </c>
       <c r="K89" s="3">
         <v>-10204800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1048300</v>
+        <v>-1013900</v>
       </c>
       <c r="E91" s="3">
-        <v>-816000</v>
+        <v>-789200</v>
       </c>
       <c r="F91" s="3">
-        <v>-687600</v>
+        <v>-665000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1060000</v>
+        <v>-1025200</v>
       </c>
       <c r="H91" s="3">
-        <v>-422600</v>
+        <v>-408700</v>
       </c>
       <c r="I91" s="3">
-        <v>-294200</v>
+        <v>-284500</v>
       </c>
       <c r="J91" s="3">
-        <v>-858000</v>
+        <v>-829900</v>
       </c>
       <c r="K91" s="3">
         <v>-1827800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1425400</v>
+        <v>-1378600</v>
       </c>
       <c r="E94" s="3">
-        <v>-985300</v>
+        <v>-953000</v>
       </c>
       <c r="F94" s="3">
-        <v>-651400</v>
+        <v>-630000</v>
       </c>
       <c r="G94" s="3">
-        <v>-530000</v>
+        <v>-512600</v>
       </c>
       <c r="H94" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="I94" s="3">
-        <v>9704700</v>
+        <v>9386200</v>
       </c>
       <c r="J94" s="3">
-        <v>-10398100</v>
+        <v>-10056900</v>
       </c>
       <c r="K94" s="3">
         <v>6746600</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-291900</v>
+        <v>-282300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-291900</v>
+        <v>-282300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2577600</v>
+        <v>2493100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1374000</v>
+        <v>-1329000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1128900</v>
+        <v>-1091800</v>
       </c>
       <c r="G100" s="3">
-        <v>-318700</v>
+        <v>-308200</v>
       </c>
       <c r="H100" s="3">
-        <v>80600</v>
+        <v>77900</v>
       </c>
       <c r="I100" s="3">
-        <v>581400</v>
+        <v>562300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2095500</v>
+        <v>-2026700</v>
       </c>
       <c r="K100" s="3">
         <v>-185400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-260300</v>
+        <v>-251800</v>
       </c>
       <c r="E101" s="3">
-        <v>67700</v>
+        <v>65500</v>
       </c>
       <c r="F101" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="G101" s="3">
-        <v>-168100</v>
+        <v>-162600</v>
       </c>
       <c r="H101" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="I101" s="3">
-        <v>227600</v>
+        <v>220200</v>
       </c>
       <c r="J101" s="3">
-        <v>246300</v>
+        <v>238200</v>
       </c>
       <c r="K101" s="3">
         <v>-373200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40205600</v>
+        <v>38886200</v>
       </c>
       <c r="E102" s="3">
-        <v>-14884500</v>
+        <v>-14396000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2124700</v>
+        <v>-2055000</v>
       </c>
       <c r="G102" s="3">
-        <v>22794800</v>
+        <v>22046800</v>
       </c>
       <c r="H102" s="3">
-        <v>8544300</v>
+        <v>8263900</v>
       </c>
       <c r="I102" s="3">
-        <v>27564900</v>
+        <v>26660300</v>
       </c>
       <c r="J102" s="3">
-        <v>-8755600</v>
+        <v>-8468300</v>
       </c>
       <c r="K102" s="3">
         <v>-4016800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>CRZBY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8564200</v>
+        <v>8274600</v>
       </c>
       <c r="E8" s="3">
-        <v>9904500</v>
+        <v>9569500</v>
       </c>
       <c r="F8" s="3">
-        <v>9789300</v>
+        <v>9458200</v>
       </c>
       <c r="G8" s="3">
-        <v>9414400</v>
+        <v>9096000</v>
       </c>
       <c r="H8" s="3">
-        <v>9905600</v>
+        <v>9570600</v>
       </c>
       <c r="I8" s="3">
-        <v>12936100</v>
+        <v>12498600</v>
       </c>
       <c r="J8" s="3">
-        <v>13790800</v>
+        <v>13324400</v>
       </c>
       <c r="K8" s="3">
         <v>16592500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1060200</v>
+        <v>-1024400</v>
       </c>
       <c r="E15" s="3">
-        <v>-1124600</v>
+        <v>-1086500</v>
       </c>
       <c r="F15" s="3">
-        <v>-748600</v>
+        <v>-723300</v>
       </c>
       <c r="G15" s="3">
-        <v>-1383100</v>
+        <v>-1336400</v>
       </c>
       <c r="H15" s="3">
-        <v>-617600</v>
+        <v>-596700</v>
       </c>
       <c r="I15" s="3">
-        <v>-547600</v>
+        <v>-529100</v>
       </c>
       <c r="J15" s="3">
-        <v>-473100</v>
+        <v>-457100</v>
       </c>
       <c r="K15" s="3">
         <v>-456900</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4920600</v>
+        <v>4754200</v>
       </c>
       <c r="E17" s="3">
-        <v>4880000</v>
+        <v>4714900</v>
       </c>
       <c r="F17" s="3">
-        <v>4428300</v>
+        <v>4278500</v>
       </c>
       <c r="G17" s="3">
-        <v>5446800</v>
+        <v>5262500</v>
       </c>
       <c r="H17" s="3">
-        <v>6219100</v>
+        <v>6008700</v>
       </c>
       <c r="I17" s="3">
-        <v>7255600</v>
+        <v>7010200</v>
       </c>
       <c r="J17" s="3">
-        <v>9033900</v>
+        <v>8728400</v>
       </c>
       <c r="K17" s="3">
         <v>11312500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3643600</v>
+        <v>3520400</v>
       </c>
       <c r="E18" s="3">
-        <v>5024500</v>
+        <v>4854500</v>
       </c>
       <c r="F18" s="3">
-        <v>5361000</v>
+        <v>5179600</v>
       </c>
       <c r="G18" s="3">
-        <v>3967700</v>
+        <v>3833500</v>
       </c>
       <c r="H18" s="3">
-        <v>3686500</v>
+        <v>3561800</v>
       </c>
       <c r="I18" s="3">
-        <v>5680500</v>
+        <v>5488400</v>
       </c>
       <c r="J18" s="3">
-        <v>4756900</v>
+        <v>4596000</v>
       </c>
       <c r="K18" s="3">
         <v>5280000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6609800</v>
+        <v>-6386200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3754300</v>
+        <v>-3627300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3955200</v>
+        <v>-3821500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3582600</v>
+        <v>-3461500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2960500</v>
+        <v>-2860400</v>
       </c>
       <c r="I20" s="3">
-        <v>-3616500</v>
+        <v>-3494200</v>
       </c>
       <c r="J20" s="3">
-        <v>-4047800</v>
+        <v>-3910900</v>
       </c>
       <c r="K20" s="3">
         <v>-4995300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2862100</v>
+        <v>2837900</v>
       </c>
       <c r="E21" s="3">
-        <v>5296800</v>
+        <v>5167800</v>
       </c>
       <c r="F21" s="3">
-        <v>3098800</v>
+        <v>3015000</v>
       </c>
       <c r="G21" s="3">
-        <v>2571500</v>
+        <v>2511700</v>
       </c>
       <c r="H21" s="3">
-        <v>2374900</v>
+        <v>2315100</v>
       </c>
       <c r="I21" s="3">
-        <v>2808700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5024200</v>
+        <v>2722900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>6888100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2966100</v>
+        <v>-2865800</v>
       </c>
       <c r="E23" s="3">
-        <v>1270200</v>
+        <v>1227300</v>
       </c>
       <c r="F23" s="3">
-        <v>1405700</v>
+        <v>1358200</v>
       </c>
       <c r="G23" s="3">
-        <v>385000</v>
+        <v>372000</v>
       </c>
       <c r="H23" s="3">
-        <v>726000</v>
+        <v>701500</v>
       </c>
       <c r="I23" s="3">
-        <v>2064000</v>
+        <v>1994200</v>
       </c>
       <c r="J23" s="3">
-        <v>709100</v>
+        <v>685100</v>
       </c>
       <c r="K23" s="3">
         <v>284700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>298100</v>
+        <v>288000</v>
       </c>
       <c r="E24" s="3">
-        <v>475400</v>
+        <v>459300</v>
       </c>
       <c r="F24" s="3">
-        <v>302600</v>
+        <v>292400</v>
       </c>
       <c r="G24" s="3">
-        <v>242800</v>
+        <v>234500</v>
       </c>
       <c r="H24" s="3">
-        <v>294700</v>
+        <v>284700</v>
       </c>
       <c r="I24" s="3">
-        <v>710200</v>
+        <v>686200</v>
       </c>
       <c r="J24" s="3">
-        <v>289000</v>
+        <v>279300</v>
       </c>
       <c r="K24" s="3">
         <v>78900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3264200</v>
+        <v>-3153800</v>
       </c>
       <c r="E26" s="3">
-        <v>794900</v>
+        <v>768000</v>
       </c>
       <c r="F26" s="3">
-        <v>1103100</v>
+        <v>1065800</v>
       </c>
       <c r="G26" s="3">
-        <v>142300</v>
+        <v>137500</v>
       </c>
       <c r="H26" s="3">
-        <v>431300</v>
+        <v>416700</v>
       </c>
       <c r="I26" s="3">
-        <v>1353800</v>
+        <v>1308000</v>
       </c>
       <c r="J26" s="3">
-        <v>420000</v>
+        <v>405800</v>
       </c>
       <c r="K26" s="3">
         <v>205700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3274400</v>
+        <v>-3163600</v>
       </c>
       <c r="E27" s="3">
-        <v>680800</v>
+        <v>657800</v>
       </c>
       <c r="F27" s="3">
-        <v>988000</v>
+        <v>954500</v>
       </c>
       <c r="G27" s="3">
-        <v>36100</v>
+        <v>34900</v>
       </c>
       <c r="H27" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="I27" s="3">
-        <v>1223900</v>
+        <v>1182500</v>
       </c>
       <c r="J27" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="K27" s="3">
         <v>96900</v>
@@ -1413,16 +1413,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="E29" s="3">
-        <v>-20300</v>
+        <v>-19600</v>
       </c>
       <c r="F29" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="G29" s="3">
-        <v>108400</v>
+        <v>104700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6609800</v>
+        <v>6386200</v>
       </c>
       <c r="E32" s="3">
-        <v>3754300</v>
+        <v>3627300</v>
       </c>
       <c r="F32" s="3">
-        <v>3955200</v>
+        <v>3821500</v>
       </c>
       <c r="G32" s="3">
-        <v>3582600</v>
+        <v>3461500</v>
       </c>
       <c r="H32" s="3">
-        <v>2960500</v>
+        <v>2860400</v>
       </c>
       <c r="I32" s="3">
-        <v>3616500</v>
+        <v>3494200</v>
       </c>
       <c r="J32" s="3">
-        <v>4047800</v>
+        <v>3910900</v>
       </c>
       <c r="K32" s="3">
         <v>4995300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3240500</v>
+        <v>-3130900</v>
       </c>
       <c r="E33" s="3">
-        <v>660500</v>
+        <v>638200</v>
       </c>
       <c r="F33" s="3">
-        <v>976700</v>
+        <v>943600</v>
       </c>
       <c r="G33" s="3">
-        <v>144500</v>
+        <v>139600</v>
       </c>
       <c r="H33" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="I33" s="3">
-        <v>1223900</v>
+        <v>1182500</v>
       </c>
       <c r="J33" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="K33" s="3">
         <v>96900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3240500</v>
+        <v>-3130900</v>
       </c>
       <c r="E35" s="3">
-        <v>660500</v>
+        <v>638200</v>
       </c>
       <c r="F35" s="3">
-        <v>976700</v>
+        <v>943600</v>
       </c>
       <c r="G35" s="3">
-        <v>144500</v>
+        <v>139600</v>
       </c>
       <c r="H35" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="I35" s="3">
-        <v>1223900</v>
+        <v>1182500</v>
       </c>
       <c r="J35" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="K35" s="3">
         <v>96900</v>
@@ -1737,26 +1737,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>111111000</v>
+      <c r="D41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>75037700</v>
+        <v>107353000</v>
       </c>
       <c r="F41" s="3">
-        <v>96882400</v>
+        <v>72499700</v>
       </c>
       <c r="G41" s="3">
-        <v>62928100</v>
+        <v>93605500</v>
       </c>
       <c r="H41" s="3">
-        <v>108554000</v>
+        <v>60799700</v>
       </c>
       <c r="I41" s="3">
-        <v>96028800</v>
+        <v>104882000</v>
       </c>
       <c r="J41" s="3">
-        <v>41824100</v>
+        <v>92780800</v>
       </c>
       <c r="K41" s="3">
         <v>172466000</v>
@@ -1773,26 +1773,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>143785000</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>122992000</v>
+        <v>138922000</v>
       </c>
       <c r="F42" s="3">
-        <v>118430000</v>
+        <v>118832000</v>
       </c>
       <c r="G42" s="3">
-        <v>100522000</v>
+        <v>114425000</v>
       </c>
       <c r="H42" s="3">
-        <v>168982000</v>
+        <v>97121500</v>
       </c>
       <c r="I42" s="3">
-        <v>183078000</v>
+        <v>163267000</v>
       </c>
       <c r="J42" s="3">
-        <v>207258000</v>
+        <v>176886000</v>
       </c>
       <c r="K42" s="3">
         <v>195721000</v>
@@ -1953,26 +1953,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>190800</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>199900</v>
+        <v>184400</v>
       </c>
       <c r="F47" s="3">
-        <v>195300</v>
+        <v>193100</v>
       </c>
       <c r="G47" s="3">
-        <v>204400</v>
+        <v>188700</v>
       </c>
       <c r="H47" s="3">
-        <v>374900</v>
+        <v>197500</v>
       </c>
       <c r="I47" s="3">
-        <v>1013900</v>
+        <v>362200</v>
       </c>
       <c r="J47" s="3">
-        <v>890900</v>
+        <v>979600</v>
       </c>
       <c r="K47" s="3">
         <v>1007200</v>
@@ -1989,26 +1989,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>7259000</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>3951800</v>
+        <v>7013500</v>
       </c>
       <c r="F48" s="3">
-        <v>1761400</v>
+        <v>3818200</v>
       </c>
       <c r="G48" s="3">
-        <v>1824600</v>
+        <v>1701800</v>
       </c>
       <c r="H48" s="3">
-        <v>3908900</v>
+        <v>1762900</v>
       </c>
       <c r="I48" s="3">
-        <v>5300000</v>
+        <v>3776700</v>
       </c>
       <c r="J48" s="3">
-        <v>2863400</v>
+        <v>5120700</v>
       </c>
       <c r="K48" s="3">
         <v>7871000</v>
@@ -2025,26 +2025,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3206600</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>6894300</v>
+        <v>3098200</v>
       </c>
       <c r="F49" s="3">
-        <v>7330100</v>
+        <v>6661100</v>
       </c>
       <c r="G49" s="3">
-        <v>7458800</v>
+        <v>7082200</v>
       </c>
       <c r="H49" s="3">
-        <v>6880700</v>
+        <v>7206600</v>
       </c>
       <c r="I49" s="3">
-        <v>7960200</v>
+        <v>6648000</v>
       </c>
       <c r="J49" s="3">
-        <v>3759900</v>
+        <v>7690900</v>
       </c>
       <c r="K49" s="3">
         <v>11508600</v>
@@ -2133,26 +2133,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>5451300</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>12274400</v>
+        <v>5266900</v>
       </c>
       <c r="F52" s="3">
-        <v>19105500</v>
+        <v>11859300</v>
       </c>
       <c r="G52" s="3">
-        <v>3441500</v>
+        <v>18459300</v>
       </c>
       <c r="H52" s="3">
-        <v>4768200</v>
+        <v>3325100</v>
       </c>
       <c r="I52" s="3">
-        <v>4072700</v>
+        <v>4606900</v>
       </c>
       <c r="J52" s="3">
-        <v>4343600</v>
+        <v>3934900</v>
       </c>
       <c r="K52" s="3">
         <v>5242900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>572017000</v>
+        <v>516000000</v>
       </c>
       <c r="E54" s="3">
-        <v>523281000</v>
+        <v>552669000</v>
       </c>
       <c r="F54" s="3">
-        <v>522080000</v>
+        <v>505582000</v>
       </c>
       <c r="G54" s="3">
-        <v>510912000</v>
+        <v>504422000</v>
       </c>
       <c r="H54" s="3">
-        <v>542460000</v>
+        <v>493631000</v>
       </c>
       <c r="I54" s="3">
-        <v>601473000</v>
+        <v>524112000</v>
       </c>
       <c r="J54" s="3">
-        <v>630396000</v>
+        <v>581129000</v>
       </c>
       <c r="K54" s="3">
         <v>658824000</v>
@@ -2345,26 +2345,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>814100</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>840100</v>
+        <v>786500</v>
       </c>
       <c r="F59" s="3">
-        <v>885200</v>
+        <v>811600</v>
       </c>
       <c r="G59" s="3">
-        <v>1069300</v>
+        <v>855300</v>
       </c>
       <c r="H59" s="3">
-        <v>1122300</v>
+        <v>1033100</v>
       </c>
       <c r="I59" s="3">
-        <v>864900</v>
+        <v>1084400</v>
       </c>
       <c r="J59" s="3">
-        <v>849100</v>
+        <v>835600</v>
       </c>
       <c r="K59" s="3">
         <v>860100</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52077500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>51121100</v>
+        <v>50316000</v>
       </c>
       <c r="F61" s="3">
-        <v>52378900</v>
+        <v>49392000</v>
       </c>
       <c r="G61" s="3">
-        <v>49726700</v>
+        <v>50607300</v>
       </c>
       <c r="H61" s="3">
-        <v>52796700</v>
+        <v>48044800</v>
       </c>
       <c r="I61" s="3">
-        <v>60030900</v>
+        <v>51011000</v>
       </c>
       <c r="J61" s="3">
-        <v>70191600</v>
+        <v>58000400</v>
       </c>
       <c r="K61" s="3">
         <v>93729400</v>
@@ -2453,26 +2453,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>7367400</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>3048600</v>
+        <v>7118200</v>
       </c>
       <c r="F62" s="3">
-        <v>3588300</v>
+        <v>2945500</v>
       </c>
       <c r="G62" s="3">
-        <v>3747500</v>
+        <v>3466900</v>
       </c>
       <c r="H62" s="3">
-        <v>3934900</v>
+        <v>3620700</v>
       </c>
       <c r="I62" s="3">
-        <v>3875100</v>
+        <v>3801800</v>
       </c>
       <c r="J62" s="3">
-        <v>6100500</v>
+        <v>3744000</v>
       </c>
       <c r="K62" s="3">
         <v>9391400</v>
@@ -2597,26 +2597,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>541017000</v>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>490307000</v>
+        <v>522718000</v>
       </c>
       <c r="F66" s="3">
-        <v>490221000</v>
+        <v>473723000</v>
       </c>
       <c r="G66" s="3">
-        <v>478329000</v>
+        <v>473640000</v>
       </c>
       <c r="H66" s="3">
-        <v>510228000</v>
+        <v>462150000</v>
       </c>
       <c r="I66" s="3">
-        <v>568592000</v>
+        <v>492970000</v>
       </c>
       <c r="J66" s="3">
-        <v>600896000</v>
+        <v>549361000</v>
       </c>
       <c r="K66" s="3">
         <v>627657000</v>
@@ -2793,26 +2793,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>14199600</v>
+      <c r="D72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>11341800</v>
+        <v>13719300</v>
       </c>
       <c r="F72" s="3">
-        <v>11358700</v>
+        <v>10958200</v>
       </c>
       <c r="G72" s="3">
-        <v>12679800</v>
+        <v>10974600</v>
       </c>
       <c r="H72" s="3">
-        <v>12553300</v>
+        <v>12250900</v>
       </c>
       <c r="I72" s="3">
-        <v>12937200</v>
+        <v>12128700</v>
       </c>
       <c r="J72" s="3">
-        <v>11812600</v>
+        <v>12499600</v>
       </c>
       <c r="K72" s="3">
         <v>29804500</v>
@@ -2937,26 +2937,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>30999400</v>
+      <c r="D76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E76" s="3">
-        <v>32974200</v>
+        <v>29950900</v>
       </c>
       <c r="F76" s="3">
-        <v>31858700</v>
+        <v>31858900</v>
       </c>
       <c r="G76" s="3">
-        <v>32583600</v>
+        <v>30781100</v>
       </c>
       <c r="H76" s="3">
-        <v>32232400</v>
+        <v>31481500</v>
       </c>
       <c r="I76" s="3">
-        <v>32880500</v>
+        <v>31142200</v>
       </c>
       <c r="J76" s="3">
-        <v>29500000</v>
+        <v>31768400</v>
       </c>
       <c r="K76" s="3">
         <v>31167000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3240500</v>
+        <v>-3130900</v>
       </c>
       <c r="E81" s="3">
-        <v>660500</v>
+        <v>638200</v>
       </c>
       <c r="F81" s="3">
-        <v>976700</v>
+        <v>943600</v>
       </c>
       <c r="G81" s="3">
-        <v>144500</v>
+        <v>139600</v>
       </c>
       <c r="H81" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="I81" s="3">
-        <v>1223900</v>
+        <v>1182500</v>
       </c>
       <c r="J81" s="3">
-        <v>300300</v>
+        <v>290200</v>
       </c>
       <c r="K81" s="3">
         <v>96900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5814900</v>
+        <v>5618200</v>
       </c>
       <c r="E83" s="3">
-        <v>4017300</v>
+        <v>3881500</v>
       </c>
       <c r="F83" s="3">
-        <v>1689100</v>
+        <v>1632000</v>
       </c>
       <c r="G83" s="3">
-        <v>2181400</v>
+        <v>2107600</v>
       </c>
       <c r="H83" s="3">
-        <v>1645100</v>
+        <v>1589500</v>
       </c>
       <c r="I83" s="3">
-        <v>742900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4305300</v>
+        <v>717800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>6630500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38023600</v>
+        <v>36737500</v>
       </c>
       <c r="E89" s="3">
-        <v>-12179600</v>
+        <v>-11767600</v>
       </c>
       <c r="F89" s="3">
-        <v>-453900</v>
+        <v>-438500</v>
       </c>
       <c r="G89" s="3">
-        <v>23030300</v>
+        <v>22251300</v>
       </c>
       <c r="H89" s="3">
-        <v>8187100</v>
+        <v>7910200</v>
       </c>
       <c r="I89" s="3">
-        <v>16491600</v>
+        <v>15933800</v>
       </c>
       <c r="J89" s="3">
-        <v>3377100</v>
+        <v>3262900</v>
       </c>
       <c r="K89" s="3">
         <v>-10204800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1013900</v>
+        <v>-979600</v>
       </c>
       <c r="E91" s="3">
-        <v>-789200</v>
+        <v>-762500</v>
       </c>
       <c r="F91" s="3">
-        <v>-665000</v>
+        <v>-642500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1025200</v>
+        <v>-990500</v>
       </c>
       <c r="H91" s="3">
-        <v>-408700</v>
+        <v>-394900</v>
       </c>
       <c r="I91" s="3">
-        <v>-284500</v>
+        <v>-274900</v>
       </c>
       <c r="J91" s="3">
-        <v>-829900</v>
+        <v>-801800</v>
       </c>
       <c r="K91" s="3">
         <v>-1827800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1378600</v>
+        <v>-1332000</v>
       </c>
       <c r="E94" s="3">
-        <v>-953000</v>
+        <v>-920700</v>
       </c>
       <c r="F94" s="3">
-        <v>-630000</v>
+        <v>-608700</v>
       </c>
       <c r="G94" s="3">
-        <v>-512600</v>
+        <v>-495300</v>
       </c>
       <c r="H94" s="3">
-        <v>-23700</v>
+        <v>-22900</v>
       </c>
       <c r="I94" s="3">
-        <v>9386200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-10056900</v>
+        <v>9068700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>6746600</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-282300</v>
+        <v>-272700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-282300</v>
+        <v>-272700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2493100</v>
+        <v>2408700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1329000</v>
+        <v>-1284000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1091800</v>
+        <v>-1054900</v>
       </c>
       <c r="G100" s="3">
-        <v>-308200</v>
+        <v>-297800</v>
       </c>
       <c r="H100" s="3">
-        <v>77900</v>
+        <v>75300</v>
       </c>
       <c r="I100" s="3">
-        <v>562300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-2026700</v>
+        <v>543300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>-185400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-251800</v>
+        <v>-243300</v>
       </c>
       <c r="E101" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="F101" s="3">
-        <v>120800</v>
+        <v>116700</v>
       </c>
       <c r="G101" s="3">
-        <v>-162600</v>
+        <v>-157100</v>
       </c>
       <c r="H101" s="3">
-        <v>22600</v>
+        <v>21800</v>
       </c>
       <c r="I101" s="3">
-        <v>220200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>238200</v>
+        <v>212700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>-373200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38886200</v>
+        <v>37570900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14396000</v>
+        <v>-13909100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2055000</v>
+        <v>-1985500</v>
       </c>
       <c r="G102" s="3">
-        <v>22046800</v>
+        <v>21301100</v>
       </c>
       <c r="H102" s="3">
-        <v>8263900</v>
+        <v>7984400</v>
       </c>
       <c r="I102" s="3">
-        <v>26660300</v>
+        <v>25758600</v>
       </c>
       <c r="J102" s="3">
-        <v>-8468300</v>
+        <v>-8181800</v>
       </c>
       <c r="K102" s="3">
         <v>-4016800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>CRZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8274600</v>
+        <v>7543500</v>
       </c>
       <c r="E8" s="3">
-        <v>9569500</v>
+        <v>7872500</v>
       </c>
       <c r="F8" s="3">
-        <v>9458200</v>
+        <v>9104500</v>
       </c>
       <c r="G8" s="3">
-        <v>9096000</v>
+        <v>8998600</v>
       </c>
       <c r="H8" s="3">
-        <v>9570600</v>
+        <v>8654000</v>
       </c>
       <c r="I8" s="3">
-        <v>12498600</v>
+        <v>9105500</v>
       </c>
       <c r="J8" s="3">
+        <v>11891200</v>
+      </c>
+      <c r="K8" s="3">
         <v>13324400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16592500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17985200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20357400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1024400</v>
+        <v>-907100</v>
       </c>
       <c r="E15" s="3">
-        <v>-1086500</v>
+        <v>-974600</v>
       </c>
       <c r="F15" s="3">
-        <v>-723300</v>
+        <v>-1033700</v>
       </c>
       <c r="G15" s="3">
-        <v>-1336400</v>
+        <v>-688100</v>
       </c>
       <c r="H15" s="3">
-        <v>-596700</v>
+        <v>-1271400</v>
       </c>
       <c r="I15" s="3">
-        <v>-529100</v>
+        <v>-567700</v>
       </c>
       <c r="J15" s="3">
+        <v>-503400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-457100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-456900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-869600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-556400</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4754200</v>
+        <v>3102300</v>
       </c>
       <c r="E17" s="3">
-        <v>4714900</v>
+        <v>4523200</v>
       </c>
       <c r="F17" s="3">
-        <v>4278500</v>
+        <v>4485800</v>
       </c>
       <c r="G17" s="3">
-        <v>5262500</v>
+        <v>4070600</v>
       </c>
       <c r="H17" s="3">
-        <v>6008700</v>
+        <v>5006800</v>
       </c>
       <c r="I17" s="3">
-        <v>7010200</v>
+        <v>5716800</v>
       </c>
       <c r="J17" s="3">
+        <v>6669500</v>
+      </c>
+      <c r="K17" s="3">
         <v>8728400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11312500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12685200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14096300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3520400</v>
+        <v>4441200</v>
       </c>
       <c r="E18" s="3">
-        <v>4854500</v>
+        <v>3349300</v>
       </c>
       <c r="F18" s="3">
-        <v>5179600</v>
+        <v>4618700</v>
       </c>
       <c r="G18" s="3">
-        <v>3833500</v>
+        <v>4927900</v>
       </c>
       <c r="H18" s="3">
-        <v>3561800</v>
+        <v>3647200</v>
       </c>
       <c r="I18" s="3">
-        <v>5488400</v>
+        <v>3388700</v>
       </c>
       <c r="J18" s="3">
+        <v>5221700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4596000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5280000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5300000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6261100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6386200</v>
+        <v>-4331200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3627300</v>
+        <v>-6075900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3821500</v>
+        <v>-3451000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3461500</v>
+        <v>-3635800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2860400</v>
+        <v>-3293300</v>
       </c>
       <c r="I20" s="3">
-        <v>-3494200</v>
+        <v>-2721400</v>
       </c>
       <c r="J20" s="3">
+        <v>-3324400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3910900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4995300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4356900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5666000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2837900</v>
+        <v>6721400</v>
       </c>
       <c r="E21" s="3">
-        <v>5167800</v>
+        <v>2686600</v>
       </c>
       <c r="F21" s="3">
-        <v>3015000</v>
+        <v>4907500</v>
       </c>
       <c r="G21" s="3">
-        <v>2511700</v>
+        <v>2864600</v>
       </c>
       <c r="H21" s="3">
-        <v>2315100</v>
+        <v>2384600</v>
       </c>
       <c r="I21" s="3">
-        <v>2722900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>2198800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2588900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>6888100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>5300600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2865800</v>
+        <v>110000</v>
       </c>
       <c r="E23" s="3">
-        <v>1227300</v>
+        <v>-2726600</v>
       </c>
       <c r="F23" s="3">
-        <v>1358200</v>
+        <v>1167600</v>
       </c>
       <c r="G23" s="3">
-        <v>372000</v>
+        <v>1292200</v>
       </c>
       <c r="H23" s="3">
-        <v>701500</v>
+        <v>353900</v>
       </c>
       <c r="I23" s="3">
-        <v>1994200</v>
+        <v>667400</v>
       </c>
       <c r="J23" s="3">
+        <v>1897300</v>
+      </c>
+      <c r="K23" s="3">
         <v>685100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>284700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>943200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>595100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288000</v>
+        <v>-257400</v>
       </c>
       <c r="E24" s="3">
-        <v>459300</v>
+        <v>274000</v>
       </c>
       <c r="F24" s="3">
-        <v>292400</v>
+        <v>437000</v>
       </c>
       <c r="G24" s="3">
-        <v>234500</v>
+        <v>278200</v>
       </c>
       <c r="H24" s="3">
-        <v>284700</v>
+        <v>223100</v>
       </c>
       <c r="I24" s="3">
-        <v>686200</v>
+        <v>270900</v>
       </c>
       <c r="J24" s="3">
+        <v>652800</v>
+      </c>
+      <c r="K24" s="3">
         <v>279300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>78900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>881700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-281700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3153800</v>
+        <v>367400</v>
       </c>
       <c r="E26" s="3">
-        <v>768000</v>
+        <v>-3000600</v>
       </c>
       <c r="F26" s="3">
-        <v>1065800</v>
+        <v>730700</v>
       </c>
       <c r="G26" s="3">
-        <v>137500</v>
+        <v>1014000</v>
       </c>
       <c r="H26" s="3">
-        <v>416700</v>
+        <v>130800</v>
       </c>
       <c r="I26" s="3">
-        <v>1308000</v>
+        <v>396500</v>
       </c>
       <c r="J26" s="3">
+        <v>1244400</v>
+      </c>
+      <c r="K26" s="3">
         <v>405800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>205700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>876800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3163600</v>
+        <v>302000</v>
       </c>
       <c r="E27" s="3">
-        <v>657800</v>
+        <v>-3059700</v>
       </c>
       <c r="F27" s="3">
-        <v>954500</v>
+        <v>625900</v>
       </c>
       <c r="G27" s="3">
-        <v>34900</v>
+        <v>908200</v>
       </c>
       <c r="H27" s="3">
-        <v>304400</v>
+        <v>33200</v>
       </c>
       <c r="I27" s="3">
-        <v>1182500</v>
+        <v>289600</v>
       </c>
       <c r="J27" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K27" s="3">
         <v>290200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-51600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>748900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,26 +1463,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>32700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-19600</v>
+        <v>31100</v>
       </c>
       <c r="F29" s="3">
-        <v>-10900</v>
+        <v>-18700</v>
       </c>
       <c r="G29" s="3">
-        <v>104700</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+        <v>-10400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>99600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1439,12 +1499,15 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6386200</v>
+        <v>4331200</v>
       </c>
       <c r="E32" s="3">
-        <v>3627300</v>
+        <v>6075900</v>
       </c>
       <c r="F32" s="3">
-        <v>3821500</v>
+        <v>3451000</v>
       </c>
       <c r="G32" s="3">
-        <v>3461500</v>
+        <v>3635800</v>
       </c>
       <c r="H32" s="3">
-        <v>2860400</v>
+        <v>3293300</v>
       </c>
       <c r="I32" s="3">
-        <v>3494200</v>
+        <v>2721400</v>
       </c>
       <c r="J32" s="3">
+        <v>3324400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3910900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4995300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4356900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5666000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3130900</v>
+        <v>302000</v>
       </c>
       <c r="E33" s="3">
-        <v>638200</v>
+        <v>-3028600</v>
       </c>
       <c r="F33" s="3">
-        <v>943600</v>
+        <v>607200</v>
       </c>
       <c r="G33" s="3">
-        <v>139600</v>
+        <v>897800</v>
       </c>
       <c r="H33" s="3">
-        <v>304400</v>
+        <v>132900</v>
       </c>
       <c r="I33" s="3">
-        <v>1182500</v>
+        <v>289600</v>
       </c>
       <c r="J33" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K33" s="3">
         <v>290200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>96900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-51600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>748900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3130900</v>
+        <v>302000</v>
       </c>
       <c r="E35" s="3">
-        <v>638200</v>
+        <v>-3028600</v>
       </c>
       <c r="F35" s="3">
-        <v>943600</v>
+        <v>607200</v>
       </c>
       <c r="G35" s="3">
-        <v>139600</v>
+        <v>897800</v>
       </c>
       <c r="H35" s="3">
-        <v>304400</v>
+        <v>132900</v>
       </c>
       <c r="I35" s="3">
-        <v>1182500</v>
+        <v>289600</v>
       </c>
       <c r="J35" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K35" s="3">
         <v>290200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>96900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-51600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>748900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>71034900</v>
       </c>
       <c r="E41" s="3">
-        <v>107353000</v>
+        <v>102137000</v>
       </c>
       <c r="F41" s="3">
-        <v>72499700</v>
+        <v>68976800</v>
       </c>
       <c r="G41" s="3">
-        <v>93605500</v>
+        <v>89057000</v>
       </c>
       <c r="H41" s="3">
-        <v>60799700</v>
+        <v>57845300</v>
       </c>
       <c r="I41" s="3">
-        <v>104882000</v>
+        <v>99785800</v>
       </c>
       <c r="J41" s="3">
+        <v>88272400</v>
+      </c>
+      <c r="K41" s="3">
         <v>92780800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>172466000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>183871000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117311000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>118000000</v>
       </c>
       <c r="E42" s="3">
-        <v>138922000</v>
+        <v>132171000</v>
       </c>
       <c r="F42" s="3">
-        <v>118832000</v>
+        <v>113057000</v>
       </c>
       <c r="G42" s="3">
-        <v>114425000</v>
+        <v>108864000</v>
       </c>
       <c r="H42" s="3">
-        <v>97121500</v>
+        <v>92402200</v>
       </c>
       <c r="I42" s="3">
-        <v>163267000</v>
+        <v>155333000</v>
       </c>
       <c r="J42" s="3">
+        <v>168290000</v>
+      </c>
+      <c r="K42" s="3">
         <v>176886000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>195721000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>226629000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>188959000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>181600</v>
       </c>
       <c r="E47" s="3">
-        <v>184400</v>
+        <v>175400</v>
       </c>
       <c r="F47" s="3">
-        <v>193100</v>
+        <v>183700</v>
       </c>
       <c r="G47" s="3">
-        <v>188700</v>
+        <v>179600</v>
       </c>
       <c r="H47" s="3">
-        <v>197500</v>
+        <v>187900</v>
       </c>
       <c r="I47" s="3">
-        <v>362200</v>
+        <v>344600</v>
       </c>
       <c r="J47" s="3">
+        <v>932000</v>
+      </c>
+      <c r="K47" s="3">
         <v>979600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1007200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>989300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>814600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>3032700</v>
       </c>
       <c r="E48" s="3">
-        <v>7013500</v>
+        <v>6672700</v>
       </c>
       <c r="F48" s="3">
-        <v>3818200</v>
+        <v>3632700</v>
       </c>
       <c r="G48" s="3">
-        <v>1701800</v>
+        <v>1619100</v>
       </c>
       <c r="H48" s="3">
-        <v>1762900</v>
+        <v>1677200</v>
       </c>
       <c r="I48" s="3">
-        <v>3776700</v>
+        <v>3593200</v>
       </c>
       <c r="J48" s="3">
+        <v>4871900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5120700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7871000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6852600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4478100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>1290100</v>
       </c>
       <c r="E49" s="3">
-        <v>3098200</v>
+        <v>2947600</v>
       </c>
       <c r="F49" s="3">
-        <v>6661100</v>
+        <v>6337400</v>
       </c>
       <c r="G49" s="3">
-        <v>7082200</v>
+        <v>6738000</v>
       </c>
       <c r="H49" s="3">
-        <v>7206600</v>
+        <v>6856400</v>
       </c>
       <c r="I49" s="3">
-        <v>6648000</v>
+        <v>6325000</v>
       </c>
       <c r="J49" s="3">
+        <v>7317200</v>
+      </c>
+      <c r="K49" s="3">
         <v>7690900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11508600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10050000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7132100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>4643600</v>
       </c>
       <c r="E52" s="3">
-        <v>5266900</v>
+        <v>5011000</v>
       </c>
       <c r="F52" s="3">
-        <v>11859300</v>
+        <v>11283000</v>
       </c>
       <c r="G52" s="3">
-        <v>18459300</v>
+        <v>17562300</v>
       </c>
       <c r="H52" s="3">
-        <v>3325100</v>
+        <v>3163500</v>
       </c>
       <c r="I52" s="3">
-        <v>4606900</v>
+        <v>4383100</v>
       </c>
       <c r="J52" s="3">
+        <v>3743700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3934900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5242900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4430400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7039300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>516000000</v>
+        <v>490972000</v>
       </c>
       <c r="E54" s="3">
-        <v>552669000</v>
+        <v>525814000</v>
       </c>
       <c r="F54" s="3">
-        <v>505582000</v>
+        <v>481015000</v>
       </c>
       <c r="G54" s="3">
-        <v>504422000</v>
+        <v>479910000</v>
       </c>
       <c r="H54" s="3">
-        <v>493631000</v>
+        <v>469645000</v>
       </c>
       <c r="I54" s="3">
-        <v>524112000</v>
+        <v>498645000</v>
       </c>
       <c r="J54" s="3">
+        <v>552890000</v>
+      </c>
+      <c r="K54" s="3">
         <v>581129000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>658824000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>698345000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>776883000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>852100</v>
       </c>
       <c r="E59" s="3">
-        <v>786500</v>
+        <v>748300</v>
       </c>
       <c r="F59" s="3">
-        <v>811600</v>
+        <v>772200</v>
       </c>
       <c r="G59" s="3">
-        <v>855300</v>
+        <v>813700</v>
       </c>
       <c r="H59" s="3">
-        <v>1033100</v>
+        <v>982900</v>
       </c>
       <c r="I59" s="3">
-        <v>1084400</v>
+        <v>1031700</v>
       </c>
       <c r="J59" s="3">
+        <v>795000</v>
+      </c>
+      <c r="K59" s="3">
         <v>835600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>860100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>837800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>798200</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>45506700</v>
       </c>
       <c r="E61" s="3">
-        <v>50316000</v>
+        <v>47871100</v>
       </c>
       <c r="F61" s="3">
-        <v>49392000</v>
+        <v>46992000</v>
       </c>
       <c r="G61" s="3">
-        <v>50607300</v>
+        <v>48148200</v>
       </c>
       <c r="H61" s="3">
-        <v>48044800</v>
+        <v>45710200</v>
       </c>
       <c r="I61" s="3">
-        <v>51011000</v>
+        <v>48532200</v>
       </c>
       <c r="J61" s="3">
+        <v>55182000</v>
+      </c>
+      <c r="K61" s="3">
         <v>58000400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>93729400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>102411000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>142204000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>3907700</v>
       </c>
       <c r="E62" s="3">
-        <v>7118200</v>
+        <v>6484800</v>
       </c>
       <c r="F62" s="3">
-        <v>2945500</v>
+        <v>2802300</v>
       </c>
       <c r="G62" s="3">
-        <v>3466900</v>
+        <v>3298400</v>
       </c>
       <c r="H62" s="3">
-        <v>3620700</v>
+        <v>3444800</v>
       </c>
       <c r="I62" s="3">
-        <v>3801800</v>
+        <v>3617100</v>
       </c>
       <c r="J62" s="3">
+        <v>3562100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3744000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9391400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9101300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5042700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
+      <c r="D66" s="3">
+        <v>461027000</v>
       </c>
       <c r="E66" s="3">
-        <v>522718000</v>
+        <v>497318000</v>
       </c>
       <c r="F66" s="3">
-        <v>473723000</v>
+        <v>450704000</v>
       </c>
       <c r="G66" s="3">
-        <v>473640000</v>
+        <v>450625000</v>
       </c>
       <c r="H66" s="3">
-        <v>462150000</v>
+        <v>439693000</v>
       </c>
       <c r="I66" s="3">
-        <v>492970000</v>
+        <v>469016000</v>
       </c>
       <c r="J66" s="3">
+        <v>522666000</v>
+      </c>
+      <c r="K66" s="3">
         <v>549361000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>627657000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>670497000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>748981000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>15547700</v>
       </c>
       <c r="E72" s="3">
-        <v>13719300</v>
+        <v>13052600</v>
       </c>
       <c r="F72" s="3">
-        <v>10958200</v>
+        <v>10425700</v>
       </c>
       <c r="G72" s="3">
-        <v>10974600</v>
+        <v>10441300</v>
       </c>
       <c r="H72" s="3">
-        <v>12250900</v>
+        <v>11655600</v>
       </c>
       <c r="I72" s="3">
-        <v>12128700</v>
+        <v>11539400</v>
       </c>
       <c r="J72" s="3">
+        <v>11892300</v>
+      </c>
+      <c r="K72" s="3">
         <v>12499600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29804500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21423100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23060700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
+      <c r="D76" s="3">
+        <v>29945500</v>
       </c>
       <c r="E76" s="3">
-        <v>29950900</v>
+        <v>28495500</v>
       </c>
       <c r="F76" s="3">
-        <v>31858900</v>
+        <v>30310800</v>
       </c>
       <c r="G76" s="3">
-        <v>30781100</v>
+        <v>29285400</v>
       </c>
       <c r="H76" s="3">
-        <v>31481500</v>
+        <v>29951700</v>
       </c>
       <c r="I76" s="3">
-        <v>31142200</v>
+        <v>29628900</v>
       </c>
       <c r="J76" s="3">
+        <v>30224700</v>
+      </c>
+      <c r="K76" s="3">
         <v>31768400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31167000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27847500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27901500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3130900</v>
+        <v>302000</v>
       </c>
       <c r="E81" s="3">
-        <v>638200</v>
+        <v>-3028600</v>
       </c>
       <c r="F81" s="3">
-        <v>943600</v>
+        <v>607200</v>
       </c>
       <c r="G81" s="3">
-        <v>139600</v>
+        <v>897800</v>
       </c>
       <c r="H81" s="3">
-        <v>304400</v>
+        <v>132900</v>
       </c>
       <c r="I81" s="3">
-        <v>1182500</v>
+        <v>289600</v>
       </c>
       <c r="J81" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K81" s="3">
         <v>290200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>96900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-51600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>748900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5618200</v>
+        <v>6528400</v>
       </c>
       <c r="E83" s="3">
-        <v>3881500</v>
+        <v>5345200</v>
       </c>
       <c r="F83" s="3">
-        <v>1632000</v>
+        <v>3692800</v>
       </c>
       <c r="G83" s="3">
-        <v>2107600</v>
+        <v>1552700</v>
       </c>
       <c r="H83" s="3">
-        <v>1589500</v>
+        <v>2005200</v>
       </c>
       <c r="I83" s="3">
-        <v>717800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>1512200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>682900</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>6630500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>4702300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36737500</v>
+        <v>-25180500</v>
       </c>
       <c r="E89" s="3">
-        <v>-11767600</v>
+        <v>34952300</v>
       </c>
       <c r="F89" s="3">
-        <v>-438500</v>
+        <v>-11195800</v>
       </c>
       <c r="G89" s="3">
-        <v>22251300</v>
+        <v>-417200</v>
       </c>
       <c r="H89" s="3">
-        <v>7910200</v>
+        <v>21170000</v>
       </c>
       <c r="I89" s="3">
-        <v>15933800</v>
+        <v>7525800</v>
       </c>
       <c r="J89" s="3">
+        <v>15159600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3262900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10204800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5913800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17478000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-979600</v>
+        <v>-1009900</v>
       </c>
       <c r="E91" s="3">
-        <v>-762500</v>
+        <v>-932000</v>
       </c>
       <c r="F91" s="3">
-        <v>-642500</v>
+        <v>-725500</v>
       </c>
       <c r="G91" s="3">
-        <v>-990500</v>
+        <v>-611300</v>
       </c>
       <c r="H91" s="3">
-        <v>-394900</v>
+        <v>-942400</v>
       </c>
       <c r="I91" s="3">
-        <v>-274900</v>
+        <v>-375700</v>
       </c>
       <c r="J91" s="3">
+        <v>-261600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-801800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1827800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-501800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-347400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1332000</v>
+        <v>-834500</v>
       </c>
       <c r="E94" s="3">
-        <v>-920700</v>
+        <v>-1267300</v>
       </c>
       <c r="F94" s="3">
-        <v>-608700</v>
+        <v>-876000</v>
       </c>
       <c r="G94" s="3">
-        <v>-495300</v>
+        <v>-579100</v>
       </c>
       <c r="H94" s="3">
-        <v>-22900</v>
+        <v>-471200</v>
       </c>
       <c r="I94" s="3">
-        <v>9068700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>8628100</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>6746600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5446100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>20317500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3534,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-272700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-259500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-272700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-259500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2408700</v>
+        <v>-1256900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1284000</v>
+        <v>2291700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1054900</v>
+        <v>-1221600</v>
       </c>
       <c r="G100" s="3">
-        <v>-297800</v>
+        <v>-1003600</v>
       </c>
       <c r="H100" s="3">
-        <v>75300</v>
+        <v>-283300</v>
       </c>
       <c r="I100" s="3">
-        <v>543300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>516900</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-185400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-687300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5239900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-243300</v>
+        <v>185800</v>
       </c>
       <c r="E101" s="3">
-        <v>63300</v>
+        <v>-231500</v>
       </c>
       <c r="F101" s="3">
-        <v>116700</v>
+        <v>60200</v>
       </c>
       <c r="G101" s="3">
-        <v>-157100</v>
+        <v>111100</v>
       </c>
       <c r="H101" s="3">
-        <v>21800</v>
+        <v>-149500</v>
       </c>
       <c r="I101" s="3">
-        <v>212700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>202400</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-373200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-43900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>78600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37570900</v>
+        <v>-27086100</v>
       </c>
       <c r="E102" s="3">
-        <v>-13909100</v>
+        <v>35745300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1985500</v>
+        <v>-13233200</v>
       </c>
       <c r="G102" s="3">
-        <v>21301100</v>
+        <v>-1889000</v>
       </c>
       <c r="H102" s="3">
-        <v>7984400</v>
+        <v>20266000</v>
       </c>
       <c r="I102" s="3">
-        <v>25758600</v>
+        <v>7596400</v>
       </c>
       <c r="J102" s="3">
+        <v>24506900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8181800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4016800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10628600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2321800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7543500</v>
+        <v>7249100</v>
       </c>
       <c r="E8" s="3">
-        <v>7872500</v>
+        <v>7565300</v>
       </c>
       <c r="F8" s="3">
-        <v>9104500</v>
+        <v>8749200</v>
       </c>
       <c r="G8" s="3">
-        <v>8998600</v>
+        <v>8647500</v>
       </c>
       <c r="H8" s="3">
-        <v>8654000</v>
+        <v>8316300</v>
       </c>
       <c r="I8" s="3">
-        <v>9105500</v>
+        <v>8750200</v>
       </c>
       <c r="J8" s="3">
-        <v>11891200</v>
+        <v>11427200</v>
       </c>
       <c r="K8" s="3">
         <v>13324400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-907100</v>
+        <v>-871700</v>
       </c>
       <c r="E15" s="3">
-        <v>-974600</v>
+        <v>-936600</v>
       </c>
       <c r="F15" s="3">
-        <v>-1033700</v>
+        <v>-993400</v>
       </c>
       <c r="G15" s="3">
-        <v>-688100</v>
+        <v>-661300</v>
       </c>
       <c r="H15" s="3">
-        <v>-1271400</v>
+        <v>-1221800</v>
       </c>
       <c r="I15" s="3">
-        <v>-567700</v>
+        <v>-545600</v>
       </c>
       <c r="J15" s="3">
-        <v>-503400</v>
+        <v>-483700</v>
       </c>
       <c r="K15" s="3">
         <v>-457100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3102300</v>
+        <v>2981200</v>
       </c>
       <c r="E17" s="3">
-        <v>4523200</v>
+        <v>4346700</v>
       </c>
       <c r="F17" s="3">
-        <v>4485800</v>
+        <v>4310800</v>
       </c>
       <c r="G17" s="3">
-        <v>4070600</v>
+        <v>3911800</v>
       </c>
       <c r="H17" s="3">
-        <v>5006800</v>
+        <v>4811500</v>
       </c>
       <c r="I17" s="3">
-        <v>5716800</v>
+        <v>5493700</v>
       </c>
       <c r="J17" s="3">
-        <v>6669500</v>
+        <v>6409300</v>
       </c>
       <c r="K17" s="3">
         <v>8728400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4441200</v>
+        <v>4267900</v>
       </c>
       <c r="E18" s="3">
-        <v>3349300</v>
+        <v>3218600</v>
       </c>
       <c r="F18" s="3">
-        <v>4618700</v>
+        <v>4438400</v>
       </c>
       <c r="G18" s="3">
-        <v>4927900</v>
+        <v>4735700</v>
       </c>
       <c r="H18" s="3">
-        <v>3647200</v>
+        <v>3504900</v>
       </c>
       <c r="I18" s="3">
-        <v>3388700</v>
+        <v>3256500</v>
       </c>
       <c r="J18" s="3">
-        <v>5221700</v>
+        <v>5017900</v>
       </c>
       <c r="K18" s="3">
         <v>4596000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4331200</v>
+        <v>-4162200</v>
       </c>
       <c r="E20" s="3">
-        <v>-6075900</v>
+        <v>-5838800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3451000</v>
+        <v>-3316400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3635800</v>
+        <v>-3493900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3293300</v>
+        <v>-3164800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2721400</v>
+        <v>-2615200</v>
       </c>
       <c r="J20" s="3">
-        <v>-3324400</v>
+        <v>-3194700</v>
       </c>
       <c r="K20" s="3">
         <v>-3910900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6721400</v>
+        <v>6373700</v>
       </c>
       <c r="E21" s="3">
-        <v>2686600</v>
+        <v>2511800</v>
       </c>
       <c r="F21" s="3">
-        <v>4907500</v>
+        <v>4667600</v>
       </c>
       <c r="G21" s="3">
-        <v>2864600</v>
+        <v>2732500</v>
       </c>
       <c r="H21" s="3">
-        <v>2384600</v>
+        <v>2265400</v>
       </c>
       <c r="I21" s="3">
-        <v>2198800</v>
+        <v>2093200</v>
       </c>
       <c r="J21" s="3">
-        <v>2588900</v>
+        <v>2478900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>110000</v>
+        <v>105700</v>
       </c>
       <c r="E23" s="3">
-        <v>-2726600</v>
+        <v>-2620200</v>
       </c>
       <c r="F23" s="3">
-        <v>1167600</v>
+        <v>1122100</v>
       </c>
       <c r="G23" s="3">
-        <v>1292200</v>
+        <v>1241800</v>
       </c>
       <c r="H23" s="3">
-        <v>353900</v>
+        <v>340100</v>
       </c>
       <c r="I23" s="3">
-        <v>667400</v>
+        <v>641300</v>
       </c>
       <c r="J23" s="3">
-        <v>1897300</v>
+        <v>1823200</v>
       </c>
       <c r="K23" s="3">
         <v>685100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-257400</v>
+        <v>-247400</v>
       </c>
       <c r="E24" s="3">
-        <v>274000</v>
+        <v>263300</v>
       </c>
       <c r="F24" s="3">
-        <v>437000</v>
+        <v>419900</v>
       </c>
       <c r="G24" s="3">
-        <v>278200</v>
+        <v>267300</v>
       </c>
       <c r="H24" s="3">
-        <v>223100</v>
+        <v>214400</v>
       </c>
       <c r="I24" s="3">
-        <v>270900</v>
+        <v>260300</v>
       </c>
       <c r="J24" s="3">
-        <v>652800</v>
+        <v>627400</v>
       </c>
       <c r="K24" s="3">
         <v>279300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>367400</v>
+        <v>353100</v>
       </c>
       <c r="E26" s="3">
-        <v>-3000600</v>
+        <v>-2883500</v>
       </c>
       <c r="F26" s="3">
-        <v>730700</v>
+        <v>702200</v>
       </c>
       <c r="G26" s="3">
-        <v>1014000</v>
+        <v>974500</v>
       </c>
       <c r="H26" s="3">
-        <v>130800</v>
+        <v>125700</v>
       </c>
       <c r="I26" s="3">
-        <v>396500</v>
+        <v>381000</v>
       </c>
       <c r="J26" s="3">
-        <v>1244400</v>
+        <v>1195900</v>
       </c>
       <c r="K26" s="3">
         <v>405800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>302000</v>
+        <v>290200</v>
       </c>
       <c r="E27" s="3">
-        <v>-3059700</v>
+        <v>-2940300</v>
       </c>
       <c r="F27" s="3">
-        <v>625900</v>
+        <v>601400</v>
       </c>
       <c r="G27" s="3">
-        <v>908200</v>
+        <v>872700</v>
       </c>
       <c r="H27" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="I27" s="3">
-        <v>289600</v>
+        <v>278300</v>
       </c>
       <c r="J27" s="3">
-        <v>1125100</v>
+        <v>1081200</v>
       </c>
       <c r="K27" s="3">
         <v>290200</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="F29" s="3">
-        <v>-18700</v>
+        <v>-18000</v>
       </c>
       <c r="G29" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="H29" s="3">
-        <v>99600</v>
+        <v>95800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4331200</v>
+        <v>4162200</v>
       </c>
       <c r="E32" s="3">
-        <v>6075900</v>
+        <v>5838800</v>
       </c>
       <c r="F32" s="3">
-        <v>3451000</v>
+        <v>3316400</v>
       </c>
       <c r="G32" s="3">
-        <v>3635800</v>
+        <v>3493900</v>
       </c>
       <c r="H32" s="3">
-        <v>3293300</v>
+        <v>3164800</v>
       </c>
       <c r="I32" s="3">
-        <v>2721400</v>
+        <v>2615200</v>
       </c>
       <c r="J32" s="3">
-        <v>3324400</v>
+        <v>3194700</v>
       </c>
       <c r="K32" s="3">
         <v>3910900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>302000</v>
+        <v>290200</v>
       </c>
       <c r="E33" s="3">
-        <v>-3028600</v>
+        <v>-2910400</v>
       </c>
       <c r="F33" s="3">
-        <v>607200</v>
+        <v>583500</v>
       </c>
       <c r="G33" s="3">
-        <v>897800</v>
+        <v>862800</v>
       </c>
       <c r="H33" s="3">
-        <v>132900</v>
+        <v>127700</v>
       </c>
       <c r="I33" s="3">
-        <v>289600</v>
+        <v>278300</v>
       </c>
       <c r="J33" s="3">
-        <v>1125100</v>
+        <v>1081200</v>
       </c>
       <c r="K33" s="3">
         <v>290200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>302000</v>
+        <v>290200</v>
       </c>
       <c r="E35" s="3">
-        <v>-3028600</v>
+        <v>-2910400</v>
       </c>
       <c r="F35" s="3">
-        <v>607200</v>
+        <v>583500</v>
       </c>
       <c r="G35" s="3">
-        <v>897800</v>
+        <v>862800</v>
       </c>
       <c r="H35" s="3">
-        <v>132900</v>
+        <v>127700</v>
       </c>
       <c r="I35" s="3">
-        <v>289600</v>
+        <v>278300</v>
       </c>
       <c r="J35" s="3">
-        <v>1125100</v>
+        <v>1081200</v>
       </c>
       <c r="K35" s="3">
         <v>290200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71034900</v>
+        <v>68263100</v>
       </c>
       <c r="E41" s="3">
-        <v>102137000</v>
+        <v>98151100</v>
       </c>
       <c r="F41" s="3">
-        <v>68976800</v>
+        <v>66285200</v>
       </c>
       <c r="G41" s="3">
-        <v>89057000</v>
+        <v>85581900</v>
       </c>
       <c r="H41" s="3">
-        <v>57845300</v>
+        <v>55588100</v>
       </c>
       <c r="I41" s="3">
-        <v>99785800</v>
+        <v>95892000</v>
       </c>
       <c r="J41" s="3">
-        <v>88272400</v>
+        <v>84827900</v>
       </c>
       <c r="K41" s="3">
         <v>92780800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>118000000</v>
+        <v>113395000</v>
       </c>
       <c r="E42" s="3">
-        <v>132171000</v>
+        <v>127014000</v>
       </c>
       <c r="F42" s="3">
-        <v>113057000</v>
+        <v>108646000</v>
       </c>
       <c r="G42" s="3">
-        <v>108864000</v>
+        <v>104616000</v>
       </c>
       <c r="H42" s="3">
-        <v>92402200</v>
+        <v>88796500</v>
       </c>
       <c r="I42" s="3">
-        <v>155333000</v>
+        <v>149272000</v>
       </c>
       <c r="J42" s="3">
-        <v>168290000</v>
+        <v>161723000</v>
       </c>
       <c r="K42" s="3">
         <v>176886000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>181600</v>
+        <v>174500</v>
       </c>
       <c r="E47" s="3">
-        <v>175400</v>
+        <v>168600</v>
       </c>
       <c r="F47" s="3">
-        <v>183700</v>
+        <v>176500</v>
       </c>
       <c r="G47" s="3">
-        <v>179600</v>
+        <v>172600</v>
       </c>
       <c r="H47" s="3">
-        <v>187900</v>
+        <v>180500</v>
       </c>
       <c r="I47" s="3">
-        <v>344600</v>
+        <v>331100</v>
       </c>
       <c r="J47" s="3">
-        <v>932000</v>
+        <v>895700</v>
       </c>
       <c r="K47" s="3">
         <v>979600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3032700</v>
+        <v>2914400</v>
       </c>
       <c r="E48" s="3">
-        <v>6672700</v>
+        <v>6412300</v>
       </c>
       <c r="F48" s="3">
-        <v>3632700</v>
+        <v>3490900</v>
       </c>
       <c r="G48" s="3">
-        <v>1619100</v>
+        <v>1555900</v>
       </c>
       <c r="H48" s="3">
-        <v>1677200</v>
+        <v>1611800</v>
       </c>
       <c r="I48" s="3">
-        <v>3593200</v>
+        <v>3453000</v>
       </c>
       <c r="J48" s="3">
-        <v>4871900</v>
+        <v>4681800</v>
       </c>
       <c r="K48" s="3">
         <v>5120700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1290100</v>
+        <v>1239800</v>
       </c>
       <c r="E49" s="3">
-        <v>2947600</v>
+        <v>2832600</v>
       </c>
       <c r="F49" s="3">
-        <v>6337400</v>
+        <v>6090100</v>
       </c>
       <c r="G49" s="3">
-        <v>6738000</v>
+        <v>6475100</v>
       </c>
       <c r="H49" s="3">
-        <v>6856400</v>
+        <v>6588800</v>
       </c>
       <c r="I49" s="3">
-        <v>6325000</v>
+        <v>6078200</v>
       </c>
       <c r="J49" s="3">
-        <v>7317200</v>
+        <v>7031700</v>
       </c>
       <c r="K49" s="3">
         <v>7690900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4643600</v>
+        <v>4462400</v>
       </c>
       <c r="E52" s="3">
-        <v>5011000</v>
+        <v>4815400</v>
       </c>
       <c r="F52" s="3">
-        <v>11283000</v>
+        <v>10842700</v>
       </c>
       <c r="G52" s="3">
-        <v>17562300</v>
+        <v>16877000</v>
       </c>
       <c r="H52" s="3">
-        <v>3163500</v>
+        <v>3040100</v>
       </c>
       <c r="I52" s="3">
-        <v>4383100</v>
+        <v>4212000</v>
       </c>
       <c r="J52" s="3">
-        <v>3743700</v>
+        <v>3597600</v>
       </c>
       <c r="K52" s="3">
         <v>3934900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>490972000</v>
+        <v>471814000</v>
       </c>
       <c r="E54" s="3">
-        <v>525814000</v>
+        <v>505296000</v>
       </c>
       <c r="F54" s="3">
-        <v>481015000</v>
+        <v>462245000</v>
       </c>
       <c r="G54" s="3">
-        <v>479910000</v>
+        <v>461184000</v>
       </c>
       <c r="H54" s="3">
-        <v>469645000</v>
+        <v>451319000</v>
       </c>
       <c r="I54" s="3">
-        <v>498645000</v>
+        <v>479187000</v>
       </c>
       <c r="J54" s="3">
-        <v>552890000</v>
+        <v>531316000</v>
       </c>
       <c r="K54" s="3">
         <v>581129000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>852100</v>
+        <v>818900</v>
       </c>
       <c r="E59" s="3">
-        <v>748300</v>
+        <v>719100</v>
       </c>
       <c r="F59" s="3">
-        <v>772200</v>
+        <v>742100</v>
       </c>
       <c r="G59" s="3">
-        <v>813700</v>
+        <v>782000</v>
       </c>
       <c r="H59" s="3">
-        <v>982900</v>
+        <v>944500</v>
       </c>
       <c r="I59" s="3">
-        <v>1031700</v>
+        <v>991400</v>
       </c>
       <c r="J59" s="3">
-        <v>795000</v>
+        <v>764000</v>
       </c>
       <c r="K59" s="3">
         <v>835600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45506700</v>
+        <v>43731000</v>
       </c>
       <c r="E61" s="3">
-        <v>47871100</v>
+        <v>46003100</v>
       </c>
       <c r="F61" s="3">
-        <v>46992000</v>
+        <v>45158300</v>
       </c>
       <c r="G61" s="3">
-        <v>48148200</v>
+        <v>46269400</v>
       </c>
       <c r="H61" s="3">
-        <v>45710200</v>
+        <v>43926500</v>
       </c>
       <c r="I61" s="3">
-        <v>48532200</v>
+        <v>46638400</v>
       </c>
       <c r="J61" s="3">
-        <v>55182000</v>
+        <v>53028800</v>
       </c>
       <c r="K61" s="3">
         <v>58000400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3907700</v>
+        <v>3755200</v>
       </c>
       <c r="E62" s="3">
-        <v>6484800</v>
+        <v>6231800</v>
       </c>
       <c r="F62" s="3">
-        <v>2802300</v>
+        <v>2693000</v>
       </c>
       <c r="G62" s="3">
-        <v>3298400</v>
+        <v>3169700</v>
       </c>
       <c r="H62" s="3">
-        <v>3444800</v>
+        <v>3310400</v>
       </c>
       <c r="I62" s="3">
-        <v>3617100</v>
+        <v>3475900</v>
       </c>
       <c r="J62" s="3">
-        <v>3562100</v>
+        <v>3423100</v>
       </c>
       <c r="K62" s="3">
         <v>3744000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>461027000</v>
+        <v>443037000</v>
       </c>
       <c r="E66" s="3">
-        <v>497318000</v>
+        <v>477912000</v>
       </c>
       <c r="F66" s="3">
-        <v>450704000</v>
+        <v>433117000</v>
       </c>
       <c r="G66" s="3">
-        <v>450625000</v>
+        <v>433041000</v>
       </c>
       <c r="H66" s="3">
-        <v>439693000</v>
+        <v>422536000</v>
       </c>
       <c r="I66" s="3">
-        <v>469016000</v>
+        <v>450714000</v>
       </c>
       <c r="J66" s="3">
-        <v>522666000</v>
+        <v>502271000</v>
       </c>
       <c r="K66" s="3">
         <v>549361000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15547700</v>
+        <v>14941100</v>
       </c>
       <c r="E72" s="3">
-        <v>13052600</v>
+        <v>12543300</v>
       </c>
       <c r="F72" s="3">
-        <v>10425700</v>
+        <v>10018900</v>
       </c>
       <c r="G72" s="3">
-        <v>10441300</v>
+        <v>10033800</v>
       </c>
       <c r="H72" s="3">
-        <v>11655600</v>
+        <v>11200800</v>
       </c>
       <c r="I72" s="3">
-        <v>11539400</v>
+        <v>11089100</v>
       </c>
       <c r="J72" s="3">
-        <v>11892300</v>
+        <v>11428200</v>
       </c>
       <c r="K72" s="3">
         <v>12499600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29945500</v>
+        <v>28777000</v>
       </c>
       <c r="E76" s="3">
-        <v>28495500</v>
+        <v>27383600</v>
       </c>
       <c r="F76" s="3">
-        <v>30310800</v>
+        <v>29128100</v>
       </c>
       <c r="G76" s="3">
-        <v>29285400</v>
+        <v>28142600</v>
       </c>
       <c r="H76" s="3">
-        <v>29951700</v>
+        <v>28783000</v>
       </c>
       <c r="I76" s="3">
-        <v>29628900</v>
+        <v>28472800</v>
       </c>
       <c r="J76" s="3">
-        <v>30224700</v>
+        <v>29045300</v>
       </c>
       <c r="K76" s="3">
         <v>31768400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>302000</v>
+        <v>290200</v>
       </c>
       <c r="E81" s="3">
-        <v>-3028600</v>
+        <v>-2910400</v>
       </c>
       <c r="F81" s="3">
-        <v>607200</v>
+        <v>583500</v>
       </c>
       <c r="G81" s="3">
-        <v>897800</v>
+        <v>862800</v>
       </c>
       <c r="H81" s="3">
-        <v>132900</v>
+        <v>127700</v>
       </c>
       <c r="I81" s="3">
-        <v>289600</v>
+        <v>278300</v>
       </c>
       <c r="J81" s="3">
-        <v>1125100</v>
+        <v>1081200</v>
       </c>
       <c r="K81" s="3">
         <v>290200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6528400</v>
+        <v>6273600</v>
       </c>
       <c r="E83" s="3">
-        <v>5345200</v>
+        <v>5136600</v>
       </c>
       <c r="F83" s="3">
-        <v>3692800</v>
+        <v>3548700</v>
       </c>
       <c r="G83" s="3">
-        <v>1552700</v>
+        <v>1492100</v>
       </c>
       <c r="H83" s="3">
-        <v>2005200</v>
+        <v>1927000</v>
       </c>
       <c r="I83" s="3">
-        <v>1512200</v>
+        <v>1453200</v>
       </c>
       <c r="J83" s="3">
-        <v>682900</v>
+        <v>656300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-25180500</v>
+        <v>-24197900</v>
       </c>
       <c r="E89" s="3">
-        <v>34952300</v>
+        <v>33588400</v>
       </c>
       <c r="F89" s="3">
-        <v>-11195800</v>
+        <v>-10759000</v>
       </c>
       <c r="G89" s="3">
-        <v>-417200</v>
+        <v>-401000</v>
       </c>
       <c r="H89" s="3">
-        <v>21170000</v>
+        <v>20344000</v>
       </c>
       <c r="I89" s="3">
-        <v>7525800</v>
+        <v>7232100</v>
       </c>
       <c r="J89" s="3">
-        <v>15159600</v>
+        <v>14568000</v>
       </c>
       <c r="K89" s="3">
         <v>3262900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1009900</v>
+        <v>-970500</v>
       </c>
       <c r="E91" s="3">
-        <v>-932000</v>
+        <v>-895700</v>
       </c>
       <c r="F91" s="3">
-        <v>-725500</v>
+        <v>-697200</v>
       </c>
       <c r="G91" s="3">
-        <v>-611300</v>
+        <v>-587500</v>
       </c>
       <c r="H91" s="3">
-        <v>-942400</v>
+        <v>-905600</v>
       </c>
       <c r="I91" s="3">
-        <v>-375700</v>
+        <v>-361100</v>
       </c>
       <c r="J91" s="3">
-        <v>-261600</v>
+        <v>-251300</v>
       </c>
       <c r="K91" s="3">
         <v>-801800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-834500</v>
+        <v>-801900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1267300</v>
+        <v>-1217800</v>
       </c>
       <c r="F94" s="3">
-        <v>-876000</v>
+        <v>-841800</v>
       </c>
       <c r="G94" s="3">
-        <v>-579100</v>
+        <v>-556500</v>
       </c>
       <c r="H94" s="3">
-        <v>-471200</v>
+        <v>-452800</v>
       </c>
       <c r="I94" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="J94" s="3">
-        <v>8628100</v>
+        <v>8291400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-259500</v>
+        <v>-249400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-259500</v>
+        <v>-249400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1256900</v>
+        <v>-1207900</v>
       </c>
       <c r="E100" s="3">
-        <v>2291700</v>
+        <v>2202300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1221600</v>
+        <v>-1173900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1003600</v>
+        <v>-964500</v>
       </c>
       <c r="H100" s="3">
-        <v>-283300</v>
+        <v>-272300</v>
       </c>
       <c r="I100" s="3">
-        <v>71600</v>
+        <v>68800</v>
       </c>
       <c r="J100" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>185800</v>
+        <v>178500</v>
       </c>
       <c r="E101" s="3">
-        <v>-231500</v>
+        <v>-222400</v>
       </c>
       <c r="F101" s="3">
-        <v>60200</v>
+        <v>57800</v>
       </c>
       <c r="G101" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="H101" s="3">
-        <v>-149500</v>
+        <v>-143600</v>
       </c>
       <c r="I101" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="J101" s="3">
-        <v>202400</v>
+        <v>194500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27086100</v>
+        <v>-26029100</v>
       </c>
       <c r="E102" s="3">
-        <v>35745300</v>
+        <v>34350500</v>
       </c>
       <c r="F102" s="3">
-        <v>-13233200</v>
+        <v>-12716900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1889000</v>
+        <v>-1815300</v>
       </c>
       <c r="H102" s="3">
-        <v>20266000</v>
+        <v>19475200</v>
       </c>
       <c r="I102" s="3">
-        <v>7596400</v>
+        <v>7300000</v>
       </c>
       <c r="J102" s="3">
-        <v>24506900</v>
+        <v>23550600</v>
       </c>
       <c r="K102" s="3">
         <v>-8181800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7249100</v>
+        <v>7419200</v>
       </c>
       <c r="E8" s="3">
-        <v>7565300</v>
+        <v>7742800</v>
       </c>
       <c r="F8" s="3">
-        <v>8749200</v>
+        <v>8954500</v>
       </c>
       <c r="G8" s="3">
-        <v>8647500</v>
+        <v>8850300</v>
       </c>
       <c r="H8" s="3">
-        <v>8316300</v>
+        <v>8511400</v>
       </c>
       <c r="I8" s="3">
-        <v>8750200</v>
+        <v>8955500</v>
       </c>
       <c r="J8" s="3">
-        <v>11427200</v>
+        <v>11695300</v>
       </c>
       <c r="K8" s="3">
         <v>13324400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-871700</v>
+        <v>-892200</v>
       </c>
       <c r="E15" s="3">
-        <v>-936600</v>
+        <v>-958500</v>
       </c>
       <c r="F15" s="3">
-        <v>-993400</v>
+        <v>-1016700</v>
       </c>
       <c r="G15" s="3">
-        <v>-661300</v>
+        <v>-676800</v>
       </c>
       <c r="H15" s="3">
-        <v>-1221800</v>
+        <v>-1250500</v>
       </c>
       <c r="I15" s="3">
-        <v>-545600</v>
+        <v>-558400</v>
       </c>
       <c r="J15" s="3">
-        <v>-483700</v>
+        <v>-495100</v>
       </c>
       <c r="K15" s="3">
         <v>-457100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2981200</v>
+        <v>3051200</v>
       </c>
       <c r="E17" s="3">
-        <v>4346700</v>
+        <v>4448600</v>
       </c>
       <c r="F17" s="3">
-        <v>4310800</v>
+        <v>4411900</v>
       </c>
       <c r="G17" s="3">
-        <v>3911800</v>
+        <v>4003600</v>
       </c>
       <c r="H17" s="3">
-        <v>4811500</v>
+        <v>4924300</v>
       </c>
       <c r="I17" s="3">
-        <v>5493700</v>
+        <v>5622600</v>
       </c>
       <c r="J17" s="3">
-        <v>6409300</v>
+        <v>6559700</v>
       </c>
       <c r="K17" s="3">
         <v>8728400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4267900</v>
+        <v>4368000</v>
       </c>
       <c r="E18" s="3">
-        <v>3218600</v>
+        <v>3294100</v>
       </c>
       <c r="F18" s="3">
-        <v>4438400</v>
+        <v>4542600</v>
       </c>
       <c r="G18" s="3">
-        <v>4735700</v>
+        <v>4846800</v>
       </c>
       <c r="H18" s="3">
-        <v>3504900</v>
+        <v>3587100</v>
       </c>
       <c r="I18" s="3">
-        <v>3256500</v>
+        <v>3332900</v>
       </c>
       <c r="J18" s="3">
-        <v>5017900</v>
+        <v>5135600</v>
       </c>
       <c r="K18" s="3">
         <v>4596000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4162200</v>
+        <v>-4259800</v>
       </c>
       <c r="E20" s="3">
-        <v>-5838800</v>
+        <v>-5975800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3316400</v>
+        <v>-3394200</v>
       </c>
       <c r="G20" s="3">
-        <v>-3493900</v>
+        <v>-3575900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3164800</v>
+        <v>-3239000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2615200</v>
+        <v>-2676500</v>
       </c>
       <c r="J20" s="3">
-        <v>-3194700</v>
+        <v>-3269600</v>
       </c>
       <c r="K20" s="3">
         <v>-3910900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6373700</v>
+        <v>6405100</v>
       </c>
       <c r="E21" s="3">
-        <v>2511800</v>
+        <v>2474000</v>
       </c>
       <c r="F21" s="3">
-        <v>4667600</v>
+        <v>4710300</v>
       </c>
       <c r="G21" s="3">
-        <v>2732500</v>
+        <v>2768500</v>
       </c>
       <c r="H21" s="3">
-        <v>2265400</v>
+        <v>2282200</v>
       </c>
       <c r="I21" s="3">
-        <v>2093200</v>
+        <v>2115000</v>
       </c>
       <c r="J21" s="3">
-        <v>2478900</v>
+        <v>2524700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>105700</v>
+        <v>108200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2620200</v>
+        <v>-2681600</v>
       </c>
       <c r="F23" s="3">
-        <v>1122100</v>
+        <v>1148400</v>
       </c>
       <c r="G23" s="3">
-        <v>1241800</v>
+        <v>1270900</v>
       </c>
       <c r="H23" s="3">
-        <v>340100</v>
+        <v>348100</v>
       </c>
       <c r="I23" s="3">
-        <v>641300</v>
+        <v>656400</v>
       </c>
       <c r="J23" s="3">
-        <v>1823200</v>
+        <v>1866000</v>
       </c>
       <c r="K23" s="3">
         <v>685100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-247400</v>
+        <v>-253200</v>
       </c>
       <c r="E24" s="3">
-        <v>263300</v>
+        <v>269500</v>
       </c>
       <c r="F24" s="3">
-        <v>419900</v>
+        <v>429800</v>
       </c>
       <c r="G24" s="3">
-        <v>267300</v>
+        <v>273600</v>
       </c>
       <c r="H24" s="3">
-        <v>214400</v>
+        <v>219500</v>
       </c>
       <c r="I24" s="3">
-        <v>260300</v>
+        <v>266400</v>
       </c>
       <c r="J24" s="3">
-        <v>627400</v>
+        <v>642100</v>
       </c>
       <c r="K24" s="3">
         <v>279300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>353100</v>
+        <v>361400</v>
       </c>
       <c r="E26" s="3">
-        <v>-2883500</v>
+        <v>-2951100</v>
       </c>
       <c r="F26" s="3">
-        <v>702200</v>
+        <v>718600</v>
       </c>
       <c r="G26" s="3">
-        <v>974500</v>
+        <v>997300</v>
       </c>
       <c r="H26" s="3">
-        <v>125700</v>
+        <v>128600</v>
       </c>
       <c r="I26" s="3">
-        <v>381000</v>
+        <v>389900</v>
       </c>
       <c r="J26" s="3">
-        <v>1195900</v>
+        <v>1223900</v>
       </c>
       <c r="K26" s="3">
         <v>405800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>290200</v>
+        <v>297100</v>
       </c>
       <c r="E27" s="3">
-        <v>-2940300</v>
+        <v>-3009300</v>
       </c>
       <c r="F27" s="3">
-        <v>601400</v>
+        <v>615500</v>
       </c>
       <c r="G27" s="3">
-        <v>872700</v>
+        <v>893200</v>
       </c>
       <c r="H27" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="I27" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="J27" s="3">
-        <v>1081200</v>
+        <v>1106500</v>
       </c>
       <c r="K27" s="3">
         <v>290200</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="F29" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="G29" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="H29" s="3">
-        <v>95800</v>
+        <v>98000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4162200</v>
+        <v>4259800</v>
       </c>
       <c r="E32" s="3">
-        <v>5838800</v>
+        <v>5975800</v>
       </c>
       <c r="F32" s="3">
-        <v>3316400</v>
+        <v>3394200</v>
       </c>
       <c r="G32" s="3">
-        <v>3493900</v>
+        <v>3575900</v>
       </c>
       <c r="H32" s="3">
-        <v>3164800</v>
+        <v>3239000</v>
       </c>
       <c r="I32" s="3">
-        <v>2615200</v>
+        <v>2676500</v>
       </c>
       <c r="J32" s="3">
-        <v>3194700</v>
+        <v>3269600</v>
       </c>
       <c r="K32" s="3">
         <v>3910900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>290200</v>
+        <v>297100</v>
       </c>
       <c r="E33" s="3">
-        <v>-2910400</v>
+        <v>-2978700</v>
       </c>
       <c r="F33" s="3">
-        <v>583500</v>
+        <v>597200</v>
       </c>
       <c r="G33" s="3">
-        <v>862800</v>
+        <v>883000</v>
       </c>
       <c r="H33" s="3">
-        <v>127700</v>
+        <v>130700</v>
       </c>
       <c r="I33" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="J33" s="3">
-        <v>1081200</v>
+        <v>1106500</v>
       </c>
       <c r="K33" s="3">
         <v>290200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>290200</v>
+        <v>297100</v>
       </c>
       <c r="E35" s="3">
-        <v>-2910400</v>
+        <v>-2978700</v>
       </c>
       <c r="F35" s="3">
-        <v>583500</v>
+        <v>597200</v>
       </c>
       <c r="G35" s="3">
-        <v>862800</v>
+        <v>883000</v>
       </c>
       <c r="H35" s="3">
-        <v>127700</v>
+        <v>130700</v>
       </c>
       <c r="I35" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="J35" s="3">
-        <v>1081200</v>
+        <v>1106500</v>
       </c>
       <c r="K35" s="3">
         <v>290200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68263100</v>
+        <v>69864600</v>
       </c>
       <c r="E41" s="3">
-        <v>98151100</v>
+        <v>100454000</v>
       </c>
       <c r="F41" s="3">
-        <v>66285200</v>
+        <v>67840300</v>
       </c>
       <c r="G41" s="3">
-        <v>85581900</v>
+        <v>87589700</v>
       </c>
       <c r="H41" s="3">
-        <v>55588100</v>
+        <v>56892200</v>
       </c>
       <c r="I41" s="3">
-        <v>95892000</v>
+        <v>98141800</v>
       </c>
       <c r="J41" s="3">
-        <v>84827900</v>
+        <v>86818000</v>
       </c>
       <c r="K41" s="3">
         <v>92780800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113395000</v>
+        <v>116056000</v>
       </c>
       <c r="E42" s="3">
-        <v>127014000</v>
+        <v>129994000</v>
       </c>
       <c r="F42" s="3">
-        <v>108646000</v>
+        <v>111195000</v>
       </c>
       <c r="G42" s="3">
-        <v>104616000</v>
+        <v>107071000</v>
       </c>
       <c r="H42" s="3">
-        <v>88796500</v>
+        <v>90879800</v>
       </c>
       <c r="I42" s="3">
-        <v>149272000</v>
+        <v>152774000</v>
       </c>
       <c r="J42" s="3">
-        <v>161723000</v>
+        <v>165518000</v>
       </c>
       <c r="K42" s="3">
         <v>176886000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>174500</v>
+        <v>178600</v>
       </c>
       <c r="E47" s="3">
-        <v>168600</v>
+        <v>172500</v>
       </c>
       <c r="F47" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="G47" s="3">
-        <v>172600</v>
+        <v>176600</v>
       </c>
       <c r="H47" s="3">
-        <v>180500</v>
+        <v>184800</v>
       </c>
       <c r="I47" s="3">
-        <v>331100</v>
+        <v>338900</v>
       </c>
       <c r="J47" s="3">
-        <v>895700</v>
+        <v>916700</v>
       </c>
       <c r="K47" s="3">
         <v>979600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2914400</v>
+        <v>2982800</v>
       </c>
       <c r="E48" s="3">
-        <v>6412300</v>
+        <v>6562700</v>
       </c>
       <c r="F48" s="3">
-        <v>3490900</v>
+        <v>3572800</v>
       </c>
       <c r="G48" s="3">
-        <v>1555900</v>
+        <v>1592400</v>
       </c>
       <c r="H48" s="3">
-        <v>1611800</v>
+        <v>1649600</v>
       </c>
       <c r="I48" s="3">
-        <v>3453000</v>
+        <v>3534000</v>
       </c>
       <c r="J48" s="3">
-        <v>4681800</v>
+        <v>4791600</v>
       </c>
       <c r="K48" s="3">
         <v>5120700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1239800</v>
+        <v>1268900</v>
       </c>
       <c r="E49" s="3">
-        <v>2832600</v>
+        <v>2899100</v>
       </c>
       <c r="F49" s="3">
-        <v>6090100</v>
+        <v>6233000</v>
       </c>
       <c r="G49" s="3">
-        <v>6475100</v>
+        <v>6627000</v>
       </c>
       <c r="H49" s="3">
-        <v>6588800</v>
+        <v>6743400</v>
       </c>
       <c r="I49" s="3">
-        <v>6078200</v>
+        <v>6220800</v>
       </c>
       <c r="J49" s="3">
-        <v>7031700</v>
+        <v>7196600</v>
       </c>
       <c r="K49" s="3">
         <v>7690900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4462400</v>
+        <v>4567100</v>
       </c>
       <c r="E52" s="3">
-        <v>4815400</v>
+        <v>4928400</v>
       </c>
       <c r="F52" s="3">
-        <v>10842700</v>
+        <v>11097100</v>
       </c>
       <c r="G52" s="3">
-        <v>16877000</v>
+        <v>17273000</v>
       </c>
       <c r="H52" s="3">
-        <v>3040100</v>
+        <v>3111400</v>
       </c>
       <c r="I52" s="3">
-        <v>4212000</v>
+        <v>4310800</v>
       </c>
       <c r="J52" s="3">
-        <v>3597600</v>
+        <v>3682000</v>
       </c>
       <c r="K52" s="3">
         <v>3934900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>471814000</v>
+        <v>482883000</v>
       </c>
       <c r="E54" s="3">
-        <v>505296000</v>
+        <v>517151000</v>
       </c>
       <c r="F54" s="3">
-        <v>462245000</v>
+        <v>473090000</v>
       </c>
       <c r="G54" s="3">
-        <v>461184000</v>
+        <v>472004000</v>
       </c>
       <c r="H54" s="3">
-        <v>451319000</v>
+        <v>461907000</v>
       </c>
       <c r="I54" s="3">
-        <v>479187000</v>
+        <v>490429000</v>
       </c>
       <c r="J54" s="3">
-        <v>531316000</v>
+        <v>543781000</v>
       </c>
       <c r="K54" s="3">
         <v>581129000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>818900</v>
+        <v>838100</v>
       </c>
       <c r="E59" s="3">
-        <v>719100</v>
+        <v>736000</v>
       </c>
       <c r="F59" s="3">
-        <v>742100</v>
+        <v>759500</v>
       </c>
       <c r="G59" s="3">
-        <v>782000</v>
+        <v>800300</v>
       </c>
       <c r="H59" s="3">
-        <v>944500</v>
+        <v>966700</v>
       </c>
       <c r="I59" s="3">
-        <v>991400</v>
+        <v>1014700</v>
       </c>
       <c r="J59" s="3">
-        <v>764000</v>
+        <v>781900</v>
       </c>
       <c r="K59" s="3">
         <v>835600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43731000</v>
+        <v>44757000</v>
       </c>
       <c r="E61" s="3">
-        <v>46003100</v>
+        <v>47082400</v>
       </c>
       <c r="F61" s="3">
-        <v>45158300</v>
+        <v>46217700</v>
       </c>
       <c r="G61" s="3">
-        <v>46269400</v>
+        <v>47354900</v>
       </c>
       <c r="H61" s="3">
-        <v>43926500</v>
+        <v>44957100</v>
       </c>
       <c r="I61" s="3">
-        <v>46638400</v>
+        <v>47732600</v>
       </c>
       <c r="J61" s="3">
-        <v>53028800</v>
+        <v>54272900</v>
       </c>
       <c r="K61" s="3">
         <v>58000400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3755200</v>
+        <v>3843300</v>
       </c>
       <c r="E62" s="3">
-        <v>6231800</v>
+        <v>6378000</v>
       </c>
       <c r="F62" s="3">
-        <v>2693000</v>
+        <v>2756200</v>
       </c>
       <c r="G62" s="3">
-        <v>3169700</v>
+        <v>3244100</v>
       </c>
       <c r="H62" s="3">
-        <v>3310400</v>
+        <v>3388000</v>
       </c>
       <c r="I62" s="3">
-        <v>3475900</v>
+        <v>3557500</v>
       </c>
       <c r="J62" s="3">
-        <v>3423100</v>
+        <v>3503400</v>
       </c>
       <c r="K62" s="3">
         <v>3744000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>443037000</v>
+        <v>453431000</v>
       </c>
       <c r="E66" s="3">
-        <v>477912000</v>
+        <v>489125000</v>
       </c>
       <c r="F66" s="3">
-        <v>433117000</v>
+        <v>443278000</v>
       </c>
       <c r="G66" s="3">
-        <v>433041000</v>
+        <v>443201000</v>
       </c>
       <c r="H66" s="3">
-        <v>422536000</v>
+        <v>432449000</v>
       </c>
       <c r="I66" s="3">
-        <v>450714000</v>
+        <v>461288000</v>
       </c>
       <c r="J66" s="3">
-        <v>502271000</v>
+        <v>514055000</v>
       </c>
       <c r="K66" s="3">
         <v>549361000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14941100</v>
+        <v>15291600</v>
       </c>
       <c r="E72" s="3">
-        <v>12543300</v>
+        <v>12837600</v>
       </c>
       <c r="F72" s="3">
-        <v>10018900</v>
+        <v>10253900</v>
       </c>
       <c r="G72" s="3">
-        <v>10033800</v>
+        <v>10269200</v>
       </c>
       <c r="H72" s="3">
-        <v>11200800</v>
+        <v>11463600</v>
       </c>
       <c r="I72" s="3">
-        <v>11089100</v>
+        <v>11349300</v>
       </c>
       <c r="J72" s="3">
-        <v>11428200</v>
+        <v>11696300</v>
       </c>
       <c r="K72" s="3">
         <v>12499600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28777000</v>
+        <v>29452100</v>
       </c>
       <c r="E76" s="3">
-        <v>27383600</v>
+        <v>28026100</v>
       </c>
       <c r="F76" s="3">
-        <v>29128100</v>
+        <v>29811400</v>
       </c>
       <c r="G76" s="3">
-        <v>28142600</v>
+        <v>28802900</v>
       </c>
       <c r="H76" s="3">
-        <v>28783000</v>
+        <v>29458200</v>
       </c>
       <c r="I76" s="3">
-        <v>28472800</v>
+        <v>29140800</v>
       </c>
       <c r="J76" s="3">
-        <v>29045300</v>
+        <v>29726700</v>
       </c>
       <c r="K76" s="3">
         <v>31768400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>290200</v>
+        <v>297100</v>
       </c>
       <c r="E81" s="3">
-        <v>-2910400</v>
+        <v>-2978700</v>
       </c>
       <c r="F81" s="3">
-        <v>583500</v>
+        <v>597200</v>
       </c>
       <c r="G81" s="3">
-        <v>862800</v>
+        <v>883000</v>
       </c>
       <c r="H81" s="3">
-        <v>127700</v>
+        <v>130700</v>
       </c>
       <c r="I81" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="J81" s="3">
-        <v>1081200</v>
+        <v>1106500</v>
       </c>
       <c r="K81" s="3">
         <v>290200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6273600</v>
+        <v>6420800</v>
       </c>
       <c r="E83" s="3">
-        <v>5136600</v>
+        <v>5257100</v>
       </c>
       <c r="F83" s="3">
-        <v>3548700</v>
+        <v>3632000</v>
       </c>
       <c r="G83" s="3">
-        <v>1492100</v>
+        <v>1527100</v>
       </c>
       <c r="H83" s="3">
-        <v>1927000</v>
+        <v>1972200</v>
       </c>
       <c r="I83" s="3">
-        <v>1453200</v>
+        <v>1487300</v>
       </c>
       <c r="J83" s="3">
-        <v>656300</v>
+        <v>671700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-24197900</v>
+        <v>-24765600</v>
       </c>
       <c r="E89" s="3">
-        <v>33588400</v>
+        <v>34376500</v>
       </c>
       <c r="F89" s="3">
-        <v>-10759000</v>
+        <v>-11011400</v>
       </c>
       <c r="G89" s="3">
-        <v>-401000</v>
+        <v>-410400</v>
       </c>
       <c r="H89" s="3">
-        <v>20344000</v>
+        <v>20821300</v>
       </c>
       <c r="I89" s="3">
-        <v>7232100</v>
+        <v>7401800</v>
       </c>
       <c r="J89" s="3">
-        <v>14568000</v>
+        <v>14909800</v>
       </c>
       <c r="K89" s="3">
         <v>3262900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-970500</v>
+        <v>-993200</v>
       </c>
       <c r="E91" s="3">
-        <v>-895700</v>
+        <v>-916700</v>
       </c>
       <c r="F91" s="3">
-        <v>-697200</v>
+        <v>-713500</v>
       </c>
       <c r="G91" s="3">
-        <v>-587500</v>
+        <v>-601300</v>
       </c>
       <c r="H91" s="3">
-        <v>-905600</v>
+        <v>-926900</v>
       </c>
       <c r="I91" s="3">
-        <v>-361100</v>
+        <v>-369500</v>
       </c>
       <c r="J91" s="3">
-        <v>-251300</v>
+        <v>-257200</v>
       </c>
       <c r="K91" s="3">
         <v>-801800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-801900</v>
+        <v>-820700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1217800</v>
+        <v>-1246400</v>
       </c>
       <c r="F94" s="3">
-        <v>-841800</v>
+        <v>-861600</v>
       </c>
       <c r="G94" s="3">
-        <v>-556500</v>
+        <v>-569600</v>
       </c>
       <c r="H94" s="3">
-        <v>-452800</v>
+        <v>-463400</v>
       </c>
       <c r="I94" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="J94" s="3">
-        <v>8291400</v>
+        <v>8485900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-249400</v>
+        <v>-255200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-249400</v>
+        <v>-255200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1207900</v>
+        <v>-1236200</v>
       </c>
       <c r="E100" s="3">
-        <v>2202300</v>
+        <v>2253900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1173900</v>
+        <v>-1201500</v>
       </c>
       <c r="G100" s="3">
-        <v>-964500</v>
+        <v>-987100</v>
       </c>
       <c r="H100" s="3">
-        <v>-272300</v>
+        <v>-278700</v>
       </c>
       <c r="I100" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="J100" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>178500</v>
+        <v>182700</v>
       </c>
       <c r="E101" s="3">
-        <v>-222400</v>
+        <v>-227600</v>
       </c>
       <c r="F101" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="G101" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="H101" s="3">
-        <v>-143600</v>
+        <v>-147000</v>
       </c>
       <c r="I101" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="J101" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26029100</v>
+        <v>-26639800</v>
       </c>
       <c r="E102" s="3">
-        <v>34350500</v>
+        <v>35156400</v>
       </c>
       <c r="F102" s="3">
-        <v>-12716900</v>
+        <v>-13015200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1815300</v>
+        <v>-1857900</v>
       </c>
       <c r="H102" s="3">
-        <v>19475200</v>
+        <v>19932100</v>
       </c>
       <c r="I102" s="3">
-        <v>7300000</v>
+        <v>7471200</v>
       </c>
       <c r="J102" s="3">
-        <v>23550600</v>
+        <v>24103100</v>
       </c>
       <c r="K102" s="3">
         <v>-8181800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CRZBY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7419200</v>
+        <v>7689500</v>
       </c>
       <c r="E8" s="3">
-        <v>7742800</v>
+        <v>8024900</v>
       </c>
       <c r="F8" s="3">
-        <v>8954500</v>
+        <v>9280800</v>
       </c>
       <c r="G8" s="3">
-        <v>8850300</v>
+        <v>9172900</v>
       </c>
       <c r="H8" s="3">
-        <v>8511400</v>
+        <v>8821600</v>
       </c>
       <c r="I8" s="3">
-        <v>8955500</v>
+        <v>9281800</v>
       </c>
       <c r="J8" s="3">
-        <v>11695300</v>
+        <v>12121500</v>
       </c>
       <c r="K8" s="3">
         <v>13324400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-892200</v>
+        <v>-924700</v>
       </c>
       <c r="E15" s="3">
-        <v>-958500</v>
+        <v>-993500</v>
       </c>
       <c r="F15" s="3">
-        <v>-1016700</v>
+        <v>-1053800</v>
       </c>
       <c r="G15" s="3">
-        <v>-676800</v>
+        <v>-701500</v>
       </c>
       <c r="H15" s="3">
-        <v>-1250500</v>
+        <v>-1296100</v>
       </c>
       <c r="I15" s="3">
-        <v>-558400</v>
+        <v>-578700</v>
       </c>
       <c r="J15" s="3">
-        <v>-495100</v>
+        <v>-513100</v>
       </c>
       <c r="K15" s="3">
         <v>-457100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3051200</v>
+        <v>3162400</v>
       </c>
       <c r="E17" s="3">
-        <v>4448600</v>
+        <v>4610800</v>
       </c>
       <c r="F17" s="3">
-        <v>4411900</v>
+        <v>4572700</v>
       </c>
       <c r="G17" s="3">
-        <v>4003600</v>
+        <v>4149500</v>
       </c>
       <c r="H17" s="3">
-        <v>4924300</v>
+        <v>5103800</v>
       </c>
       <c r="I17" s="3">
-        <v>5622600</v>
+        <v>5827500</v>
       </c>
       <c r="J17" s="3">
-        <v>6559700</v>
+        <v>6798700</v>
       </c>
       <c r="K17" s="3">
         <v>8728400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4368000</v>
+        <v>4527200</v>
       </c>
       <c r="E18" s="3">
-        <v>3294100</v>
+        <v>3414200</v>
       </c>
       <c r="F18" s="3">
-        <v>4542600</v>
+        <v>4708100</v>
       </c>
       <c r="G18" s="3">
-        <v>4846800</v>
+        <v>5023400</v>
       </c>
       <c r="H18" s="3">
-        <v>3587100</v>
+        <v>3717800</v>
       </c>
       <c r="I18" s="3">
-        <v>3332900</v>
+        <v>3454400</v>
       </c>
       <c r="J18" s="3">
-        <v>5135600</v>
+        <v>5322800</v>
       </c>
       <c r="K18" s="3">
         <v>4596000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4259800</v>
+        <v>-4415000</v>
       </c>
       <c r="E20" s="3">
-        <v>-5975800</v>
+        <v>-6193500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3394200</v>
+        <v>-3517900</v>
       </c>
       <c r="G20" s="3">
-        <v>-3575900</v>
+        <v>-3706200</v>
       </c>
       <c r="H20" s="3">
-        <v>-3239000</v>
+        <v>-3357000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2676500</v>
+        <v>-2774100</v>
       </c>
       <c r="J20" s="3">
-        <v>-3269600</v>
+        <v>-3388800</v>
       </c>
       <c r="K20" s="3">
         <v>-3910900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6405100</v>
+        <v>5542300</v>
       </c>
       <c r="E21" s="3">
-        <v>2474000</v>
+        <v>972200</v>
       </c>
       <c r="F21" s="3">
-        <v>4710300</v>
+        <v>2767600</v>
       </c>
       <c r="G21" s="3">
-        <v>2768500</v>
+        <v>3354300</v>
       </c>
       <c r="H21" s="3">
-        <v>2282200</v>
+        <v>1897000</v>
       </c>
       <c r="I21" s="3">
-        <v>2115000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2524700</v>
+        <v>1374100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>108200</v>
+        <v>112100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2681600</v>
+        <v>-2779400</v>
       </c>
       <c r="F23" s="3">
-        <v>1148400</v>
+        <v>1190300</v>
       </c>
       <c r="G23" s="3">
-        <v>1270900</v>
+        <v>1317200</v>
       </c>
       <c r="H23" s="3">
-        <v>348100</v>
+        <v>360800</v>
       </c>
       <c r="I23" s="3">
-        <v>656400</v>
+        <v>680300</v>
       </c>
       <c r="J23" s="3">
-        <v>1866000</v>
+        <v>1934000</v>
       </c>
       <c r="K23" s="3">
         <v>685100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-253200</v>
+        <v>-262400</v>
       </c>
       <c r="E24" s="3">
-        <v>269500</v>
+        <v>279300</v>
       </c>
       <c r="F24" s="3">
-        <v>429800</v>
+        <v>445400</v>
       </c>
       <c r="G24" s="3">
-        <v>273600</v>
+        <v>283500</v>
       </c>
       <c r="H24" s="3">
-        <v>219500</v>
+        <v>227500</v>
       </c>
       <c r="I24" s="3">
-        <v>266400</v>
+        <v>276100</v>
       </c>
       <c r="J24" s="3">
-        <v>642100</v>
+        <v>665500</v>
       </c>
       <c r="K24" s="3">
         <v>279300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>361400</v>
+        <v>374500</v>
       </c>
       <c r="E26" s="3">
-        <v>-2951100</v>
+        <v>-3058700</v>
       </c>
       <c r="F26" s="3">
-        <v>718600</v>
+        <v>744800</v>
       </c>
       <c r="G26" s="3">
-        <v>997300</v>
+        <v>1033700</v>
       </c>
       <c r="H26" s="3">
-        <v>128600</v>
+        <v>133300</v>
       </c>
       <c r="I26" s="3">
-        <v>389900</v>
+        <v>404200</v>
       </c>
       <c r="J26" s="3">
-        <v>1223900</v>
+        <v>1268500</v>
       </c>
       <c r="K26" s="3">
         <v>405800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>297100</v>
+        <v>307900</v>
       </c>
       <c r="E27" s="3">
-        <v>-3009300</v>
+        <v>-3119000</v>
       </c>
       <c r="F27" s="3">
-        <v>615500</v>
+        <v>638000</v>
       </c>
       <c r="G27" s="3">
-        <v>893200</v>
+        <v>925800</v>
       </c>
       <c r="H27" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="I27" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="J27" s="3">
-        <v>1106500</v>
+        <v>1146900</v>
       </c>
       <c r="K27" s="3">
         <v>290200</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="F29" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="G29" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="H29" s="3">
-        <v>98000</v>
+        <v>101600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4259800</v>
+        <v>4415000</v>
       </c>
       <c r="E32" s="3">
-        <v>5975800</v>
+        <v>6193500</v>
       </c>
       <c r="F32" s="3">
-        <v>3394200</v>
+        <v>3517900</v>
       </c>
       <c r="G32" s="3">
-        <v>3575900</v>
+        <v>3706200</v>
       </c>
       <c r="H32" s="3">
-        <v>3239000</v>
+        <v>3357000</v>
       </c>
       <c r="I32" s="3">
-        <v>2676500</v>
+        <v>2774100</v>
       </c>
       <c r="J32" s="3">
-        <v>3269600</v>
+        <v>3388800</v>
       </c>
       <c r="K32" s="3">
         <v>3910900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>297100</v>
+        <v>307900</v>
       </c>
       <c r="E33" s="3">
-        <v>-2978700</v>
+        <v>-3087200</v>
       </c>
       <c r="F33" s="3">
-        <v>597200</v>
+        <v>618900</v>
       </c>
       <c r="G33" s="3">
-        <v>883000</v>
+        <v>915200</v>
       </c>
       <c r="H33" s="3">
-        <v>130700</v>
+        <v>135400</v>
       </c>
       <c r="I33" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="J33" s="3">
-        <v>1106500</v>
+        <v>1146900</v>
       </c>
       <c r="K33" s="3">
         <v>290200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>297100</v>
+        <v>307900</v>
       </c>
       <c r="E35" s="3">
-        <v>-2978700</v>
+        <v>-3087200</v>
       </c>
       <c r="F35" s="3">
-        <v>597200</v>
+        <v>618900</v>
       </c>
       <c r="G35" s="3">
-        <v>883000</v>
+        <v>915200</v>
       </c>
       <c r="H35" s="3">
-        <v>130700</v>
+        <v>135400</v>
       </c>
       <c r="I35" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="J35" s="3">
-        <v>1106500</v>
+        <v>1146900</v>
       </c>
       <c r="K35" s="3">
         <v>290200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69864600</v>
+        <v>72410600</v>
       </c>
       <c r="E41" s="3">
-        <v>100454000</v>
+        <v>104115000</v>
       </c>
       <c r="F41" s="3">
-        <v>67840300</v>
+        <v>70312600</v>
       </c>
       <c r="G41" s="3">
-        <v>87589700</v>
+        <v>90781700</v>
       </c>
       <c r="H41" s="3">
-        <v>56892200</v>
+        <v>58965500</v>
       </c>
       <c r="I41" s="3">
-        <v>98141800</v>
+        <v>101718000</v>
       </c>
       <c r="J41" s="3">
-        <v>86818000</v>
+        <v>89981800</v>
       </c>
       <c r="K41" s="3">
         <v>92780800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>116056000</v>
+        <v>120285000</v>
       </c>
       <c r="E42" s="3">
-        <v>129994000</v>
+        <v>134731000</v>
       </c>
       <c r="F42" s="3">
-        <v>111195000</v>
+        <v>115247000</v>
       </c>
       <c r="G42" s="3">
-        <v>107071000</v>
+        <v>110973000</v>
       </c>
       <c r="H42" s="3">
-        <v>90879800</v>
+        <v>94191600</v>
       </c>
       <c r="I42" s="3">
-        <v>152774000</v>
+        <v>158341000</v>
       </c>
       <c r="J42" s="3">
-        <v>165518000</v>
+        <v>171549000</v>
       </c>
       <c r="K42" s="3">
         <v>176886000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>178600</v>
+        <v>185200</v>
       </c>
       <c r="E47" s="3">
-        <v>172500</v>
+        <v>178800</v>
       </c>
       <c r="F47" s="3">
-        <v>180700</v>
+        <v>187300</v>
       </c>
       <c r="G47" s="3">
-        <v>176600</v>
+        <v>183000</v>
       </c>
       <c r="H47" s="3">
-        <v>184800</v>
+        <v>191500</v>
       </c>
       <c r="I47" s="3">
-        <v>338900</v>
+        <v>351300</v>
       </c>
       <c r="J47" s="3">
-        <v>916700</v>
+        <v>950100</v>
       </c>
       <c r="K47" s="3">
         <v>979600</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2982800</v>
+        <v>3091500</v>
       </c>
       <c r="E48" s="3">
-        <v>6562700</v>
+        <v>6801900</v>
       </c>
       <c r="F48" s="3">
-        <v>3572800</v>
+        <v>3703000</v>
       </c>
       <c r="G48" s="3">
-        <v>1592400</v>
+        <v>1650500</v>
       </c>
       <c r="H48" s="3">
-        <v>1649600</v>
+        <v>1709700</v>
       </c>
       <c r="I48" s="3">
-        <v>3534000</v>
+        <v>3662800</v>
       </c>
       <c r="J48" s="3">
-        <v>4791600</v>
+        <v>4966300</v>
       </c>
       <c r="K48" s="3">
         <v>5120700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1268900</v>
+        <v>1315100</v>
       </c>
       <c r="E49" s="3">
-        <v>2899100</v>
+        <v>3004700</v>
       </c>
       <c r="F49" s="3">
-        <v>6233000</v>
+        <v>6460100</v>
       </c>
       <c r="G49" s="3">
-        <v>6627000</v>
+        <v>6868500</v>
       </c>
       <c r="H49" s="3">
-        <v>6743400</v>
+        <v>6989100</v>
       </c>
       <c r="I49" s="3">
-        <v>6220800</v>
+        <v>6447500</v>
       </c>
       <c r="J49" s="3">
-        <v>7196600</v>
+        <v>7458900</v>
       </c>
       <c r="K49" s="3">
         <v>7690900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4567100</v>
+        <v>4733500</v>
       </c>
       <c r="E52" s="3">
-        <v>4928400</v>
+        <v>5108000</v>
       </c>
       <c r="F52" s="3">
-        <v>11097100</v>
+        <v>11501500</v>
       </c>
       <c r="G52" s="3">
-        <v>17273000</v>
+        <v>17902400</v>
       </c>
       <c r="H52" s="3">
-        <v>3111400</v>
+        <v>3224800</v>
       </c>
       <c r="I52" s="3">
-        <v>4310800</v>
+        <v>4467900</v>
       </c>
       <c r="J52" s="3">
-        <v>3682000</v>
+        <v>3816200</v>
       </c>
       <c r="K52" s="3">
         <v>3934900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>482883000</v>
+        <v>500481000</v>
       </c>
       <c r="E54" s="3">
-        <v>517151000</v>
+        <v>535997000</v>
       </c>
       <c r="F54" s="3">
-        <v>473090000</v>
+        <v>490330000</v>
       </c>
       <c r="G54" s="3">
-        <v>472004000</v>
+        <v>489204000</v>
       </c>
       <c r="H54" s="3">
-        <v>461907000</v>
+        <v>478740000</v>
       </c>
       <c r="I54" s="3">
-        <v>490429000</v>
+        <v>508301000</v>
       </c>
       <c r="J54" s="3">
-        <v>543781000</v>
+        <v>563598000</v>
       </c>
       <c r="K54" s="3">
         <v>581129000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>838100</v>
+        <v>868600</v>
       </c>
       <c r="E59" s="3">
-        <v>736000</v>
+        <v>762800</v>
       </c>
       <c r="F59" s="3">
-        <v>759500</v>
+        <v>787200</v>
       </c>
       <c r="G59" s="3">
-        <v>800300</v>
+        <v>829500</v>
       </c>
       <c r="H59" s="3">
-        <v>966700</v>
+        <v>1001900</v>
       </c>
       <c r="I59" s="3">
-        <v>1014700</v>
+        <v>1051700</v>
       </c>
       <c r="J59" s="3">
-        <v>781900</v>
+        <v>810400</v>
       </c>
       <c r="K59" s="3">
         <v>835600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44757000</v>
+        <v>46388000</v>
       </c>
       <c r="E61" s="3">
-        <v>47082400</v>
+        <v>48798100</v>
       </c>
       <c r="F61" s="3">
-        <v>46217700</v>
+        <v>47902000</v>
       </c>
       <c r="G61" s="3">
-        <v>47354900</v>
+        <v>49080600</v>
       </c>
       <c r="H61" s="3">
-        <v>44957100</v>
+        <v>46595400</v>
       </c>
       <c r="I61" s="3">
-        <v>47732600</v>
+        <v>49472100</v>
       </c>
       <c r="J61" s="3">
-        <v>54272900</v>
+        <v>56250700</v>
       </c>
       <c r="K61" s="3">
         <v>58000400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3843300</v>
+        <v>3983400</v>
       </c>
       <c r="E62" s="3">
-        <v>6378000</v>
+        <v>6610400</v>
       </c>
       <c r="F62" s="3">
-        <v>2756200</v>
+        <v>2856600</v>
       </c>
       <c r="G62" s="3">
-        <v>3244100</v>
+        <v>3362300</v>
       </c>
       <c r="H62" s="3">
-        <v>3388000</v>
+        <v>3511500</v>
       </c>
       <c r="I62" s="3">
-        <v>3557500</v>
+        <v>3687100</v>
       </c>
       <c r="J62" s="3">
-        <v>3503400</v>
+        <v>3631100</v>
       </c>
       <c r="K62" s="3">
         <v>3744000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>453431000</v>
+        <v>469955000</v>
       </c>
       <c r="E66" s="3">
-        <v>489125000</v>
+        <v>506949000</v>
       </c>
       <c r="F66" s="3">
-        <v>443278000</v>
+        <v>459432000</v>
       </c>
       <c r="G66" s="3">
-        <v>443201000</v>
+        <v>459352000</v>
       </c>
       <c r="H66" s="3">
-        <v>432449000</v>
+        <v>448208000</v>
       </c>
       <c r="I66" s="3">
-        <v>461288000</v>
+        <v>478099000</v>
       </c>
       <c r="J66" s="3">
-        <v>514055000</v>
+        <v>532788000</v>
       </c>
       <c r="K66" s="3">
         <v>549361000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15291600</v>
+        <v>15848800</v>
       </c>
       <c r="E72" s="3">
-        <v>12837600</v>
+        <v>13305400</v>
       </c>
       <c r="F72" s="3">
-        <v>10253900</v>
+        <v>10627600</v>
       </c>
       <c r="G72" s="3">
-        <v>10269200</v>
+        <v>10643500</v>
       </c>
       <c r="H72" s="3">
-        <v>11463600</v>
+        <v>11881300</v>
       </c>
       <c r="I72" s="3">
-        <v>11349300</v>
+        <v>11762800</v>
       </c>
       <c r="J72" s="3">
-        <v>11696300</v>
+        <v>12122600</v>
       </c>
       <c r="K72" s="3">
         <v>12499600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29452100</v>
+        <v>30525400</v>
       </c>
       <c r="E76" s="3">
-        <v>28026100</v>
+        <v>29047400</v>
       </c>
       <c r="F76" s="3">
-        <v>29811400</v>
+        <v>30897800</v>
       </c>
       <c r="G76" s="3">
-        <v>28802900</v>
+        <v>29852500</v>
       </c>
       <c r="H76" s="3">
-        <v>29458200</v>
+        <v>30531800</v>
       </c>
       <c r="I76" s="3">
-        <v>29140800</v>
+        <v>30202700</v>
       </c>
       <c r="J76" s="3">
-        <v>29726700</v>
+        <v>30810000</v>
       </c>
       <c r="K76" s="3">
         <v>31768400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>297100</v>
+        <v>307900</v>
       </c>
       <c r="E81" s="3">
-        <v>-2978700</v>
+        <v>-3087200</v>
       </c>
       <c r="F81" s="3">
-        <v>597200</v>
+        <v>618900</v>
       </c>
       <c r="G81" s="3">
-        <v>883000</v>
+        <v>915200</v>
       </c>
       <c r="H81" s="3">
-        <v>130700</v>
+        <v>135400</v>
       </c>
       <c r="I81" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="J81" s="3">
-        <v>1106500</v>
+        <v>1146900</v>
       </c>
       <c r="K81" s="3">
         <v>290200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6420800</v>
+        <v>5448700</v>
       </c>
       <c r="E83" s="3">
-        <v>5257100</v>
+        <v>3764400</v>
       </c>
       <c r="F83" s="3">
-        <v>3632000</v>
+        <v>1582800</v>
       </c>
       <c r="G83" s="3">
-        <v>1527100</v>
+        <v>2044100</v>
       </c>
       <c r="H83" s="3">
-        <v>1972200</v>
+        <v>1541500</v>
       </c>
       <c r="I83" s="3">
-        <v>1487300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>671700</v>
+        <v>696200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-24765600</v>
+        <v>35629200</v>
       </c>
       <c r="E89" s="3">
-        <v>34376500</v>
+        <v>-11412600</v>
       </c>
       <c r="F89" s="3">
-        <v>-11011400</v>
+        <v>-425300</v>
       </c>
       <c r="G89" s="3">
-        <v>-410400</v>
+        <v>21580000</v>
       </c>
       <c r="H89" s="3">
-        <v>20821300</v>
+        <v>7671600</v>
       </c>
       <c r="I89" s="3">
-        <v>7401800</v>
+        <v>15453100</v>
       </c>
       <c r="J89" s="3">
-        <v>14909800</v>
+        <v>3164500</v>
       </c>
       <c r="K89" s="3">
         <v>3262900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-993200</v>
+        <v>-950100</v>
       </c>
       <c r="E91" s="3">
-        <v>-916700</v>
+        <v>-739500</v>
       </c>
       <c r="F91" s="3">
-        <v>-713500</v>
+        <v>-623200</v>
       </c>
       <c r="G91" s="3">
-        <v>-601300</v>
+        <v>-960700</v>
       </c>
       <c r="H91" s="3">
-        <v>-926900</v>
+        <v>-383000</v>
       </c>
       <c r="I91" s="3">
-        <v>-369500</v>
+        <v>-266600</v>
       </c>
       <c r="J91" s="3">
-        <v>-257200</v>
+        <v>-777600</v>
       </c>
       <c r="K91" s="3">
         <v>-801800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-820700</v>
+        <v>-1291800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1246400</v>
+        <v>-893000</v>
       </c>
       <c r="F94" s="3">
-        <v>-861600</v>
+        <v>-590400</v>
       </c>
       <c r="G94" s="3">
-        <v>-569600</v>
+        <v>-480300</v>
       </c>
       <c r="H94" s="3">
-        <v>-463400</v>
+        <v>-22200</v>
       </c>
       <c r="I94" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>8485900</v>
+        <v>8795200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-264500</v>
       </c>
       <c r="F96" s="3">
-        <v>-255200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-264500</v>
       </c>
       <c r="I96" s="3">
-        <v>-255200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1236200</v>
+        <v>2336100</v>
       </c>
       <c r="E100" s="3">
-        <v>2253900</v>
+        <v>-1245300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1201500</v>
+        <v>-1023100</v>
       </c>
       <c r="G100" s="3">
-        <v>-987100</v>
+        <v>-288800</v>
       </c>
       <c r="H100" s="3">
-        <v>-278700</v>
+        <v>73000</v>
       </c>
       <c r="I100" s="3">
-        <v>70400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>508400</v>
+        <v>526900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>182700</v>
+        <v>-235900</v>
       </c>
       <c r="E101" s="3">
-        <v>-227600</v>
+        <v>61400</v>
       </c>
       <c r="F101" s="3">
-        <v>59200</v>
+        <v>113200</v>
       </c>
       <c r="G101" s="3">
-        <v>109200</v>
+        <v>-152400</v>
       </c>
       <c r="H101" s="3">
-        <v>-147000</v>
+        <v>21200</v>
       </c>
       <c r="I101" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>199100</v>
+        <v>206300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26639800</v>
+        <v>36437500</v>
       </c>
       <c r="E102" s="3">
-        <v>35156400</v>
+        <v>-13489500</v>
       </c>
       <c r="F102" s="3">
-        <v>-13015200</v>
+        <v>-1925600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1857900</v>
+        <v>20658500</v>
       </c>
       <c r="H102" s="3">
-        <v>19932100</v>
+        <v>7743500</v>
       </c>
       <c r="I102" s="3">
-        <v>7471200</v>
+        <v>24981500</v>
       </c>
       <c r="J102" s="3">
-        <v>24103100</v>
+        <v>-7935000</v>
       </c>
       <c r="K102" s="3">
         <v>-8181800</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CRZBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7689500</v>
+        <v>11126500</v>
       </c>
       <c r="E8" s="3">
-        <v>8024900</v>
+        <v>7826900</v>
       </c>
       <c r="F8" s="3">
-        <v>9280800</v>
+        <v>8168300</v>
       </c>
       <c r="G8" s="3">
-        <v>9172900</v>
+        <v>9446600</v>
       </c>
       <c r="H8" s="3">
-        <v>8821600</v>
+        <v>9336700</v>
       </c>
       <c r="I8" s="3">
-        <v>9281800</v>
+        <v>8979200</v>
       </c>
       <c r="J8" s="3">
+        <v>9447600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12121500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13324400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16592500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17985200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20357400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-924700</v>
+        <v>-873400</v>
       </c>
       <c r="E15" s="3">
-        <v>-993500</v>
+        <v>-942300</v>
       </c>
       <c r="F15" s="3">
-        <v>-1053800</v>
+        <v>-1011200</v>
       </c>
       <c r="G15" s="3">
-        <v>-701500</v>
+        <v>-1072600</v>
       </c>
       <c r="H15" s="3">
-        <v>-1296100</v>
+        <v>-714000</v>
       </c>
       <c r="I15" s="3">
-        <v>-578700</v>
+        <v>-1319200</v>
       </c>
       <c r="J15" s="3">
+        <v>-589100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-513100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-457100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-456900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-869600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-556400</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3162400</v>
+        <v>5114200</v>
       </c>
       <c r="E17" s="3">
-        <v>4610800</v>
+        <v>3218900</v>
       </c>
       <c r="F17" s="3">
-        <v>4572700</v>
+        <v>4693100</v>
       </c>
       <c r="G17" s="3">
-        <v>4149500</v>
+        <v>4654400</v>
       </c>
       <c r="H17" s="3">
-        <v>5103800</v>
+        <v>4223600</v>
       </c>
       <c r="I17" s="3">
-        <v>5827500</v>
+        <v>5195000</v>
       </c>
       <c r="J17" s="3">
+        <v>5931600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6798700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8728400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11312500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12685200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14096300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4527200</v>
+        <v>6012300</v>
       </c>
       <c r="E18" s="3">
-        <v>3414200</v>
+        <v>4608100</v>
       </c>
       <c r="F18" s="3">
-        <v>4708100</v>
+        <v>3475200</v>
       </c>
       <c r="G18" s="3">
-        <v>5023400</v>
+        <v>4792200</v>
       </c>
       <c r="H18" s="3">
-        <v>3717800</v>
+        <v>5113100</v>
       </c>
       <c r="I18" s="3">
-        <v>3454400</v>
+        <v>3784200</v>
       </c>
       <c r="J18" s="3">
+        <v>3516100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5322800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4596000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5280000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5300000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6261100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4415000</v>
+        <v>-3851000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6193500</v>
+        <v>-4493900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3517900</v>
+        <v>-6304200</v>
       </c>
       <c r="G20" s="3">
-        <v>-3706200</v>
+        <v>-3580700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3357000</v>
+        <v>-3772400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2774100</v>
+        <v>-3417000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2823600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3388800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3910900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4995300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4356900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5666000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5542300</v>
+        <v>2761800</v>
       </c>
       <c r="E21" s="3">
-        <v>972200</v>
+        <v>6931900</v>
       </c>
       <c r="F21" s="3">
-        <v>2767600</v>
+        <v>2753100</v>
       </c>
       <c r="G21" s="3">
-        <v>3354300</v>
+        <v>5068100</v>
       </c>
       <c r="H21" s="3">
-        <v>1897000</v>
+        <v>2962300</v>
       </c>
       <c r="I21" s="3">
-        <v>1374100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>2461300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2271700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>6888100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>5300600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>112100</v>
+        <v>2161300</v>
       </c>
       <c r="E23" s="3">
-        <v>-2779400</v>
+        <v>114200</v>
       </c>
       <c r="F23" s="3">
-        <v>1190300</v>
+        <v>-2829000</v>
       </c>
       <c r="G23" s="3">
-        <v>1317200</v>
+        <v>1211500</v>
       </c>
       <c r="H23" s="3">
-        <v>360800</v>
+        <v>1340700</v>
       </c>
       <c r="I23" s="3">
-        <v>680300</v>
+        <v>367200</v>
       </c>
       <c r="J23" s="3">
+        <v>692400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1934000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>685100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>284700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>943200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>595100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-262400</v>
+        <v>659100</v>
       </c>
       <c r="E24" s="3">
+        <v>-267100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>284300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>453400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>288600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>231500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>665500</v>
+      </c>
+      <c r="L24" s="3">
         <v>279300</v>
       </c>
-      <c r="F24" s="3">
-        <v>445400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>283500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>227500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>276100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>665500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>279300</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>78900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>881700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-281700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>374500</v>
+        <v>1502300</v>
       </c>
       <c r="E26" s="3">
-        <v>-3058700</v>
+        <v>381200</v>
       </c>
       <c r="F26" s="3">
-        <v>744800</v>
+        <v>-3113300</v>
       </c>
       <c r="G26" s="3">
-        <v>1033700</v>
+        <v>758100</v>
       </c>
       <c r="H26" s="3">
-        <v>133300</v>
+        <v>1052100</v>
       </c>
       <c r="I26" s="3">
-        <v>404200</v>
+        <v>135700</v>
       </c>
       <c r="J26" s="3">
+        <v>411400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1268500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>405800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>205700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>876800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>307900</v>
+        <v>1340700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3119000</v>
+        <v>313400</v>
       </c>
       <c r="F27" s="3">
-        <v>638000</v>
+        <v>-3174700</v>
       </c>
       <c r="G27" s="3">
-        <v>925800</v>
+        <v>649400</v>
       </c>
       <c r="H27" s="3">
-        <v>33900</v>
+        <v>942300</v>
       </c>
       <c r="I27" s="3">
-        <v>295200</v>
+        <v>34500</v>
       </c>
       <c r="J27" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1146900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>290200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>96900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-51600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>748900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,29 +1523,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-19000</v>
+        <v>32300</v>
       </c>
       <c r="G29" s="3">
-        <v>-10600</v>
+        <v>-19400</v>
       </c>
       <c r="H29" s="3">
-        <v>101600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+        <v>-10800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>103400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1502,12 +1562,15 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4415000</v>
+        <v>3851000</v>
       </c>
       <c r="E32" s="3">
-        <v>6193500</v>
+        <v>4493900</v>
       </c>
       <c r="F32" s="3">
-        <v>3517900</v>
+        <v>6304200</v>
       </c>
       <c r="G32" s="3">
-        <v>3706200</v>
+        <v>3580700</v>
       </c>
       <c r="H32" s="3">
-        <v>3357000</v>
+        <v>3772400</v>
       </c>
       <c r="I32" s="3">
-        <v>2774100</v>
+        <v>3417000</v>
       </c>
       <c r="J32" s="3">
+        <v>2823600</v>
+      </c>
+      <c r="K32" s="3">
         <v>3388800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3910900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4995300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4356900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5666000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>307900</v>
+        <v>1340700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3087200</v>
+        <v>313400</v>
       </c>
       <c r="F33" s="3">
-        <v>618900</v>
+        <v>-3142400</v>
       </c>
       <c r="G33" s="3">
-        <v>915200</v>
+        <v>630000</v>
       </c>
       <c r="H33" s="3">
-        <v>135400</v>
+        <v>931500</v>
       </c>
       <c r="I33" s="3">
-        <v>295200</v>
+        <v>137800</v>
       </c>
       <c r="J33" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1146900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>290200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>96900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-51600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>748900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>307900</v>
+        <v>1340700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3087200</v>
+        <v>313400</v>
       </c>
       <c r="F35" s="3">
-        <v>618900</v>
+        <v>-3142400</v>
       </c>
       <c r="G35" s="3">
-        <v>915200</v>
+        <v>630000</v>
       </c>
       <c r="H35" s="3">
-        <v>135400</v>
+        <v>931500</v>
       </c>
       <c r="I35" s="3">
-        <v>295200</v>
+        <v>137800</v>
       </c>
       <c r="J35" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1146900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>290200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>96900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-51600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>748900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>72410600</v>
+        <v>99229900</v>
       </c>
       <c r="E41" s="3">
-        <v>104115000</v>
+        <v>73704100</v>
       </c>
       <c r="F41" s="3">
-        <v>70312600</v>
+        <v>105975000</v>
       </c>
       <c r="G41" s="3">
-        <v>90781700</v>
+        <v>71568600</v>
       </c>
       <c r="H41" s="3">
-        <v>58965500</v>
+        <v>92403400</v>
       </c>
       <c r="I41" s="3">
-        <v>101718000</v>
+        <v>60018900</v>
       </c>
       <c r="J41" s="3">
+        <v>103535000</v>
+      </c>
+      <c r="K41" s="3">
         <v>89981800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92780800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>172466000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>183871000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>117311000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>120285000</v>
+        <v>103561000</v>
       </c>
       <c r="E42" s="3">
-        <v>134731000</v>
+        <v>116366000</v>
       </c>
       <c r="F42" s="3">
-        <v>115247000</v>
+        <v>137138000</v>
       </c>
       <c r="G42" s="3">
-        <v>110973000</v>
+        <v>117306000</v>
       </c>
       <c r="H42" s="3">
-        <v>94191600</v>
+        <v>112955000</v>
       </c>
       <c r="I42" s="3">
-        <v>158341000</v>
+        <v>95874300</v>
       </c>
       <c r="J42" s="3">
+        <v>161170000</v>
+      </c>
+      <c r="K42" s="3">
         <v>171549000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>176886000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>195721000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>226629000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>188959000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>185200</v>
+        <v>196000</v>
       </c>
       <c r="E47" s="3">
-        <v>178800</v>
+        <v>188500</v>
       </c>
       <c r="F47" s="3">
-        <v>187300</v>
+        <v>182000</v>
       </c>
       <c r="G47" s="3">
-        <v>183000</v>
+        <v>190600</v>
       </c>
       <c r="H47" s="3">
-        <v>191500</v>
+        <v>186300</v>
       </c>
       <c r="I47" s="3">
-        <v>351300</v>
+        <v>194900</v>
       </c>
       <c r="J47" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K47" s="3">
         <v>950100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>979600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1007200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>989300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>814600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3091500</v>
+        <v>5286500</v>
       </c>
       <c r="E48" s="3">
-        <v>6801900</v>
+        <v>3146700</v>
       </c>
       <c r="F48" s="3">
-        <v>3703000</v>
+        <v>6923400</v>
       </c>
       <c r="G48" s="3">
-        <v>1650500</v>
+        <v>3769200</v>
       </c>
       <c r="H48" s="3">
-        <v>1709700</v>
+        <v>1680000</v>
       </c>
       <c r="I48" s="3">
-        <v>3662800</v>
+        <v>1740300</v>
       </c>
       <c r="J48" s="3">
+        <v>3728200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4966300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5120700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7871000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6852600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4478100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1315100</v>
+        <v>2776200</v>
       </c>
       <c r="E49" s="3">
-        <v>3004700</v>
+        <v>1338600</v>
       </c>
       <c r="F49" s="3">
-        <v>6460100</v>
+        <v>3058400</v>
       </c>
       <c r="G49" s="3">
-        <v>6868500</v>
+        <v>6575600</v>
       </c>
       <c r="H49" s="3">
-        <v>6989100</v>
+        <v>6991200</v>
       </c>
       <c r="I49" s="3">
-        <v>6447500</v>
+        <v>7114000</v>
       </c>
       <c r="J49" s="3">
+        <v>6562600</v>
+      </c>
+      <c r="K49" s="3">
         <v>7458900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7690900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11508600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10050000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7132100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4733500</v>
+        <v>4193400</v>
       </c>
       <c r="E52" s="3">
-        <v>5108000</v>
+        <v>4818100</v>
       </c>
       <c r="F52" s="3">
-        <v>11501500</v>
+        <v>5199300</v>
       </c>
       <c r="G52" s="3">
-        <v>17902400</v>
+        <v>11707000</v>
       </c>
       <c r="H52" s="3">
-        <v>3224800</v>
+        <v>18222200</v>
       </c>
       <c r="I52" s="3">
-        <v>4467900</v>
+        <v>3282400</v>
       </c>
       <c r="J52" s="3">
+        <v>4547700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3816200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3934900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5242900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4430400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7039300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500481000</v>
+        <v>514142000</v>
       </c>
       <c r="E54" s="3">
-        <v>535997000</v>
+        <v>503353000</v>
       </c>
       <c r="F54" s="3">
-        <v>490330000</v>
+        <v>545572000</v>
       </c>
       <c r="G54" s="3">
-        <v>489204000</v>
+        <v>499089000</v>
       </c>
       <c r="H54" s="3">
-        <v>478740000</v>
+        <v>497944000</v>
       </c>
       <c r="I54" s="3">
-        <v>508301000</v>
+        <v>487292000</v>
       </c>
       <c r="J54" s="3">
+        <v>517382000</v>
+      </c>
+      <c r="K54" s="3">
         <v>563598000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>581129000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>658824000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>698345000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>776883000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2527,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2436,9 +2566,12 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>868600</v>
+        <v>1277200</v>
       </c>
       <c r="E59" s="3">
-        <v>762800</v>
+        <v>884100</v>
       </c>
       <c r="F59" s="3">
-        <v>787200</v>
+        <v>776400</v>
       </c>
       <c r="G59" s="3">
-        <v>829500</v>
+        <v>801200</v>
       </c>
       <c r="H59" s="3">
-        <v>1001900</v>
+        <v>844300</v>
       </c>
       <c r="I59" s="3">
-        <v>1051700</v>
+        <v>1019800</v>
       </c>
       <c r="J59" s="3">
+        <v>1070400</v>
+      </c>
+      <c r="K59" s="3">
         <v>810400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>835600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>860100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>837800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>798200</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46388000</v>
+        <v>47130500</v>
       </c>
       <c r="E61" s="3">
-        <v>48798100</v>
+        <v>47216700</v>
       </c>
       <c r="F61" s="3">
-        <v>47902000</v>
+        <v>49669900</v>
       </c>
       <c r="G61" s="3">
-        <v>49080600</v>
+        <v>48757700</v>
       </c>
       <c r="H61" s="3">
-        <v>46595400</v>
+        <v>49957400</v>
       </c>
       <c r="I61" s="3">
-        <v>49472100</v>
+        <v>47427800</v>
       </c>
       <c r="J61" s="3">
+        <v>50355800</v>
+      </c>
+      <c r="K61" s="3">
         <v>56250700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>58000400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>93729400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102411000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>142204000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3983400</v>
+        <v>7540500</v>
       </c>
       <c r="E62" s="3">
-        <v>6610400</v>
+        <v>4054500</v>
       </c>
       <c r="F62" s="3">
-        <v>2856600</v>
+        <v>6728500</v>
       </c>
       <c r="G62" s="3">
-        <v>3362300</v>
+        <v>2907600</v>
       </c>
       <c r="H62" s="3">
-        <v>3511500</v>
+        <v>3422400</v>
       </c>
       <c r="I62" s="3">
-        <v>3687100</v>
+        <v>3574200</v>
       </c>
       <c r="J62" s="3">
+        <v>3753000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3631100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3744000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9391400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9101300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5042700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>469955000</v>
+        <v>481787000</v>
       </c>
       <c r="E66" s="3">
-        <v>506949000</v>
+        <v>472282000</v>
       </c>
       <c r="F66" s="3">
-        <v>459432000</v>
+        <v>516005000</v>
       </c>
       <c r="G66" s="3">
-        <v>459352000</v>
+        <v>467640000</v>
       </c>
       <c r="H66" s="3">
-        <v>448208000</v>
+        <v>467558000</v>
       </c>
       <c r="I66" s="3">
-        <v>478099000</v>
+        <v>456215000</v>
       </c>
       <c r="J66" s="3">
+        <v>486639000</v>
+      </c>
+      <c r="K66" s="3">
         <v>532788000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>549361000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>627657000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>670497000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>748981000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15848800</v>
+        <v>17763500</v>
       </c>
       <c r="E72" s="3">
-        <v>13305400</v>
+        <v>16132000</v>
       </c>
       <c r="F72" s="3">
-        <v>10627600</v>
+        <v>13543100</v>
       </c>
       <c r="G72" s="3">
-        <v>10643500</v>
+        <v>10817500</v>
       </c>
       <c r="H72" s="3">
-        <v>11881300</v>
+        <v>10833600</v>
       </c>
       <c r="I72" s="3">
-        <v>11762800</v>
+        <v>12093600</v>
       </c>
       <c r="J72" s="3">
+        <v>11973000</v>
+      </c>
+      <c r="K72" s="3">
         <v>12122600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12499600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29804500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21423100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23060700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30525400</v>
+        <v>32355500</v>
       </c>
       <c r="E76" s="3">
-        <v>29047400</v>
+        <v>31070700</v>
       </c>
       <c r="F76" s="3">
-        <v>30897800</v>
+        <v>29566300</v>
       </c>
       <c r="G76" s="3">
-        <v>29852500</v>
+        <v>31449800</v>
       </c>
       <c r="H76" s="3">
-        <v>30531800</v>
+        <v>30385800</v>
       </c>
       <c r="I76" s="3">
-        <v>30202700</v>
+        <v>31077200</v>
       </c>
       <c r="J76" s="3">
+        <v>30742300</v>
+      </c>
+      <c r="K76" s="3">
         <v>30810000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31768400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31167000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27847500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27901500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>307900</v>
+        <v>1340700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3087200</v>
+        <v>313400</v>
       </c>
       <c r="F81" s="3">
-        <v>618900</v>
+        <v>-3142400</v>
       </c>
       <c r="G81" s="3">
-        <v>915200</v>
+        <v>630000</v>
       </c>
       <c r="H81" s="3">
-        <v>135400</v>
+        <v>931500</v>
       </c>
       <c r="I81" s="3">
-        <v>295200</v>
+        <v>137800</v>
       </c>
       <c r="J81" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1146900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>290200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>96900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-51600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>748900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5448700</v>
+        <v>596600</v>
       </c>
       <c r="E83" s="3">
-        <v>3764400</v>
+        <v>6773700</v>
       </c>
       <c r="F83" s="3">
-        <v>1582800</v>
+        <v>5546000</v>
       </c>
       <c r="G83" s="3">
-        <v>2044100</v>
+        <v>3831600</v>
       </c>
       <c r="H83" s="3">
-        <v>1541500</v>
+        <v>1611000</v>
       </c>
       <c r="I83" s="3">
-        <v>696200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>2080600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1569000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>6630500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>4702300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35629200</v>
+        <v>27847600</v>
       </c>
       <c r="E89" s="3">
-        <v>-11412600</v>
+        <v>-26126700</v>
       </c>
       <c r="F89" s="3">
-        <v>-425300</v>
+        <v>36265700</v>
       </c>
       <c r="G89" s="3">
-        <v>21580000</v>
+        <v>-11616500</v>
       </c>
       <c r="H89" s="3">
-        <v>7671600</v>
+        <v>-432900</v>
       </c>
       <c r="I89" s="3">
-        <v>15453100</v>
+        <v>21965500</v>
       </c>
       <c r="J89" s="3">
+        <v>7808600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3164500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3262900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10204800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5913800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-17478000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-950100</v>
+        <v>-726900</v>
       </c>
       <c r="E91" s="3">
-        <v>-739500</v>
+        <v>-1047800</v>
       </c>
       <c r="F91" s="3">
-        <v>-623200</v>
+        <v>-967100</v>
       </c>
       <c r="G91" s="3">
-        <v>-960700</v>
+        <v>-752800</v>
       </c>
       <c r="H91" s="3">
-        <v>-383000</v>
+        <v>-634300</v>
       </c>
       <c r="I91" s="3">
-        <v>-266600</v>
+        <v>-977800</v>
       </c>
       <c r="J91" s="3">
+        <v>-389800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-777600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-801800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1827800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-501800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-347400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1291800</v>
+        <v>-767800</v>
       </c>
       <c r="E94" s="3">
-        <v>-893000</v>
+        <v>-865800</v>
       </c>
       <c r="F94" s="3">
-        <v>-590400</v>
+        <v>-1314900</v>
       </c>
       <c r="G94" s="3">
-        <v>-480300</v>
+        <v>-908900</v>
       </c>
       <c r="H94" s="3">
-        <v>-22200</v>
+        <v>-600900</v>
       </c>
       <c r="I94" s="3">
-        <v>8795200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>-488900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-22600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>6746600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5446100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>20317500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3767,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-264500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-269200</v>
       </c>
       <c r="H96" s="3">
-        <v>-264500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-269200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2336100</v>
+        <v>191700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1245300</v>
+        <v>-1304100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1023100</v>
+        <v>2377800</v>
       </c>
       <c r="G100" s="3">
-        <v>-288800</v>
+        <v>-1267500</v>
       </c>
       <c r="H100" s="3">
-        <v>73000</v>
+        <v>-1041400</v>
       </c>
       <c r="I100" s="3">
-        <v>526900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>-294000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>74300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-185400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-687300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5239900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-235900</v>
+        <v>432900</v>
       </c>
       <c r="E101" s="3">
-        <v>61400</v>
+        <v>192800</v>
       </c>
       <c r="F101" s="3">
-        <v>113200</v>
+        <v>-240100</v>
       </c>
       <c r="G101" s="3">
-        <v>-152400</v>
+        <v>62500</v>
       </c>
       <c r="H101" s="3">
-        <v>21200</v>
+        <v>115200</v>
       </c>
       <c r="I101" s="3">
-        <v>206300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>-155100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>21500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-373200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-43900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>78600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36437500</v>
+        <v>27704300</v>
       </c>
       <c r="E102" s="3">
-        <v>-13489500</v>
+        <v>-28103900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1925600</v>
+        <v>37088400</v>
       </c>
       <c r="G102" s="3">
-        <v>20658500</v>
+        <v>-13730500</v>
       </c>
       <c r="H102" s="3">
-        <v>7743500</v>
+        <v>-1960000</v>
       </c>
       <c r="I102" s="3">
-        <v>24981500</v>
+        <v>21027500</v>
       </c>
       <c r="J102" s="3">
+        <v>7881800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7935000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8181800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4016800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10628600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2321800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11126500</v>
+        <v>11200900</v>
       </c>
       <c r="E8" s="3">
-        <v>7826900</v>
+        <v>7879200</v>
       </c>
       <c r="F8" s="3">
-        <v>8168300</v>
+        <v>8222900</v>
       </c>
       <c r="G8" s="3">
-        <v>9446600</v>
+        <v>9509700</v>
       </c>
       <c r="H8" s="3">
-        <v>9336700</v>
+        <v>9399100</v>
       </c>
       <c r="I8" s="3">
-        <v>8979200</v>
+        <v>9039200</v>
       </c>
       <c r="J8" s="3">
-        <v>9447600</v>
+        <v>9510800</v>
       </c>
       <c r="K8" s="3">
         <v>12121500</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-873400</v>
+        <v>-879200</v>
       </c>
       <c r="E15" s="3">
-        <v>-942300</v>
+        <v>-948600</v>
       </c>
       <c r="F15" s="3">
-        <v>-1011200</v>
+        <v>-1018000</v>
       </c>
       <c r="G15" s="3">
-        <v>-1072600</v>
+        <v>-1079800</v>
       </c>
       <c r="H15" s="3">
-        <v>-714000</v>
+        <v>-718800</v>
       </c>
       <c r="I15" s="3">
-        <v>-1319200</v>
+        <v>-1328000</v>
       </c>
       <c r="J15" s="3">
-        <v>-589100</v>
+        <v>-593000</v>
       </c>
       <c r="K15" s="3">
         <v>-513100</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5114200</v>
+        <v>5148400</v>
       </c>
       <c r="E17" s="3">
-        <v>3218900</v>
+        <v>3240400</v>
       </c>
       <c r="F17" s="3">
-        <v>4693100</v>
+        <v>4724500</v>
       </c>
       <c r="G17" s="3">
-        <v>4654400</v>
+        <v>4685500</v>
       </c>
       <c r="H17" s="3">
-        <v>4223600</v>
+        <v>4251800</v>
       </c>
       <c r="I17" s="3">
-        <v>5195000</v>
+        <v>5229700</v>
       </c>
       <c r="J17" s="3">
-        <v>5931600</v>
+        <v>5971200</v>
       </c>
       <c r="K17" s="3">
         <v>6798700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6012300</v>
+        <v>6052500</v>
       </c>
       <c r="E18" s="3">
-        <v>4608100</v>
+        <v>4638900</v>
       </c>
       <c r="F18" s="3">
-        <v>3475200</v>
+        <v>3498400</v>
       </c>
       <c r="G18" s="3">
-        <v>4792200</v>
+        <v>4824200</v>
       </c>
       <c r="H18" s="3">
-        <v>5113100</v>
+        <v>5147300</v>
       </c>
       <c r="I18" s="3">
-        <v>3784200</v>
+        <v>3809500</v>
       </c>
       <c r="J18" s="3">
-        <v>3516100</v>
+        <v>3539600</v>
       </c>
       <c r="K18" s="3">
         <v>5322800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3851000</v>
+        <v>-3876700</v>
       </c>
       <c r="E20" s="3">
-        <v>-4493900</v>
+        <v>-4523900</v>
       </c>
       <c r="F20" s="3">
-        <v>-6304200</v>
+        <v>-6346300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3580700</v>
+        <v>-3604600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3772400</v>
+        <v>-3797600</v>
       </c>
       <c r="I20" s="3">
-        <v>-3417000</v>
+        <v>-3439800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2823600</v>
+        <v>-2842500</v>
       </c>
       <c r="K20" s="3">
         <v>-3388800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2761800</v>
+        <v>2776400</v>
       </c>
       <c r="E21" s="3">
-        <v>6931900</v>
+        <v>6933900</v>
       </c>
       <c r="F21" s="3">
-        <v>2753100</v>
+        <v>2735200</v>
       </c>
       <c r="G21" s="3">
-        <v>5068100</v>
+        <v>5076800</v>
       </c>
       <c r="H21" s="3">
-        <v>2962300</v>
+        <v>2971500</v>
       </c>
       <c r="I21" s="3">
-        <v>2461300</v>
+        <v>2464200</v>
       </c>
       <c r="J21" s="3">
-        <v>2271700</v>
+        <v>2276600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2161300</v>
+        <v>2175800</v>
       </c>
       <c r="E23" s="3">
-        <v>114200</v>
+        <v>114900</v>
       </c>
       <c r="F23" s="3">
-        <v>-2829000</v>
+        <v>-2847900</v>
       </c>
       <c r="G23" s="3">
-        <v>1211500</v>
+        <v>1219600</v>
       </c>
       <c r="H23" s="3">
-        <v>1340700</v>
+        <v>1349700</v>
       </c>
       <c r="I23" s="3">
-        <v>367200</v>
+        <v>369700</v>
       </c>
       <c r="J23" s="3">
-        <v>692400</v>
+        <v>697100</v>
       </c>
       <c r="K23" s="3">
         <v>1934000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>659100</v>
+        <v>663500</v>
       </c>
       <c r="E24" s="3">
-        <v>-267100</v>
+        <v>-268900</v>
       </c>
       <c r="F24" s="3">
-        <v>284300</v>
+        <v>286200</v>
       </c>
       <c r="G24" s="3">
-        <v>453400</v>
+        <v>456400</v>
       </c>
       <c r="H24" s="3">
-        <v>288600</v>
+        <v>290500</v>
       </c>
       <c r="I24" s="3">
-        <v>231500</v>
+        <v>233100</v>
       </c>
       <c r="J24" s="3">
-        <v>281100</v>
+        <v>283000</v>
       </c>
       <c r="K24" s="3">
         <v>665500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1502300</v>
+        <v>1512300</v>
       </c>
       <c r="E26" s="3">
-        <v>381200</v>
+        <v>383800</v>
       </c>
       <c r="F26" s="3">
-        <v>-3113300</v>
+        <v>-3134100</v>
       </c>
       <c r="G26" s="3">
-        <v>758100</v>
+        <v>763200</v>
       </c>
       <c r="H26" s="3">
-        <v>1052100</v>
+        <v>1059200</v>
       </c>
       <c r="I26" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="J26" s="3">
-        <v>411400</v>
+        <v>414100</v>
       </c>
       <c r="K26" s="3">
         <v>1268500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1340700</v>
+        <v>1349700</v>
       </c>
       <c r="E27" s="3">
-        <v>313400</v>
+        <v>315500</v>
       </c>
       <c r="F27" s="3">
-        <v>-3174700</v>
+        <v>-3195900</v>
       </c>
       <c r="G27" s="3">
-        <v>649400</v>
+        <v>653700</v>
       </c>
       <c r="H27" s="3">
-        <v>942300</v>
+        <v>948600</v>
       </c>
       <c r="I27" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="J27" s="3">
-        <v>300500</v>
+        <v>302500</v>
       </c>
       <c r="K27" s="3">
         <v>1146900</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="G29" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="H29" s="3">
         <v>-10800</v>
       </c>
       <c r="I29" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3851000</v>
+        <v>3876700</v>
       </c>
       <c r="E32" s="3">
-        <v>4493900</v>
+        <v>4523900</v>
       </c>
       <c r="F32" s="3">
-        <v>6304200</v>
+        <v>6346300</v>
       </c>
       <c r="G32" s="3">
-        <v>3580700</v>
+        <v>3604600</v>
       </c>
       <c r="H32" s="3">
-        <v>3772400</v>
+        <v>3797600</v>
       </c>
       <c r="I32" s="3">
-        <v>3417000</v>
+        <v>3439800</v>
       </c>
       <c r="J32" s="3">
-        <v>2823600</v>
+        <v>2842500</v>
       </c>
       <c r="K32" s="3">
         <v>3388800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1340700</v>
+        <v>1349700</v>
       </c>
       <c r="E33" s="3">
-        <v>313400</v>
+        <v>315500</v>
       </c>
       <c r="F33" s="3">
-        <v>-3142400</v>
+        <v>-3163400</v>
       </c>
       <c r="G33" s="3">
-        <v>630000</v>
+        <v>634200</v>
       </c>
       <c r="H33" s="3">
-        <v>931500</v>
+        <v>937700</v>
       </c>
       <c r="I33" s="3">
-        <v>137800</v>
+        <v>138800</v>
       </c>
       <c r="J33" s="3">
-        <v>300500</v>
+        <v>302500</v>
       </c>
       <c r="K33" s="3">
         <v>1146900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1340700</v>
+        <v>1349700</v>
       </c>
       <c r="E35" s="3">
-        <v>313400</v>
+        <v>315500</v>
       </c>
       <c r="F35" s="3">
-        <v>-3142400</v>
+        <v>-3163400</v>
       </c>
       <c r="G35" s="3">
-        <v>630000</v>
+        <v>634200</v>
       </c>
       <c r="H35" s="3">
-        <v>931500</v>
+        <v>937700</v>
       </c>
       <c r="I35" s="3">
-        <v>137800</v>
+        <v>138800</v>
       </c>
       <c r="J35" s="3">
-        <v>300500</v>
+        <v>302500</v>
       </c>
       <c r="K35" s="3">
         <v>1146900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99229900</v>
+        <v>99893300</v>
       </c>
       <c r="E41" s="3">
-        <v>73704100</v>
+        <v>74196900</v>
       </c>
       <c r="F41" s="3">
-        <v>105975000</v>
+        <v>106683000</v>
       </c>
       <c r="G41" s="3">
-        <v>71568600</v>
+        <v>72047100</v>
       </c>
       <c r="H41" s="3">
-        <v>92403400</v>
+        <v>93021200</v>
       </c>
       <c r="I41" s="3">
-        <v>60018900</v>
+        <v>60420100</v>
       </c>
       <c r="J41" s="3">
-        <v>103535000</v>
+        <v>104228000</v>
       </c>
       <c r="K41" s="3">
         <v>89981800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>103561000</v>
+        <v>104254000</v>
       </c>
       <c r="E42" s="3">
-        <v>116366000</v>
+        <v>117144000</v>
       </c>
       <c r="F42" s="3">
-        <v>137138000</v>
+        <v>138055000</v>
       </c>
       <c r="G42" s="3">
-        <v>117306000</v>
+        <v>118090000</v>
       </c>
       <c r="H42" s="3">
-        <v>112955000</v>
+        <v>113710000</v>
       </c>
       <c r="I42" s="3">
-        <v>95874300</v>
+        <v>96515300</v>
       </c>
       <c r="J42" s="3">
-        <v>161170000</v>
+        <v>162248000</v>
       </c>
       <c r="K42" s="3">
         <v>171549000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>196000</v>
+        <v>197300</v>
       </c>
       <c r="E47" s="3">
-        <v>188500</v>
+        <v>189700</v>
       </c>
       <c r="F47" s="3">
-        <v>182000</v>
+        <v>183200</v>
       </c>
       <c r="G47" s="3">
-        <v>190600</v>
+        <v>191900</v>
       </c>
       <c r="H47" s="3">
-        <v>186300</v>
+        <v>187500</v>
       </c>
       <c r="I47" s="3">
-        <v>194900</v>
+        <v>196200</v>
       </c>
       <c r="J47" s="3">
-        <v>357500</v>
+        <v>359900</v>
       </c>
       <c r="K47" s="3">
         <v>950100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5286500</v>
+        <v>5321800</v>
       </c>
       <c r="E48" s="3">
-        <v>3146700</v>
+        <v>3167700</v>
       </c>
       <c r="F48" s="3">
-        <v>6923400</v>
+        <v>6969700</v>
       </c>
       <c r="G48" s="3">
-        <v>3769200</v>
+        <v>3794400</v>
       </c>
       <c r="H48" s="3">
-        <v>1680000</v>
+        <v>1691200</v>
       </c>
       <c r="I48" s="3">
-        <v>1740300</v>
+        <v>1751900</v>
       </c>
       <c r="J48" s="3">
-        <v>3728200</v>
+        <v>3753200</v>
       </c>
       <c r="K48" s="3">
         <v>4966300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2776200</v>
+        <v>2794800</v>
       </c>
       <c r="E49" s="3">
-        <v>1338600</v>
+        <v>1347500</v>
       </c>
       <c r="F49" s="3">
-        <v>3058400</v>
+        <v>3078800</v>
       </c>
       <c r="G49" s="3">
-        <v>6575600</v>
+        <v>6619500</v>
       </c>
       <c r="H49" s="3">
-        <v>6991200</v>
+        <v>7038000</v>
       </c>
       <c r="I49" s="3">
-        <v>7114000</v>
+        <v>7161600</v>
       </c>
       <c r="J49" s="3">
-        <v>6562600</v>
+        <v>6606500</v>
       </c>
       <c r="K49" s="3">
         <v>7458900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4193400</v>
+        <v>4221500</v>
       </c>
       <c r="E52" s="3">
-        <v>4818100</v>
+        <v>4850300</v>
       </c>
       <c r="F52" s="3">
-        <v>5199300</v>
+        <v>5234000</v>
       </c>
       <c r="G52" s="3">
-        <v>11707000</v>
+        <v>11785300</v>
       </c>
       <c r="H52" s="3">
-        <v>18222200</v>
+        <v>18344100</v>
       </c>
       <c r="I52" s="3">
-        <v>3282400</v>
+        <v>3304300</v>
       </c>
       <c r="J52" s="3">
-        <v>4547700</v>
+        <v>4578200</v>
       </c>
       <c r="K52" s="3">
         <v>3816200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>514142000</v>
+        <v>517580000</v>
       </c>
       <c r="E54" s="3">
-        <v>503353000</v>
+        <v>506718000</v>
       </c>
       <c r="F54" s="3">
-        <v>545572000</v>
+        <v>549219000</v>
       </c>
       <c r="G54" s="3">
-        <v>499089000</v>
+        <v>502426000</v>
       </c>
       <c r="H54" s="3">
-        <v>497944000</v>
+        <v>501273000</v>
       </c>
       <c r="I54" s="3">
-        <v>487292000</v>
+        <v>490550000</v>
       </c>
       <c r="J54" s="3">
-        <v>517382000</v>
+        <v>520841000</v>
       </c>
       <c r="K54" s="3">
         <v>563598000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1277200</v>
+        <v>1285700</v>
       </c>
       <c r="E59" s="3">
-        <v>884100</v>
+        <v>890000</v>
       </c>
       <c r="F59" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="G59" s="3">
-        <v>801200</v>
+        <v>806600</v>
       </c>
       <c r="H59" s="3">
-        <v>844300</v>
+        <v>849900</v>
       </c>
       <c r="I59" s="3">
-        <v>1019800</v>
+        <v>1026600</v>
       </c>
       <c r="J59" s="3">
-        <v>1070400</v>
+        <v>1077600</v>
       </c>
       <c r="K59" s="3">
         <v>810400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47130500</v>
+        <v>47445600</v>
       </c>
       <c r="E61" s="3">
-        <v>47216700</v>
+        <v>47532400</v>
       </c>
       <c r="F61" s="3">
-        <v>49669900</v>
+        <v>50001900</v>
       </c>
       <c r="G61" s="3">
-        <v>48757700</v>
+        <v>49083700</v>
       </c>
       <c r="H61" s="3">
-        <v>49957400</v>
+        <v>50291400</v>
       </c>
       <c r="I61" s="3">
-        <v>47427800</v>
+        <v>47744800</v>
       </c>
       <c r="J61" s="3">
-        <v>50355800</v>
+        <v>50692500</v>
       </c>
       <c r="K61" s="3">
         <v>56250700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7540500</v>
+        <v>7590900</v>
       </c>
       <c r="E62" s="3">
-        <v>4054500</v>
+        <v>4081600</v>
       </c>
       <c r="F62" s="3">
-        <v>6728500</v>
+        <v>6773500</v>
       </c>
       <c r="G62" s="3">
-        <v>2907600</v>
+        <v>2927100</v>
       </c>
       <c r="H62" s="3">
-        <v>3422400</v>
+        <v>3445300</v>
       </c>
       <c r="I62" s="3">
-        <v>3574200</v>
+        <v>3598100</v>
       </c>
       <c r="J62" s="3">
-        <v>3753000</v>
+        <v>3778100</v>
       </c>
       <c r="K62" s="3">
         <v>3631100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>481787000</v>
+        <v>485008000</v>
       </c>
       <c r="E66" s="3">
-        <v>472282000</v>
+        <v>475440000</v>
       </c>
       <c r="F66" s="3">
-        <v>516005000</v>
+        <v>519455000</v>
       </c>
       <c r="G66" s="3">
-        <v>467640000</v>
+        <v>470766000</v>
       </c>
       <c r="H66" s="3">
-        <v>467558000</v>
+        <v>470684000</v>
       </c>
       <c r="I66" s="3">
-        <v>456215000</v>
+        <v>459265000</v>
       </c>
       <c r="J66" s="3">
-        <v>486639000</v>
+        <v>489893000</v>
       </c>
       <c r="K66" s="3">
         <v>532788000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17763500</v>
+        <v>17882200</v>
       </c>
       <c r="E72" s="3">
-        <v>16132000</v>
+        <v>16239800</v>
       </c>
       <c r="F72" s="3">
-        <v>13543100</v>
+        <v>13633600</v>
       </c>
       <c r="G72" s="3">
-        <v>10817500</v>
+        <v>10889800</v>
       </c>
       <c r="H72" s="3">
-        <v>10833600</v>
+        <v>10906000</v>
       </c>
       <c r="I72" s="3">
-        <v>12093600</v>
+        <v>12174400</v>
       </c>
       <c r="J72" s="3">
-        <v>11973000</v>
+        <v>12053000</v>
       </c>
       <c r="K72" s="3">
         <v>12122600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32355500</v>
+        <v>32571800</v>
       </c>
       <c r="E76" s="3">
-        <v>31070700</v>
+        <v>31278500</v>
       </c>
       <c r="F76" s="3">
-        <v>29566300</v>
+        <v>29764000</v>
       </c>
       <c r="G76" s="3">
-        <v>31449800</v>
+        <v>31660100</v>
       </c>
       <c r="H76" s="3">
-        <v>30385800</v>
+        <v>30589000</v>
       </c>
       <c r="I76" s="3">
-        <v>31077200</v>
+        <v>31285000</v>
       </c>
       <c r="J76" s="3">
-        <v>30742300</v>
+        <v>30947800</v>
       </c>
       <c r="K76" s="3">
         <v>30810000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1340700</v>
+        <v>1349700</v>
       </c>
       <c r="E81" s="3">
-        <v>313400</v>
+        <v>315500</v>
       </c>
       <c r="F81" s="3">
-        <v>-3142400</v>
+        <v>-3163400</v>
       </c>
       <c r="G81" s="3">
-        <v>630000</v>
+        <v>634200</v>
       </c>
       <c r="H81" s="3">
-        <v>931500</v>
+        <v>937700</v>
       </c>
       <c r="I81" s="3">
-        <v>137800</v>
+        <v>138800</v>
       </c>
       <c r="J81" s="3">
-        <v>300500</v>
+        <v>302500</v>
       </c>
       <c r="K81" s="3">
         <v>1146900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>596600</v>
+        <v>600600</v>
       </c>
       <c r="E83" s="3">
-        <v>6773700</v>
+        <v>6819000</v>
       </c>
       <c r="F83" s="3">
-        <v>5546000</v>
+        <v>5583100</v>
       </c>
       <c r="G83" s="3">
-        <v>3831600</v>
+        <v>3857200</v>
       </c>
       <c r="H83" s="3">
-        <v>1611000</v>
+        <v>1621800</v>
       </c>
       <c r="I83" s="3">
-        <v>2080600</v>
+        <v>2094500</v>
       </c>
       <c r="J83" s="3">
-        <v>1569000</v>
+        <v>1579500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27847600</v>
+        <v>28033700</v>
       </c>
       <c r="E89" s="3">
-        <v>-26126700</v>
+        <v>-26301400</v>
       </c>
       <c r="F89" s="3">
-        <v>36265700</v>
+        <v>36508200</v>
       </c>
       <c r="G89" s="3">
-        <v>-11616500</v>
+        <v>-11694200</v>
       </c>
       <c r="H89" s="3">
-        <v>-432900</v>
+        <v>-435800</v>
       </c>
       <c r="I89" s="3">
-        <v>21965500</v>
+        <v>22112400</v>
       </c>
       <c r="J89" s="3">
-        <v>7808600</v>
+        <v>7860800</v>
       </c>
       <c r="K89" s="3">
         <v>3164500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-726900</v>
+        <v>-731800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1047800</v>
+        <v>-1054800</v>
       </c>
       <c r="F91" s="3">
-        <v>-967100</v>
+        <v>-973500</v>
       </c>
       <c r="G91" s="3">
-        <v>-752800</v>
+        <v>-757800</v>
       </c>
       <c r="H91" s="3">
-        <v>-634300</v>
+        <v>-638500</v>
       </c>
       <c r="I91" s="3">
-        <v>-977800</v>
+        <v>-984400</v>
       </c>
       <c r="J91" s="3">
-        <v>-389800</v>
+        <v>-392400</v>
       </c>
       <c r="K91" s="3">
         <v>-777600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-767800</v>
+        <v>-773000</v>
       </c>
       <c r="E94" s="3">
-        <v>-865800</v>
+        <v>-871600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1314900</v>
+        <v>-1323700</v>
       </c>
       <c r="G94" s="3">
-        <v>-908900</v>
+        <v>-915000</v>
       </c>
       <c r="H94" s="3">
-        <v>-600900</v>
+        <v>-604900</v>
       </c>
       <c r="I94" s="3">
-        <v>-488900</v>
+        <v>-492200</v>
       </c>
       <c r="J94" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-269200</v>
+        <v>-271000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-269200</v>
+        <v>-271000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>191700</v>
+        <v>193000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1304100</v>
+        <v>-1312800</v>
       </c>
       <c r="F100" s="3">
-        <v>2377800</v>
+        <v>2393700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1267500</v>
+        <v>-1276000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1041400</v>
+        <v>-1048300</v>
       </c>
       <c r="I100" s="3">
-        <v>-294000</v>
+        <v>-296000</v>
       </c>
       <c r="J100" s="3">
-        <v>74300</v>
+        <v>74800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>432900</v>
+        <v>435800</v>
       </c>
       <c r="E101" s="3">
-        <v>192800</v>
+        <v>194100</v>
       </c>
       <c r="F101" s="3">
-        <v>-240100</v>
+        <v>-241800</v>
       </c>
       <c r="G101" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="H101" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="I101" s="3">
-        <v>-155100</v>
+        <v>-156100</v>
       </c>
       <c r="J101" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27704300</v>
+        <v>27889600</v>
       </c>
       <c r="E102" s="3">
-        <v>-28103900</v>
+        <v>-28291800</v>
       </c>
       <c r="F102" s="3">
-        <v>37088400</v>
+        <v>37336400</v>
       </c>
       <c r="G102" s="3">
-        <v>-13730500</v>
+        <v>-13822300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1960000</v>
+        <v>-1973100</v>
       </c>
       <c r="I102" s="3">
-        <v>21027500</v>
+        <v>21168100</v>
       </c>
       <c r="J102" s="3">
-        <v>7881800</v>
+        <v>7934500</v>
       </c>
       <c r="K102" s="3">
         <v>-7935000</v>

--- a/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CRZBY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11200900</v>
+        <v>11210200</v>
       </c>
       <c r="E8" s="3">
-        <v>7879200</v>
+        <v>7885800</v>
       </c>
       <c r="F8" s="3">
-        <v>8222900</v>
+        <v>8229700</v>
       </c>
       <c r="G8" s="3">
-        <v>9509700</v>
+        <v>9517600</v>
       </c>
       <c r="H8" s="3">
-        <v>9399100</v>
+        <v>9407000</v>
       </c>
       <c r="I8" s="3">
-        <v>9039200</v>
+        <v>9046700</v>
       </c>
       <c r="J8" s="3">
-        <v>9510800</v>
+        <v>9518700</v>
       </c>
       <c r="K8" s="3">
         <v>12121500</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-879200</v>
+        <v>-879900</v>
       </c>
       <c r="E15" s="3">
-        <v>-948600</v>
+        <v>-949400</v>
       </c>
       <c r="F15" s="3">
-        <v>-1018000</v>
+        <v>-1018800</v>
       </c>
       <c r="G15" s="3">
-        <v>-1079800</v>
+        <v>-1080700</v>
       </c>
       <c r="H15" s="3">
-        <v>-718800</v>
+        <v>-719400</v>
       </c>
       <c r="I15" s="3">
-        <v>-1328000</v>
+        <v>-1329100</v>
       </c>
       <c r="J15" s="3">
-        <v>-593000</v>
+        <v>-593500</v>
       </c>
       <c r="K15" s="3">
         <v>-513100</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5148400</v>
+        <v>5152700</v>
       </c>
       <c r="E17" s="3">
-        <v>3240400</v>
+        <v>3243100</v>
       </c>
       <c r="F17" s="3">
-        <v>4724500</v>
+        <v>4728400</v>
       </c>
       <c r="G17" s="3">
-        <v>4685500</v>
+        <v>4689400</v>
       </c>
       <c r="H17" s="3">
-        <v>4251800</v>
+        <v>4255400</v>
       </c>
       <c r="I17" s="3">
-        <v>5229700</v>
+        <v>5234000</v>
       </c>
       <c r="J17" s="3">
-        <v>5971200</v>
+        <v>5976200</v>
       </c>
       <c r="K17" s="3">
         <v>6798700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6052500</v>
+        <v>6057600</v>
       </c>
       <c r="E18" s="3">
-        <v>4638900</v>
+        <v>4642700</v>
       </c>
       <c r="F18" s="3">
-        <v>3498400</v>
+        <v>3501300</v>
       </c>
       <c r="G18" s="3">
-        <v>4824200</v>
+        <v>4828300</v>
       </c>
       <c r="H18" s="3">
-        <v>5147300</v>
+        <v>5151600</v>
       </c>
       <c r="I18" s="3">
-        <v>3809500</v>
+        <v>3812700</v>
       </c>
       <c r="J18" s="3">
-        <v>3539600</v>
+        <v>3542500</v>
       </c>
       <c r="K18" s="3">
         <v>5322800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3876700</v>
+        <v>-3880000</v>
       </c>
       <c r="E20" s="3">
-        <v>-4523900</v>
+        <v>-4527700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6346300</v>
+        <v>-6351600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3604600</v>
+        <v>-3607600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3797600</v>
+        <v>-3800800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3439800</v>
+        <v>-3442700</v>
       </c>
       <c r="J20" s="3">
-        <v>-2842500</v>
+        <v>-2844900</v>
       </c>
       <c r="K20" s="3">
         <v>-3388800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2776400</v>
+        <v>2778500</v>
       </c>
       <c r="E21" s="3">
-        <v>6933900</v>
+        <v>6937100</v>
       </c>
       <c r="F21" s="3">
-        <v>2735200</v>
+        <v>2735400</v>
       </c>
       <c r="G21" s="3">
-        <v>5076800</v>
+        <v>5079600</v>
       </c>
       <c r="H21" s="3">
-        <v>2971500</v>
+        <v>2973400</v>
       </c>
       <c r="I21" s="3">
-        <v>2464200</v>
+        <v>2465400</v>
       </c>
       <c r="J21" s="3">
-        <v>2276600</v>
+        <v>2277900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2175800</v>
+        <v>2177600</v>
       </c>
       <c r="E23" s="3">
-        <v>114900</v>
+        <v>115000</v>
       </c>
       <c r="F23" s="3">
-        <v>-2847900</v>
+        <v>-2850300</v>
       </c>
       <c r="G23" s="3">
-        <v>1219600</v>
+        <v>1220600</v>
       </c>
       <c r="H23" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="I23" s="3">
-        <v>369700</v>
+        <v>370000</v>
       </c>
       <c r="J23" s="3">
-        <v>697100</v>
+        <v>697700</v>
       </c>
       <c r="K23" s="3">
         <v>1934000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>663500</v>
+        <v>664000</v>
       </c>
       <c r="E24" s="3">
-        <v>-268900</v>
+        <v>-269100</v>
       </c>
       <c r="F24" s="3">
-        <v>286200</v>
+        <v>286400</v>
       </c>
       <c r="G24" s="3">
-        <v>456400</v>
+        <v>456800</v>
       </c>
       <c r="H24" s="3">
-        <v>290500</v>
+        <v>290800</v>
       </c>
       <c r="I24" s="3">
-        <v>233100</v>
+        <v>233300</v>
       </c>
       <c r="J24" s="3">
-        <v>283000</v>
+        <v>283200</v>
       </c>
       <c r="K24" s="3">
         <v>665500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1512300</v>
+        <v>1513600</v>
       </c>
       <c r="E26" s="3">
-        <v>383800</v>
+        <v>384100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3134100</v>
+        <v>-3136700</v>
       </c>
       <c r="G26" s="3">
-        <v>763200</v>
+        <v>763800</v>
       </c>
       <c r="H26" s="3">
-        <v>1059200</v>
+        <v>1060000</v>
       </c>
       <c r="I26" s="3">
-        <v>136600</v>
+        <v>136700</v>
       </c>
       <c r="J26" s="3">
-        <v>414100</v>
+        <v>414500</v>
       </c>
       <c r="K26" s="3">
         <v>1268500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="E27" s="3">
-        <v>315500</v>
+        <v>315700</v>
       </c>
       <c r="F27" s="3">
-        <v>-3195900</v>
+        <v>-3198600</v>
       </c>
       <c r="G27" s="3">
-        <v>653700</v>
+        <v>654300</v>
       </c>
       <c r="H27" s="3">
-        <v>948600</v>
+        <v>949400</v>
       </c>
       <c r="I27" s="3">
         <v>34700</v>
       </c>
       <c r="J27" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="K27" s="3">
         <v>1146900</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="G29" s="3">
         <v>-19500</v>
       </c>
       <c r="H29" s="3">
-        <v>-10800</v>
+        <v>-10900</v>
       </c>
       <c r="I29" s="3">
-        <v>104100</v>
+        <v>104200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3876700</v>
+        <v>3880000</v>
       </c>
       <c r="E32" s="3">
-        <v>4523900</v>
+        <v>4527700</v>
       </c>
       <c r="F32" s="3">
-        <v>6346300</v>
+        <v>6351600</v>
       </c>
       <c r="G32" s="3">
-        <v>3604600</v>
+        <v>3607600</v>
       </c>
       <c r="H32" s="3">
-        <v>3797600</v>
+        <v>3800800</v>
       </c>
       <c r="I32" s="3">
-        <v>3439800</v>
+        <v>3442700</v>
       </c>
       <c r="J32" s="3">
-        <v>2842500</v>
+        <v>2844900</v>
       </c>
       <c r="K32" s="3">
         <v>3388800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="E33" s="3">
-        <v>315500</v>
+        <v>315700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3163400</v>
+        <v>-3166000</v>
       </c>
       <c r="G33" s="3">
-        <v>634200</v>
+        <v>634700</v>
       </c>
       <c r="H33" s="3">
-        <v>937700</v>
+        <v>938500</v>
       </c>
       <c r="I33" s="3">
-        <v>138800</v>
+        <v>138900</v>
       </c>
       <c r="J33" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="K33" s="3">
         <v>1146900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="E35" s="3">
-        <v>315500</v>
+        <v>315700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3163400</v>
+        <v>-3166000</v>
       </c>
       <c r="G35" s="3">
-        <v>634200</v>
+        <v>634700</v>
       </c>
       <c r="H35" s="3">
-        <v>937700</v>
+        <v>938500</v>
       </c>
       <c r="I35" s="3">
-        <v>138800</v>
+        <v>138900</v>
       </c>
       <c r="J35" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="K35" s="3">
         <v>1146900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99893300</v>
+        <v>99976200</v>
       </c>
       <c r="E41" s="3">
-        <v>74196900</v>
+        <v>74258500</v>
       </c>
       <c r="F41" s="3">
-        <v>106683000</v>
+        <v>106772000</v>
       </c>
       <c r="G41" s="3">
-        <v>72047100</v>
+        <v>72106900</v>
       </c>
       <c r="H41" s="3">
-        <v>93021200</v>
+        <v>93098400</v>
       </c>
       <c r="I41" s="3">
-        <v>60420100</v>
+        <v>60470300</v>
       </c>
       <c r="J41" s="3">
-        <v>104228000</v>
+        <v>104314000</v>
       </c>
       <c r="K41" s="3">
         <v>89981800</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104254000</v>
+        <v>104340000</v>
       </c>
       <c r="E42" s="3">
-        <v>117144000</v>
+        <v>117241000</v>
       </c>
       <c r="F42" s="3">
-        <v>138055000</v>
+        <v>138169000</v>
       </c>
       <c r="G42" s="3">
-        <v>118090000</v>
+        <v>118188000</v>
       </c>
       <c r="H42" s="3">
-        <v>113710000</v>
+        <v>113805000</v>
       </c>
       <c r="I42" s="3">
-        <v>96515300</v>
+        <v>96595400</v>
       </c>
       <c r="J42" s="3">
-        <v>162248000</v>
+        <v>162382000</v>
       </c>
       <c r="K42" s="3">
         <v>171549000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>197300</v>
+        <v>197500</v>
       </c>
       <c r="E47" s="3">
-        <v>189700</v>
+        <v>189900</v>
       </c>
       <c r="F47" s="3">
-        <v>183200</v>
+        <v>183400</v>
       </c>
       <c r="G47" s="3">
-        <v>191900</v>
+        <v>192000</v>
       </c>
       <c r="H47" s="3">
-        <v>187500</v>
+        <v>187700</v>
       </c>
       <c r="I47" s="3">
-        <v>196200</v>
+        <v>196400</v>
       </c>
       <c r="J47" s="3">
-        <v>359900</v>
+        <v>360200</v>
       </c>
       <c r="K47" s="3">
         <v>950100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5321800</v>
+        <v>5326300</v>
       </c>
       <c r="E48" s="3">
-        <v>3167700</v>
+        <v>3170400</v>
       </c>
       <c r="F48" s="3">
-        <v>6969700</v>
+        <v>6975500</v>
       </c>
       <c r="G48" s="3">
-        <v>3794400</v>
+        <v>3797500</v>
       </c>
       <c r="H48" s="3">
-        <v>1691200</v>
+        <v>1692600</v>
       </c>
       <c r="I48" s="3">
-        <v>1751900</v>
+        <v>1753400</v>
       </c>
       <c r="J48" s="3">
-        <v>3753200</v>
+        <v>3756300</v>
       </c>
       <c r="K48" s="3">
         <v>4966300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2794800</v>
+        <v>2797100</v>
       </c>
       <c r="E49" s="3">
-        <v>1347500</v>
+        <v>1348700</v>
       </c>
       <c r="F49" s="3">
-        <v>3078800</v>
+        <v>3081400</v>
       </c>
       <c r="G49" s="3">
-        <v>6619500</v>
+        <v>6625000</v>
       </c>
       <c r="H49" s="3">
-        <v>7038000</v>
+        <v>7043800</v>
       </c>
       <c r="I49" s="3">
-        <v>7161600</v>
+        <v>7167500</v>
       </c>
       <c r="J49" s="3">
-        <v>6606500</v>
+        <v>6612000</v>
       </c>
       <c r="K49" s="3">
         <v>7458900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4221500</v>
+        <v>4225000</v>
       </c>
       <c r="E52" s="3">
-        <v>4850300</v>
+        <v>4854300</v>
       </c>
       <c r="F52" s="3">
-        <v>5234000</v>
+        <v>5238400</v>
       </c>
       <c r="G52" s="3">
-        <v>11785300</v>
+        <v>11795000</v>
       </c>
       <c r="H52" s="3">
-        <v>18344100</v>
+        <v>18359300</v>
       </c>
       <c r="I52" s="3">
-        <v>3304300</v>
+        <v>3307100</v>
       </c>
       <c r="J52" s="3">
-        <v>4578200</v>
+        <v>4582000</v>
       </c>
       <c r="K52" s="3">
         <v>3816200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>517580000</v>
+        <v>518009000</v>
       </c>
       <c r="E54" s="3">
-        <v>506718000</v>
+        <v>507139000</v>
       </c>
       <c r="F54" s="3">
-        <v>549219000</v>
+        <v>549675000</v>
       </c>
       <c r="G54" s="3">
-        <v>502426000</v>
+        <v>502843000</v>
       </c>
       <c r="H54" s="3">
-        <v>501273000</v>
+        <v>501689000</v>
       </c>
       <c r="I54" s="3">
-        <v>490550000</v>
+        <v>490957000</v>
       </c>
       <c r="J54" s="3">
-        <v>520841000</v>
+        <v>521273000</v>
       </c>
       <c r="K54" s="3">
         <v>563598000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1285700</v>
+        <v>1286800</v>
       </c>
       <c r="E59" s="3">
-        <v>890000</v>
+        <v>890800</v>
       </c>
       <c r="F59" s="3">
-        <v>781600</v>
+        <v>782300</v>
       </c>
       <c r="G59" s="3">
-        <v>806600</v>
+        <v>807200</v>
       </c>
       <c r="H59" s="3">
-        <v>849900</v>
+        <v>850600</v>
       </c>
       <c r="I59" s="3">
-        <v>1026600</v>
+        <v>1027500</v>
       </c>
       <c r="J59" s="3">
-        <v>1077600</v>
+        <v>1078500</v>
       </c>
       <c r="K59" s="3">
         <v>810400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47445600</v>
+        <v>47485000</v>
       </c>
       <c r="E61" s="3">
-        <v>47532400</v>
+        <v>47571800</v>
       </c>
       <c r="F61" s="3">
-        <v>50001900</v>
+        <v>50043500</v>
       </c>
       <c r="G61" s="3">
-        <v>49083700</v>
+        <v>49124500</v>
       </c>
       <c r="H61" s="3">
-        <v>50291400</v>
+        <v>50333200</v>
       </c>
       <c r="I61" s="3">
-        <v>47744800</v>
+        <v>47784500</v>
       </c>
       <c r="J61" s="3">
-        <v>50692500</v>
+        <v>50734600</v>
       </c>
       <c r="K61" s="3">
         <v>56250700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7590900</v>
+        <v>7597200</v>
       </c>
       <c r="E62" s="3">
-        <v>4081600</v>
+        <v>4085000</v>
       </c>
       <c r="F62" s="3">
-        <v>6773500</v>
+        <v>6779100</v>
       </c>
       <c r="G62" s="3">
-        <v>2927100</v>
+        <v>2929500</v>
       </c>
       <c r="H62" s="3">
-        <v>3445300</v>
+        <v>3448100</v>
       </c>
       <c r="I62" s="3">
-        <v>3598100</v>
+        <v>3601100</v>
       </c>
       <c r="J62" s="3">
-        <v>3778100</v>
+        <v>3781200</v>
       </c>
       <c r="K62" s="3">
         <v>3631100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>485008000</v>
+        <v>485411000</v>
       </c>
       <c r="E66" s="3">
-        <v>475440000</v>
+        <v>475834000</v>
       </c>
       <c r="F66" s="3">
-        <v>519455000</v>
+        <v>519886000</v>
       </c>
       <c r="G66" s="3">
-        <v>470766000</v>
+        <v>471157000</v>
       </c>
       <c r="H66" s="3">
-        <v>470684000</v>
+        <v>471075000</v>
       </c>
       <c r="I66" s="3">
-        <v>459265000</v>
+        <v>459646000</v>
       </c>
       <c r="J66" s="3">
-        <v>489893000</v>
+        <v>490300000</v>
       </c>
       <c r="K66" s="3">
         <v>532788000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17882200</v>
+        <v>17897100</v>
       </c>
       <c r="E72" s="3">
-        <v>16239800</v>
+        <v>16253300</v>
       </c>
       <c r="F72" s="3">
-        <v>13633600</v>
+        <v>13645000</v>
       </c>
       <c r="G72" s="3">
-        <v>10889800</v>
+        <v>10898800</v>
       </c>
       <c r="H72" s="3">
-        <v>10906000</v>
+        <v>10915100</v>
       </c>
       <c r="I72" s="3">
-        <v>12174400</v>
+        <v>12184500</v>
       </c>
       <c r="J72" s="3">
-        <v>12053000</v>
+        <v>12063000</v>
       </c>
       <c r="K72" s="3">
         <v>12122600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32571800</v>
+        <v>32598800</v>
       </c>
       <c r="E76" s="3">
-        <v>31278500</v>
+        <v>31304400</v>
       </c>
       <c r="F76" s="3">
-        <v>29764000</v>
+        <v>29788700</v>
       </c>
       <c r="G76" s="3">
-        <v>31660100</v>
+        <v>31686300</v>
       </c>
       <c r="H76" s="3">
-        <v>30589000</v>
+        <v>30614400</v>
       </c>
       <c r="I76" s="3">
-        <v>31285000</v>
+        <v>31310900</v>
       </c>
       <c r="J76" s="3">
-        <v>30947800</v>
+        <v>30973500</v>
       </c>
       <c r="K76" s="3">
         <v>30810000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1349700</v>
+        <v>1350800</v>
       </c>
       <c r="E81" s="3">
-        <v>315500</v>
+        <v>315700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3163400</v>
+        <v>-3166000</v>
       </c>
       <c r="G81" s="3">
-        <v>634200</v>
+        <v>634700</v>
       </c>
       <c r="H81" s="3">
-        <v>937700</v>
+        <v>938500</v>
       </c>
       <c r="I81" s="3">
-        <v>138800</v>
+        <v>138900</v>
       </c>
       <c r="J81" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="K81" s="3">
         <v>1146900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600600</v>
+        <v>601100</v>
       </c>
       <c r="E83" s="3">
-        <v>6819000</v>
+        <v>6824700</v>
       </c>
       <c r="F83" s="3">
-        <v>5583100</v>
+        <v>5587800</v>
       </c>
       <c r="G83" s="3">
-        <v>3857200</v>
+        <v>3860400</v>
       </c>
       <c r="H83" s="3">
-        <v>1621800</v>
+        <v>1623200</v>
       </c>
       <c r="I83" s="3">
-        <v>2094500</v>
+        <v>2096200</v>
       </c>
       <c r="J83" s="3">
-        <v>1579500</v>
+        <v>1580800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28033700</v>
+        <v>28057000</v>
       </c>
       <c r="E89" s="3">
-        <v>-26301400</v>
+        <v>-26323200</v>
       </c>
       <c r="F89" s="3">
-        <v>36508200</v>
+        <v>36538500</v>
       </c>
       <c r="G89" s="3">
-        <v>-11694200</v>
+        <v>-11703900</v>
       </c>
       <c r="H89" s="3">
-        <v>-435800</v>
+        <v>-436200</v>
       </c>
       <c r="I89" s="3">
-        <v>22112400</v>
+        <v>22130700</v>
       </c>
       <c r="J89" s="3">
-        <v>7860800</v>
+        <v>7867300</v>
       </c>
       <c r="K89" s="3">
         <v>3164500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-731800</v>
+        <v>-732400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1054800</v>
+        <v>-1055700</v>
       </c>
       <c r="F91" s="3">
-        <v>-973500</v>
+        <v>-974300</v>
       </c>
       <c r="G91" s="3">
-        <v>-757800</v>
+        <v>-758400</v>
       </c>
       <c r="H91" s="3">
-        <v>-638500</v>
+        <v>-639100</v>
       </c>
       <c r="I91" s="3">
-        <v>-984400</v>
+        <v>-985200</v>
       </c>
       <c r="J91" s="3">
-        <v>-392400</v>
+        <v>-392800</v>
       </c>
       <c r="K91" s="3">
         <v>-777600</v>
@@ -3937,22 +3937,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-773000</v>
+        <v>-773600</v>
       </c>
       <c r="E94" s="3">
-        <v>-871600</v>
+        <v>-872300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1323700</v>
+        <v>-1324800</v>
       </c>
       <c r="G94" s="3">
-        <v>-915000</v>
+        <v>-915700</v>
       </c>
       <c r="H94" s="3">
-        <v>-604900</v>
+        <v>-605400</v>
       </c>
       <c r="I94" s="3">
-        <v>-492200</v>
+        <v>-492600</v>
       </c>
       <c r="J94" s="3">
         <v>-22800</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-271000</v>
+        <v>-271300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-271000</v>
+        <v>-271300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>193000</v>
+        <v>193100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1312800</v>
+        <v>-1313900</v>
       </c>
       <c r="F100" s="3">
-        <v>2393700</v>
+        <v>2395700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1276000</v>
+        <v>-1277000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1048300</v>
+        <v>-1049200</v>
       </c>
       <c r="I100" s="3">
-        <v>-296000</v>
+        <v>-296200</v>
       </c>
       <c r="J100" s="3">
-        <v>74800</v>
+        <v>74900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>435800</v>
+        <v>436200</v>
       </c>
       <c r="E101" s="3">
-        <v>194100</v>
+        <v>194200</v>
       </c>
       <c r="F101" s="3">
-        <v>-241800</v>
+        <v>-242000</v>
       </c>
       <c r="G101" s="3">
         <v>62900</v>
       </c>
       <c r="H101" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="I101" s="3">
-        <v>-156100</v>
+        <v>-156200</v>
       </c>
       <c r="J101" s="3">
         <v>21700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27889600</v>
+        <v>27912700</v>
       </c>
       <c r="E102" s="3">
-        <v>-28291800</v>
+        <v>-28315200</v>
       </c>
       <c r="F102" s="3">
-        <v>37336400</v>
+        <v>37367400</v>
       </c>
       <c r="G102" s="3">
-        <v>-13822300</v>
+        <v>-13833800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1973100</v>
+        <v>-1974700</v>
       </c>
       <c r="I102" s="3">
-        <v>21168100</v>
+        <v>21185700</v>
       </c>
       <c r="J102" s="3">
-        <v>7934500</v>
+        <v>7941100</v>
       </c>
       <c r="K102" s="3">
         <v>-7935000</v>
